--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-04</t>
+    <t xml:space="preserve">2021-08-09</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve">Indirect CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South-East Asia and Developing Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic Aviation</t>
@@ -859,10 +856,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
       <c r="C2" t="n">
         <v>0.782281585288316</v>
@@ -954,10 +951,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
       </c>
       <c r="C3" t="n">
         <v>2.22404304787916</v>
@@ -1049,10 +1046,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>0.0000096074973</v>
@@ -1144,192 +1141,192 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
       <c r="C5" t="n">
-        <v>1.35204362642711</v>
+        <v>1.33556151140129</v>
       </c>
       <c r="D5" t="n">
-        <v>1.39584958402858</v>
+        <v>1.37232350702324</v>
       </c>
       <c r="E5" t="n">
-        <v>1.38910826117511</v>
+        <v>1.42118524796904</v>
       </c>
       <c r="F5" t="n">
-        <v>1.39583983156563</v>
+        <v>1.41160162482378</v>
       </c>
       <c r="G5" t="n">
-        <v>1.44953517004953</v>
+        <v>1.46401217937351</v>
       </c>
       <c r="H5" t="n">
-        <v>1.49121438804257</v>
+        <v>1.50467876039253</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6009511646117</v>
+        <v>1.61230362054218</v>
       </c>
       <c r="J5" t="n">
-        <v>1.69495879055756</v>
+        <v>1.7099989831069</v>
       </c>
       <c r="K5" t="n">
-        <v>1.77406636378742</v>
+        <v>1.78803163010182</v>
       </c>
       <c r="L5" t="n">
-        <v>1.81371252185915</v>
+        <v>1.82490127164832</v>
       </c>
       <c r="M5" t="n">
-        <v>1.88375496188113</v>
+        <v>1.8974617553516</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95722259903201</v>
+        <v>1.96973516017804</v>
       </c>
       <c r="O5" t="n">
-        <v>1.98046734675044</v>
+        <v>1.9830066820952</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06461491117381</v>
+        <v>2.06959224304658</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14742737259572</v>
+        <v>2.15092236877892</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25936445353193</v>
+        <v>2.26357909514243</v>
       </c>
       <c r="S5" t="n">
-        <v>2.30369630552762</v>
+        <v>2.31010933581646</v>
       </c>
       <c r="T5" t="n">
-        <v>2.41444562810146</v>
+        <v>2.4196004741722</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46900666800656</v>
+        <v>2.47339881362284</v>
       </c>
       <c r="V5" t="n">
-        <v>2.41608485527084</v>
+        <v>2.42183151276133</v>
       </c>
       <c r="W5" t="n">
-        <v>2.50507291303387</v>
+        <v>2.51013493136369</v>
       </c>
       <c r="X5" t="n">
-        <v>2.52719177835223</v>
+        <v>2.53303895646228</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.5827338566998</v>
+        <v>2.58761880461954</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.6113072192343</v>
+        <v>2.62009591037475</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.60522124404426</v>
+        <v>2.61752827441556</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.59762255844381</v>
+        <v>2.61064830136235</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.59491138768352</v>
+        <v>2.60901812574578</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.60648735415322</v>
+        <v>2.62263490521955</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.60700093437626</v>
+        <v>2.61487140687654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
       <c r="C6" t="n">
-        <v>2.01230107253707</v>
+        <v>2.04045812745452</v>
       </c>
       <c r="D6" t="n">
-        <v>2.04923296001824</v>
+        <v>2.08643256482129</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1636932384995</v>
+        <v>2.15211509772763</v>
       </c>
       <c r="F6" t="n">
-        <v>2.28878799067833</v>
+        <v>2.27870378872056</v>
       </c>
       <c r="G6" t="n">
-        <v>2.30596760268389</v>
+        <v>2.29680506844063</v>
       </c>
       <c r="H6" t="n">
-        <v>2.35263954674415</v>
+        <v>2.34382008745567</v>
       </c>
       <c r="I6" t="n">
-        <v>2.47078186141218</v>
+        <v>2.46478760274482</v>
       </c>
       <c r="J6" t="n">
-        <v>2.54246260683152</v>
+        <v>2.5320460350955</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63046687406328</v>
+        <v>2.62442644359423</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63817247274538</v>
+        <v>2.63572788905518</v>
       </c>
       <c r="M6" t="n">
-        <v>2.72791834720861</v>
+        <v>2.71921768297395</v>
       </c>
       <c r="N6" t="n">
-        <v>2.81515541763388</v>
+        <v>2.80744654493665</v>
       </c>
       <c r="O6" t="n">
-        <v>2.88689972050522</v>
+        <v>2.88499970003461</v>
       </c>
       <c r="P6" t="n">
-        <v>3.0385408939981</v>
+        <v>3.03551225587723</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1050202439297</v>
+        <v>3.10350447567943</v>
       </c>
       <c r="R6" t="n">
-        <v>3.15987618953114</v>
+        <v>3.16009018199579</v>
       </c>
       <c r="S6" t="n">
-        <v>3.22227019104027</v>
+        <v>3.22194606748149</v>
       </c>
       <c r="T6" t="n">
-        <v>3.3320165874897</v>
+        <v>3.33102439757149</v>
       </c>
       <c r="U6" t="n">
-        <v>3.35838865608174</v>
+        <v>3.35956226876098</v>
       </c>
       <c r="V6" t="n">
-        <v>3.37804287813543</v>
+        <v>3.37970223232161</v>
       </c>
       <c r="W6" t="n">
-        <v>3.54080836582362</v>
+        <v>3.54296232854497</v>
       </c>
       <c r="X6" t="n">
-        <v>3.61277075823843</v>
+        <v>3.61264930122286</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.68899977804479</v>
+        <v>3.69109741296149</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.77447622490756</v>
+        <v>3.77599262186056</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.8002101437144</v>
+        <v>3.79815332048709</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.79722866747681</v>
+        <v>3.79608144766134</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.82851693954038</v>
+        <v>3.8283992938123</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.88295138584941</v>
+        <v>3.88245798618628</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.95402266822057</v>
+        <v>3.96044205997659</v>
       </c>
     </row>
     <row r="10">
@@ -1354,10 +1351,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -1371,10 +1368,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -1388,10 +1385,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -1405,10 +1402,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -1422,10 +1419,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -1439,10 +1436,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -1456,10 +1453,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1473,10 +1470,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
         <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1490,10 +1487,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -1507,16 +1504,16 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
         <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>3.48900596875898</v>
+        <v>3.64427926351409</v>
       </c>
     </row>
     <row r="21">
@@ -1524,16 +1521,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
       <c r="E21" t="n">
-        <v>3.01135190180147</v>
+        <v>2.97493992520617</v>
       </c>
     </row>
     <row r="22">
@@ -1541,16 +1538,16 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" t="n">
-        <v>0.427280584418044</v>
+        <v>0.467753867437882</v>
       </c>
     </row>
     <row r="23">
@@ -1558,16 +1555,16 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>3.17654271198734</v>
+        <v>3.01718450790812</v>
       </c>
     </row>
     <row r="24">
@@ -1575,16 +1572,16 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
       <c r="E24" t="n">
-        <v>2.46227110616263</v>
+        <v>2.49568588548757</v>
       </c>
     </row>
     <row r="25">
@@ -1592,16 +1589,16 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
         <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>1.23021563658369</v>
+        <v>1.2333383539187</v>
       </c>
     </row>
     <row r="26">
@@ -1609,10 +1606,10 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -1626,10 +1623,10 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
         <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -1643,10 +1640,10 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -1660,16 +1657,16 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>2.69839182418146</v>
+        <v>2.69651245160612</v>
       </c>
     </row>
     <row r="30">
@@ -1677,16 +1674,16 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>2.44893110233555</v>
+        <v>2.44274573871979</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1728,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -1757,10 +1754,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1783,10 +1780,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -1809,10 +1806,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1835,10 +1832,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1861,10 +1858,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1887,10 +1884,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -1913,10 +1910,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -1939,10 +1936,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1965,10 +1962,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -1991,10 +1988,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -2017,10 +2014,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -2043,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -2069,10 +2066,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -2095,10 +2092,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -2121,10 +2118,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -2147,10 +2144,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -2173,10 +2170,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -2199,10 +2196,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -2225,10 +2222,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -2251,10 +2248,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -2277,10 +2274,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -2303,10 +2300,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -2329,10 +2326,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -2355,10 +2352,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -2381,10 +2378,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
         <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -2407,10 +2404,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
         <v>101</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -2433,10 +2430,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -2459,10 +2456,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
         <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -2485,10 +2482,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
         <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -2511,10 +2508,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -2537,10 +2534,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
         <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>102</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -2563,313 +2560,261 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0258160159627886</v>
+        <v>0.0156842591626583</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0575308302344868</v>
+        <v>0.0370105806381816</v>
       </c>
       <c r="G34" t="n">
-        <v>0.113125089624437</v>
+        <v>0.087445825509816</v>
       </c>
       <c r="H34" t="n">
-        <v>0.148220597088218</v>
+        <v>0.133961176450174</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0156842591626583</v>
+        <v>0.0593193759520795</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0370105806381816</v>
+        <v>0.0887640705307425</v>
       </c>
       <c r="G35" t="n">
-        <v>0.087445825509816</v>
+        <v>0.118617162137983</v>
       </c>
       <c r="H35" t="n">
-        <v>0.133961176450174</v>
+        <v>0.167091819867106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0593193759520795</v>
+        <v>0.130366081064422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0887640705307425</v>
+        <v>0.158732179217931</v>
       </c>
       <c r="G36" t="n">
-        <v>0.118617162137983</v>
+        <v>0.20328513645683</v>
       </c>
       <c r="H36" t="n">
-        <v>0.167091819867106</v>
+        <v>0.190196735402316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
         <v>103</v>
       </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37" t="n">
-        <v>0.130366081064422</v>
+        <v>0.0848278681099531</v>
       </c>
       <c r="F37" t="n">
-        <v>0.158732179217931</v>
+        <v>0.299498513331995</v>
       </c>
       <c r="G37" t="n">
-        <v>0.20328513645683</v>
+        <v>0.729100770140574</v>
       </c>
       <c r="H37" t="n">
-        <v>0.190196735402316</v>
+        <v>1.1588768624299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0848278681099531</v>
+        <v>0.303674058026086</v>
       </c>
       <c r="F38" t="n">
-        <v>0.299498513331995</v>
+        <v>0.376614707812475</v>
       </c>
       <c r="G38" t="n">
-        <v>0.729100770140574</v>
+        <v>0.30668215602988</v>
       </c>
       <c r="H38" t="n">
-        <v>1.1588768624299</v>
+        <v>0.295563431356947</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" t="n">
-        <v>0.303674058026086</v>
+        <v>0.559960644072713</v>
       </c>
       <c r="F39" t="n">
-        <v>0.376614707812475</v>
+        <v>0.509918739953894</v>
       </c>
       <c r="G39" t="n">
-        <v>0.30668215602988</v>
+        <v>0.499879727500381</v>
       </c>
       <c r="H39" t="n">
-        <v>0.295563431356947</v>
+        <v>0.375020494114319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E40" t="n">
-        <v>0.559960644072713</v>
+        <v>0.0458854447361793</v>
       </c>
       <c r="F40" t="n">
-        <v>0.509918739953894</v>
+        <v>0.0716157176178431</v>
       </c>
       <c r="G40" t="n">
-        <v>0.499879727500381</v>
+        <v>0.104989135442703</v>
       </c>
       <c r="H40" t="n">
-        <v>0.375020494114319</v>
+        <v>0.122037858548356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0458854447361793</v>
+        <v>0.0828814632629121</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0716157176178431</v>
+        <v>0.154209707649253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.104989135442703</v>
+        <v>0.29307279290488</v>
       </c>
       <c r="H41" t="n">
-        <v>0.122037858548356</v>
+        <v>0.317782691078927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0828814632629121</v>
+        <v>0.675998599867526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.154209707649253</v>
+        <v>0.875057310732311</v>
       </c>
       <c r="G42" t="n">
-        <v>0.29307279290488</v>
+        <v>0.940029259892927</v>
       </c>
       <c r="H42" t="n">
-        <v>0.317782691078927</v>
+        <v>0.737613577125324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43" t="n">
-        <v>0.675998599867526</v>
+        <v>0.0449993904051948</v>
       </c>
       <c r="F43" t="n">
-        <v>0.875057310732311</v>
+        <v>0.131164942031553</v>
       </c>
       <c r="G43" t="n">
-        <v>0.940029259892927</v>
+        <v>0.226847636776401</v>
       </c>
       <c r="H43" t="n">
-        <v>0.737613577125324</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.0243881470399996</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0623424583306175</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.118304588541059</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.202888545977206</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.0449993904051948</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.131164942031553</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.226847636776401</v>
-      </c>
-      <c r="H45" t="n">
         <v>0.386950652320164</v>
       </c>
     </row>
@@ -2984,10 +2929,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
       <c r="C2" t="n">
         <v>0.782281585288316</v>
@@ -3079,10 +3024,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
       </c>
       <c r="C3" t="n">
         <v>2.22404304787916</v>
@@ -3174,10 +3119,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>0.0000096074973</v>
@@ -3269,10 +3214,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
       </c>
       <c r="C5" t="n">
         <v>0.935276015252151</v>
@@ -3364,192 +3309,192 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
       <c r="C6" t="n">
-        <v>1.35204362642711</v>
+        <v>1.33556151140129</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39584958402858</v>
+        <v>1.37232350702324</v>
       </c>
       <c r="E6" t="n">
-        <v>1.38910826117511</v>
+        <v>1.42118524796904</v>
       </c>
       <c r="F6" t="n">
-        <v>1.39583983156563</v>
+        <v>1.41160162482378</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44953517004953</v>
+        <v>1.46401217937351</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49121438804257</v>
+        <v>1.50467876039253</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6009511646117</v>
+        <v>1.61230362054218</v>
       </c>
       <c r="J6" t="n">
-        <v>1.69495879055756</v>
+        <v>1.7099989831069</v>
       </c>
       <c r="K6" t="n">
-        <v>1.77406636378742</v>
+        <v>1.78803163010182</v>
       </c>
       <c r="L6" t="n">
-        <v>1.81371252185915</v>
+        <v>1.82490127164832</v>
       </c>
       <c r="M6" t="n">
-        <v>1.88375496188113</v>
+        <v>1.8974617553516</v>
       </c>
       <c r="N6" t="n">
-        <v>1.95722259903201</v>
+        <v>1.96973516017804</v>
       </c>
       <c r="O6" t="n">
-        <v>1.98046734675044</v>
+        <v>1.9830066820952</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06461491117381</v>
+        <v>2.06959224304658</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14742737259572</v>
+        <v>2.15092236877892</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25936445353193</v>
+        <v>2.26357909514243</v>
       </c>
       <c r="S6" t="n">
-        <v>2.30369630552762</v>
+        <v>2.31010933581646</v>
       </c>
       <c r="T6" t="n">
-        <v>2.41444562810146</v>
+        <v>2.4196004741722</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46900666800656</v>
+        <v>2.47339881362284</v>
       </c>
       <c r="V6" t="n">
-        <v>2.41608485527084</v>
+        <v>2.42183151276133</v>
       </c>
       <c r="W6" t="n">
-        <v>2.50507291303387</v>
+        <v>2.51013493136369</v>
       </c>
       <c r="X6" t="n">
-        <v>2.52719177835223</v>
+        <v>2.53303895646228</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.5827338566998</v>
+        <v>2.58761880461954</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.6113072192343</v>
+        <v>2.62009591037475</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.60522124404426</v>
+        <v>2.61752827441556</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.59762255844381</v>
+        <v>2.61064830136235</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.59491138768352</v>
+        <v>2.60901812574578</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.60648735415322</v>
+        <v>2.62263490521955</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.60700093437626</v>
+        <v>2.61487140687654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
       <c r="C7" t="n">
-        <v>2.01230107253707</v>
+        <v>2.04045812745452</v>
       </c>
       <c r="D7" t="n">
-        <v>2.04923296001824</v>
+        <v>2.08643256482129</v>
       </c>
       <c r="E7" t="n">
-        <v>2.1636932384995</v>
+        <v>2.15211509772763</v>
       </c>
       <c r="F7" t="n">
-        <v>2.28878799067833</v>
+        <v>2.27870378872056</v>
       </c>
       <c r="G7" t="n">
-        <v>2.30596760268389</v>
+        <v>2.29680506844063</v>
       </c>
       <c r="H7" t="n">
-        <v>2.35263954674415</v>
+        <v>2.34382008745567</v>
       </c>
       <c r="I7" t="n">
-        <v>2.47078186141218</v>
+        <v>2.46478760274482</v>
       </c>
       <c r="J7" t="n">
-        <v>2.54246260683152</v>
+        <v>2.5320460350955</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63046687406328</v>
+        <v>2.62442644359423</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63817247274538</v>
+        <v>2.63572788905518</v>
       </c>
       <c r="M7" t="n">
-        <v>2.72791834720861</v>
+        <v>2.71921768297395</v>
       </c>
       <c r="N7" t="n">
-        <v>2.81515541763388</v>
+        <v>2.80744654493665</v>
       </c>
       <c r="O7" t="n">
-        <v>2.88689972050522</v>
+        <v>2.88499970003461</v>
       </c>
       <c r="P7" t="n">
-        <v>3.0385408939981</v>
+        <v>3.03551225587723</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1050202439297</v>
+        <v>3.10350447567943</v>
       </c>
       <c r="R7" t="n">
-        <v>3.15987618953114</v>
+        <v>3.16009018199579</v>
       </c>
       <c r="S7" t="n">
-        <v>3.22227019104027</v>
+        <v>3.22194606748149</v>
       </c>
       <c r="T7" t="n">
-        <v>3.3320165874897</v>
+        <v>3.33102439757149</v>
       </c>
       <c r="U7" t="n">
-        <v>3.35838865608174</v>
+        <v>3.35956226876098</v>
       </c>
       <c r="V7" t="n">
-        <v>3.37804287813543</v>
+        <v>3.37970223232161</v>
       </c>
       <c r="W7" t="n">
-        <v>3.54080836582362</v>
+        <v>3.54296232854497</v>
       </c>
       <c r="X7" t="n">
-        <v>3.61277075823843</v>
+        <v>3.61264930122286</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.68899977804479</v>
+        <v>3.69109741296149</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.77447622490756</v>
+        <v>3.77599262186056</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.8002101437144</v>
+        <v>3.79815332048709</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.79722866747681</v>
+        <v>3.79608144766134</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.82851693954038</v>
+        <v>3.8283992938123</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.88295138584941</v>
+        <v>3.88245798618628</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.95402266822057</v>
+        <v>3.96044205997659</v>
       </c>
     </row>
     <row r="10">
@@ -3574,10 +3519,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -3591,10 +3536,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -3608,10 +3553,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -3625,10 +3570,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -3642,10 +3587,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -3659,10 +3604,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -3676,10 +3621,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -3693,10 +3638,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
         <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -3710,10 +3655,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -3727,16 +3672,16 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
         <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>3.48900596875898</v>
+        <v>3.64427926351409</v>
       </c>
     </row>
     <row r="21">
@@ -3744,16 +3689,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
       <c r="E21" t="n">
-        <v>3.01135190180147</v>
+        <v>2.97493992520617</v>
       </c>
     </row>
     <row r="22">
@@ -3761,16 +3706,16 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" t="n">
-        <v>0.427280584418044</v>
+        <v>0.467753867437882</v>
       </c>
     </row>
     <row r="23">
@@ -3778,16 +3723,16 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>3.17654271198734</v>
+        <v>3.01718450790812</v>
       </c>
     </row>
     <row r="24">
@@ -3795,16 +3740,16 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
       <c r="E24" t="n">
-        <v>2.46227110616263</v>
+        <v>2.49568588548757</v>
       </c>
     </row>
     <row r="25">
@@ -3812,16 +3757,16 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
         <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>1.23021563658369</v>
+        <v>1.2333383539187</v>
       </c>
     </row>
     <row r="26">
@@ -3829,10 +3774,10 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -3846,10 +3791,10 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
         <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -3863,10 +3808,10 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
@@ -3880,10 +3825,10 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
@@ -3897,10 +3842,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
         <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -3914,10 +3859,10 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
         <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -3931,16 +3876,16 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
         <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
       </c>
       <c r="E32" t="n">
-        <v>2.69839182418146</v>
+        <v>2.69651245160612</v>
       </c>
     </row>
     <row r="33">
@@ -3948,16 +3893,16 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
         <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
       </c>
       <c r="E33" t="n">
-        <v>2.44893110233555</v>
+        <v>2.44274573871979</v>
       </c>
     </row>
     <row r="34">
@@ -3965,10 +3910,10 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
         <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -4019,10 +3964,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -4045,10 +3990,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -4071,10 +4016,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -4097,10 +4042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -4123,10 +4068,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -4149,10 +4094,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -4175,10 +4120,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -4201,10 +4146,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -4227,10 +4172,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -4253,10 +4198,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -4279,10 +4224,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -4305,10 +4250,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -4331,10 +4276,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -4357,10 +4302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -4383,10 +4328,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -4409,10 +4354,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -4435,10 +4380,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -4461,10 +4406,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -4487,10 +4432,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -4513,10 +4458,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -4539,10 +4484,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -4565,10 +4510,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -4591,10 +4536,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -4617,10 +4562,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -4643,10 +4588,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
         <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -4669,10 +4614,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -4695,10 +4640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
         <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -4721,10 +4666,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
         <v>108</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -4747,10 +4692,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
         <v>108</v>
-      </c>
-      <c r="B30" t="s">
-        <v>109</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -4773,10 +4718,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
         <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -4799,10 +4744,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -4825,10 +4770,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
         <v>108</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -4851,10 +4796,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -4877,10 +4822,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -4903,10 +4848,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
         <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
       </c>
       <c r="C36" t="s">
         <v>59</v>
@@ -4929,10 +4874,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
@@ -4955,10 +4900,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
         <v>101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -4981,10 +4926,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
         <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -5007,10 +4952,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -5033,10 +4978,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
         <v>101</v>
-      </c>
-      <c r="B41" t="s">
-        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
@@ -5059,313 +5004,261 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0258160159627886</v>
+        <v>0.0156842591626583</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0575308302344868</v>
+        <v>0.0370105806381816</v>
       </c>
       <c r="G42" t="n">
-        <v>0.113125089624437</v>
+        <v>0.087445825509816</v>
       </c>
       <c r="H42" t="n">
-        <v>0.148220597088218</v>
+        <v>0.133961176450174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0156842591626583</v>
+        <v>0.0593193759520795</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0370105806381816</v>
+        <v>0.0887640705307425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.087445825509816</v>
+        <v>0.118617162137983</v>
       </c>
       <c r="H43" t="n">
-        <v>0.133961176450174</v>
+        <v>0.167091819867106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
         <v>103</v>
       </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0593193759520795</v>
+        <v>0.130366081064422</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0887640705307425</v>
+        <v>0.158732179217931</v>
       </c>
       <c r="G44" t="n">
-        <v>0.118617162137983</v>
+        <v>0.20328513645683</v>
       </c>
       <c r="H44" t="n">
-        <v>0.167091819867106</v>
+        <v>0.190196735402316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>0.130366081064422</v>
+        <v>0.0848278681099531</v>
       </c>
       <c r="F45" t="n">
-        <v>0.158732179217931</v>
+        <v>0.299498513331995</v>
       </c>
       <c r="G45" t="n">
-        <v>0.20328513645683</v>
+        <v>0.729100770140574</v>
       </c>
       <c r="H45" t="n">
-        <v>0.190196735402316</v>
+        <v>1.1588768624299</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0848278681099531</v>
+        <v>0.303674058026086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.299498513331995</v>
+        <v>0.376614707812475</v>
       </c>
       <c r="G46" t="n">
-        <v>0.729100770140574</v>
+        <v>0.30668215602988</v>
       </c>
       <c r="H46" t="n">
-        <v>1.1588768624299</v>
+        <v>0.295563431356947</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" t="n">
-        <v>0.303674058026086</v>
+        <v>0.559960644072713</v>
       </c>
       <c r="F47" t="n">
-        <v>0.376614707812475</v>
+        <v>0.509918739953894</v>
       </c>
       <c r="G47" t="n">
-        <v>0.30668215602988</v>
+        <v>0.499879727500381</v>
       </c>
       <c r="H47" t="n">
-        <v>0.295563431356947</v>
+        <v>0.375020494114319</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E48" t="n">
-        <v>0.559960644072713</v>
+        <v>0.0458854447361793</v>
       </c>
       <c r="F48" t="n">
-        <v>0.509918739953894</v>
+        <v>0.0716157176178431</v>
       </c>
       <c r="G48" t="n">
-        <v>0.499879727500381</v>
+        <v>0.104989135442703</v>
       </c>
       <c r="H48" t="n">
-        <v>0.375020494114319</v>
+        <v>0.122037858548356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
         <v>103</v>
       </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0458854447361793</v>
+        <v>0.0828814632629121</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0716157176178431</v>
+        <v>0.154209707649253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.104989135442703</v>
+        <v>0.29307279290488</v>
       </c>
       <c r="H49" t="n">
-        <v>0.122037858548356</v>
+        <v>0.317782691078927</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
         <v>103</v>
       </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0828814632629121</v>
+        <v>0.675998599867526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154209707649253</v>
+        <v>0.875057310732311</v>
       </c>
       <c r="G50" t="n">
-        <v>0.29307279290488</v>
+        <v>0.940029259892927</v>
       </c>
       <c r="H50" t="n">
-        <v>0.317782691078927</v>
+        <v>0.737613577125324</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E51" t="n">
-        <v>0.675998599867526</v>
+        <v>0.0449993904051948</v>
       </c>
       <c r="F51" t="n">
-        <v>0.875057310732311</v>
+        <v>0.131164942031553</v>
       </c>
       <c r="G51" t="n">
-        <v>0.940029259892927</v>
+        <v>0.226847636776401</v>
       </c>
       <c r="H51" t="n">
-        <v>0.737613577125324</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.0243881470399996</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0623424583306175</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.118304588541059</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.202888545977206</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.0449993904051948</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.131164942031553</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.226847636776401</v>
-      </c>
-      <c r="H53" t="n">
         <v>0.386950652320164</v>
       </c>
     </row>
@@ -5483,7 +5376,7 @@
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
         <v>2.4775527835916</v>
@@ -5578,7 +5471,7 @@
         <v>7.2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
         <v>0.385763105888407</v>
@@ -5673,7 +5566,7 @@
         <v>7.3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="n">
         <v>1.06316365823286</v>
@@ -5768,7 +5661,7 @@
         <v>7.4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
         <v>0.22387794466674</v>
@@ -5863,7 +5756,7 @@
         <v>7.5</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="n">
         <v>1.05759672099974</v>
@@ -5958,7 +5851,7 @@
         <v>7.6</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="n">
         <v>0.0419677122028682</v>
@@ -6053,7 +5946,7 @@
         <v>7.7</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
         <v>4.979180807728</v>
@@ -6168,7 +6061,7 @@
         <v>7.1</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -6185,7 +6078,7 @@
         <v>7.1</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -6202,7 +6095,7 @@
         <v>7.1</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -6219,7 +6112,7 @@
         <v>7.2</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -6236,7 +6129,7 @@
         <v>7.2</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -6253,7 +6146,7 @@
         <v>7.2</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -6270,7 +6163,7 @@
         <v>7.3</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -6287,7 +6180,7 @@
         <v>7.3</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -6304,7 +6197,7 @@
         <v>7.3</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -6321,7 +6214,7 @@
         <v>7.4</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -6338,7 +6231,7 @@
         <v>7.4</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
@@ -6355,7 +6248,7 @@
         <v>7.4</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -6372,7 +6265,7 @@
         <v>7.5</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
@@ -6389,7 +6282,7 @@
         <v>7.5</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
@@ -6406,7 +6299,7 @@
         <v>7.5</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -6423,7 +6316,7 @@
         <v>7.6</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -6440,7 +6333,7 @@
         <v>7.6</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -6457,7 +6350,7 @@
         <v>7.6</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
@@ -6474,7 +6367,7 @@
         <v>7.7</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
@@ -6491,7 +6384,7 @@
         <v>7.7</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>51</v>
@@ -6508,7 +6401,7 @@
         <v>7.7</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
@@ -6525,7 +6418,7 @@
         <v>7.1</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
@@ -6542,7 +6435,7 @@
         <v>7.2</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
@@ -6559,7 +6452,7 @@
         <v>7.3</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -6576,7 +6469,7 @@
         <v>7.4</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
@@ -6593,7 +6486,7 @@
         <v>7.5</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -6610,7 +6503,7 @@
         <v>7.6</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -6627,7 +6520,7 @@
         <v>7.7</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -6681,7 +6574,7 @@
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -6707,7 +6600,7 @@
         <v>7.1</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -6733,7 +6626,7 @@
         <v>7.1</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -6759,7 +6652,7 @@
         <v>7.1</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -6785,7 +6678,7 @@
         <v>7.1</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -6811,7 +6704,7 @@
         <v>7.1</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -6837,7 +6730,7 @@
         <v>7.1</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -6863,7 +6756,7 @@
         <v>7.1</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -6889,7 +6782,7 @@
         <v>7.1</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -6915,7 +6808,7 @@
         <v>7.1</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -6941,7 +6834,7 @@
         <v>7.2</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -6967,7 +6860,7 @@
         <v>7.2</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -6993,7 +6886,7 @@
         <v>7.2</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -7019,7 +6912,7 @@
         <v>7.2</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -7045,7 +6938,7 @@
         <v>7.2</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -7071,7 +6964,7 @@
         <v>7.2</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -7097,7 +6990,7 @@
         <v>7.2</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -7123,7 +7016,7 @@
         <v>7.2</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -7149,7 +7042,7 @@
         <v>7.2</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -7175,7 +7068,7 @@
         <v>7.2</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -7201,7 +7094,7 @@
         <v>7.3</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -7227,7 +7120,7 @@
         <v>7.3</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -7253,7 +7146,7 @@
         <v>7.3</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -7279,7 +7172,7 @@
         <v>7.3</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
@@ -7305,7 +7198,7 @@
         <v>7.3</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -7331,7 +7224,7 @@
         <v>7.3</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -7357,7 +7250,7 @@
         <v>7.3</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -7383,7 +7276,7 @@
         <v>7.3</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -7409,7 +7302,7 @@
         <v>7.3</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -7435,7 +7328,7 @@
         <v>7.3</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
@@ -7461,7 +7354,7 @@
         <v>7.4</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -7487,7 +7380,7 @@
         <v>7.4</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -7513,7 +7406,7 @@
         <v>7.4</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -7539,7 +7432,7 @@
         <v>7.4</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -7565,7 +7458,7 @@
         <v>7.4</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -7591,7 +7484,7 @@
         <v>7.4</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -7617,7 +7510,7 @@
         <v>7.4</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
@@ -7643,7 +7536,7 @@
         <v>7.4</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
@@ -7669,7 +7562,7 @@
         <v>7.4</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -7695,7 +7588,7 @@
         <v>7.4</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
@@ -7721,7 +7614,7 @@
         <v>7.5</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
@@ -7747,7 +7640,7 @@
         <v>7.5</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -7773,7 +7666,7 @@
         <v>7.5</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -7799,7 +7692,7 @@
         <v>7.5</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -7825,7 +7718,7 @@
         <v>7.5</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -7851,7 +7744,7 @@
         <v>7.5</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -7877,7 +7770,7 @@
         <v>7.5</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -7903,7 +7796,7 @@
         <v>7.5</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -7929,7 +7822,7 @@
         <v>7.5</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
         <v>69</v>
@@ -7955,7 +7848,7 @@
         <v>7.5</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
         <v>71</v>
@@ -7981,7 +7874,7 @@
         <v>7.6</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -8007,7 +7900,7 @@
         <v>7.6</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -8033,7 +7926,7 @@
         <v>7.6</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
@@ -8059,7 +7952,7 @@
         <v>7.6</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
@@ -8085,7 +7978,7 @@
         <v>7.6</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
@@ -8111,7 +8004,7 @@
         <v>7.6</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -8137,7 +8030,7 @@
         <v>7.6</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -8163,7 +8056,7 @@
         <v>7.6</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>67</v>
@@ -8189,7 +8082,7 @@
         <v>7.6</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
@@ -8215,7 +8108,7 @@
         <v>7.6</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
@@ -8241,7 +8134,7 @@
         <v>7.7</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
         <v>56</v>
@@ -8267,7 +8160,7 @@
         <v>7.7</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
         <v>57</v>
@@ -8293,7 +8186,7 @@
         <v>7.7</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
         <v>59</v>
@@ -8319,7 +8212,7 @@
         <v>7.7</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
         <v>61</v>
@@ -8345,7 +8238,7 @@
         <v>7.7</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
         <v>62</v>
@@ -8371,7 +8264,7 @@
         <v>7.7</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -8397,7 +8290,7 @@
         <v>7.7</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
@@ -8423,7 +8316,7 @@
         <v>7.7</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
@@ -8449,7 +8342,7 @@
         <v>7.7</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>69</v>
@@ -8475,7 +8368,7 @@
         <v>7.7</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>71</v>
@@ -14073,91 +13966,91 @@
         <v>84</v>
       </c>
       <c r="C7" t="n">
-        <v>3.41406244103831</v>
+        <v>3.41669001758699</v>
       </c>
       <c r="D7" t="n">
-        <v>3.45406443135457</v>
+        <v>3.45676897420825</v>
       </c>
       <c r="E7" t="n">
-        <v>3.46142235515634</v>
+        <v>3.46376191806886</v>
       </c>
       <c r="F7" t="n">
-        <v>3.40940422599092</v>
+        <v>3.40929715799476</v>
       </c>
       <c r="G7" t="n">
-        <v>3.38771787011311</v>
+        <v>3.38776190194227</v>
       </c>
       <c r="H7" t="n">
-        <v>3.44426613947368</v>
+        <v>3.44423011306117</v>
       </c>
       <c r="I7" t="n">
-        <v>3.54906606603957</v>
+        <v>3.5490040177329</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5906066250655</v>
+        <v>3.5905025425201</v>
       </c>
       <c r="K7" t="n">
-        <v>3.59419549820086</v>
+        <v>3.59401337352277</v>
       </c>
       <c r="L7" t="n">
-        <v>3.62728723666881</v>
+        <v>3.6271261409945</v>
       </c>
       <c r="M7" t="n">
-        <v>3.86965356573263</v>
+        <v>3.86967360557024</v>
       </c>
       <c r="N7" t="n">
-        <v>3.89756317729287</v>
+        <v>3.89894702026822</v>
       </c>
       <c r="O7" t="n">
-        <v>3.89446625054705</v>
+        <v>3.89589033212267</v>
       </c>
       <c r="P7" t="n">
-        <v>4.17221385114918</v>
+        <v>4.17355271320558</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.37216478516222</v>
+        <v>4.3721297116664</v>
       </c>
       <c r="R7" t="n">
-        <v>4.53547506936759</v>
+        <v>4.53543598229857</v>
       </c>
       <c r="S7" t="n">
-        <v>4.83399068387983</v>
+        <v>4.83379328059141</v>
       </c>
       <c r="T7" t="n">
-        <v>5.09847641663386</v>
+        <v>5.09825586069203</v>
       </c>
       <c r="U7" t="n">
-        <v>5.01683315705243</v>
+        <v>5.01657268109001</v>
       </c>
       <c r="V7" t="n">
-        <v>4.86948185549389</v>
+        <v>4.86900736200993</v>
       </c>
       <c r="W7" t="n">
-        <v>5.34606144248206</v>
+        <v>5.34541635611833</v>
       </c>
       <c r="X7" t="n">
-        <v>5.75109335898494</v>
+        <v>5.75037923859227</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.87345181520417</v>
+        <v>5.8726591582406</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.96877414687345</v>
+        <v>5.96795026533967</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.93470995175026</v>
+        <v>5.93366173954319</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.76691612581416</v>
+        <v>5.76586778311346</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.74565787371562</v>
+        <v>5.7444144806862</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.81952432568411</v>
+        <v>5.81830584576587</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.97737631397535</v>
+        <v>5.97618454989376</v>
       </c>
     </row>
     <row r="10">
@@ -14446,7 +14339,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>0.693225509639759</v>
+        <v>0.683127135433787</v>
       </c>
     </row>
     <row r="27">
@@ -14463,7 +14356,7 @@
         <v>51</v>
       </c>
       <c r="E27" t="n">
-        <v>3.42513674674827</v>
+        <v>3.42108892064447</v>
       </c>
     </row>
     <row r="28">
@@ -14480,7 +14373,7 @@
         <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>0.672619697779159</v>
+        <v>0.671324271742874</v>
       </c>
     </row>
     <row r="29">
@@ -14582,7 +14475,7 @@
         <v>53</v>
       </c>
       <c r="E34" t="n">
-        <v>2.49177150391321</v>
+        <v>2.48946999802059</v>
       </c>
     </row>
   </sheetData>
@@ -16141,47 +16034,21 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0469851911638804</v>
+        <v>0.115878527237639</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0967783877931061</v>
+        <v>0.213012451934531</v>
       </c>
       <c r="G60" t="n">
-        <v>0.168190969859239</v>
+        <v>0.375378062514763</v>
       </c>
       <c r="H60" t="n">
-        <v>0.284772922611362</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.115878527237639</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.213012451934531</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.375378062514763</v>
-      </c>
-      <c r="H61" t="n">
         <v>0.514008445266924</v>
       </c>
     </row>
@@ -16299,7 +16166,7 @@
         <v>10.1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
         <v>0.286864776397056</v>
@@ -16394,7 +16261,7 @@
         <v>10.2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
         <v>3.38350590433594</v>
@@ -16489,7 +16356,7 @@
         <v>10.3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
         <v>0.137792793647384</v>
@@ -16584,7 +16451,7 @@
         <v>10.4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
         <v>0.10131243247214</v>
@@ -16679,7 +16546,7 @@
         <v>10.5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
         <v>0.481059918306386</v>
@@ -16774,7 +16641,7 @@
         <v>10.6</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
         <v>0.260335734144428</v>
@@ -16869,7 +16736,7 @@
         <v>10.7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
         <v>0.374840450180028</v>
@@ -16967,91 +16834,91 @@
         <v>84</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0857642563665799</v>
+        <v>0.0886062798009365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0867880800229011</v>
+        <v>0.0896939018311919</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0849900991815341</v>
+        <v>0.0882710614465292</v>
       </c>
       <c r="F9" t="n">
-        <v>0.098273332915479</v>
+        <v>0.099056765295856</v>
       </c>
       <c r="G9" t="n">
-        <v>0.104960811728804</v>
+        <v>0.105745091564769</v>
       </c>
       <c r="H9" t="n">
-        <v>0.10324511742286</v>
+        <v>0.103903760608469</v>
       </c>
       <c r="I9" t="n">
-        <v>0.113843180833599</v>
+        <v>0.114535127578119</v>
       </c>
       <c r="J9" t="n">
-        <v>0.108861812155294</v>
+        <v>0.109656158646305</v>
       </c>
       <c r="K9" t="n">
-        <v>0.106093230867767</v>
+        <v>0.106776794320295</v>
       </c>
       <c r="L9" t="n">
-        <v>0.107715816035641</v>
+        <v>0.108316463937004</v>
       </c>
       <c r="M9" t="n">
-        <v>0.114945956159764</v>
+        <v>0.115417906662685</v>
       </c>
       <c r="N9" t="n">
-        <v>0.116306093217072</v>
+        <v>0.11685519397752</v>
       </c>
       <c r="O9" t="n">
-        <v>0.123624328167392</v>
+        <v>0.124837043894704</v>
       </c>
       <c r="P9" t="n">
-        <v>0.137158447724199</v>
+        <v>0.137939814513159</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.142835764138583</v>
+        <v>0.14366383564934</v>
       </c>
       <c r="R9" t="n">
-        <v>0.143555630973614</v>
+        <v>0.144281721275816</v>
       </c>
       <c r="S9" t="n">
-        <v>0.150633409499183</v>
+        <v>0.151522518107678</v>
       </c>
       <c r="T9" t="n">
-        <v>0.155367904027777</v>
+        <v>0.156451637452382</v>
       </c>
       <c r="U9" t="n">
-        <v>0.155172508290797</v>
+        <v>0.156144555678002</v>
       </c>
       <c r="V9" t="n">
-        <v>0.155078629202843</v>
+        <v>0.156053215250889</v>
       </c>
       <c r="W9" t="n">
-        <v>0.166116551723106</v>
+        <v>0.167440588769771</v>
       </c>
       <c r="X9" t="n">
-        <v>0.18103921259571</v>
+        <v>0.182564717559806</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.185389843003038</v>
+        <v>0.187146647384374</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.189753891821607</v>
+        <v>0.19146530653241</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.184981324751367</v>
+        <v>0.186793074005122</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.187499182261681</v>
+        <v>0.189073333882637</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.18961451142738</v>
+        <v>0.191050180667319</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.202754041804068</v>
+        <v>0.204410618699142</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.210112785679646</v>
+        <v>0.211853742330227</v>
       </c>
     </row>
     <row r="12">
@@ -17079,7 +16946,7 @@
         <v>10.1</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -17096,7 +16963,7 @@
         <v>10.1</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -17113,7 +16980,7 @@
         <v>10.1</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
@@ -17130,7 +16997,7 @@
         <v>10.2</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -17147,7 +17014,7 @@
         <v>10.2</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
@@ -17164,7 +17031,7 @@
         <v>10.2</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -17181,7 +17048,7 @@
         <v>10.3</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -17198,7 +17065,7 @@
         <v>10.3</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
@@ -17215,7 +17082,7 @@
         <v>10.3</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
@@ -17232,7 +17099,7 @@
         <v>10.4</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -17249,7 +17116,7 @@
         <v>10.4</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -17266,7 +17133,7 @@
         <v>10.4</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
@@ -17283,7 +17150,7 @@
         <v>10.5</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
@@ -17300,7 +17167,7 @@
         <v>10.5</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
@@ -17317,7 +17184,7 @@
         <v>10.5</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
@@ -17334,7 +17201,7 @@
         <v>10.6</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
@@ -17351,7 +17218,7 @@
         <v>10.6</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
@@ -17368,7 +17235,7 @@
         <v>10.6</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
@@ -17385,7 +17252,7 @@
         <v>10.7</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
@@ -17402,7 +17269,7 @@
         <v>10.7</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -17419,7 +17286,7 @@
         <v>10.7</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -17442,7 +17309,7 @@
         <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>3.10269011802279</v>
+        <v>2.74590333313916</v>
       </c>
     </row>
     <row r="35">
@@ -17459,7 +17326,7 @@
         <v>51</v>
       </c>
       <c r="E35" t="n">
-        <v>3.61482485417482</v>
+        <v>3.63075245117159</v>
       </c>
     </row>
     <row r="36">
@@ -17476,7 +17343,7 @@
         <v>52</v>
       </c>
       <c r="E36" t="n">
-        <v>2.18795033294283</v>
+        <v>2.18143992525251</v>
       </c>
     </row>
     <row r="37">
@@ -17487,7 +17354,7 @@
         <v>10.1</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -17504,7 +17371,7 @@
         <v>10.2</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -17521,7 +17388,7 @@
         <v>10.3</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
@@ -17538,7 +17405,7 @@
         <v>10.4</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -17555,7 +17422,7 @@
         <v>10.5</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -17572,7 +17439,7 @@
         <v>10.6</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -17589,7 +17456,7 @@
         <v>10.7</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
@@ -17612,7 +17479,7 @@
         <v>53</v>
       </c>
       <c r="E44" t="n">
-        <v>3.24823567994558</v>
+        <v>3.20283342685869</v>
       </c>
     </row>
   </sheetData>
@@ -17660,7 +17527,7 @@
         <v>10.1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -17686,7 +17553,7 @@
         <v>10.1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -17712,7 +17579,7 @@
         <v>10.1</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -17738,7 +17605,7 @@
         <v>10.1</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -17764,7 +17631,7 @@
         <v>10.1</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -17790,7 +17657,7 @@
         <v>10.1</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -17816,7 +17683,7 @@
         <v>10.1</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -17842,7 +17709,7 @@
         <v>10.1</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -17868,7 +17735,7 @@
         <v>10.1</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -17894,7 +17761,7 @@
         <v>10.1</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -17920,7 +17787,7 @@
         <v>10.2</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -17946,7 +17813,7 @@
         <v>10.2</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -17972,7 +17839,7 @@
         <v>10.2</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -17998,7 +17865,7 @@
         <v>10.2</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -18024,7 +17891,7 @@
         <v>10.2</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -18050,7 +17917,7 @@
         <v>10.2</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -18076,7 +17943,7 @@
         <v>10.2</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -18102,7 +17969,7 @@
         <v>10.2</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -18128,7 +17995,7 @@
         <v>10.2</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -18154,7 +18021,7 @@
         <v>10.2</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -18180,7 +18047,7 @@
         <v>10.3</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -18206,7 +18073,7 @@
         <v>10.3</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -18232,7 +18099,7 @@
         <v>10.3</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -18258,7 +18125,7 @@
         <v>10.3</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
@@ -18284,7 +18151,7 @@
         <v>10.3</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -18310,7 +18177,7 @@
         <v>10.3</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -18336,7 +18203,7 @@
         <v>10.3</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -18362,7 +18229,7 @@
         <v>10.3</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -18388,7 +18255,7 @@
         <v>10.3</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -18414,7 +18281,7 @@
         <v>10.3</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
@@ -18440,7 +18307,7 @@
         <v>10.4</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -18466,7 +18333,7 @@
         <v>10.4</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -18492,7 +18359,7 @@
         <v>10.4</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -18518,7 +18385,7 @@
         <v>10.4</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -18544,7 +18411,7 @@
         <v>10.4</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -18570,7 +18437,7 @@
         <v>10.4</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -18596,7 +18463,7 @@
         <v>10.4</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -18622,7 +18489,7 @@
         <v>10.4</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -18648,7 +18515,7 @@
         <v>10.4</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -18674,7 +18541,7 @@
         <v>10.5</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -18700,7 +18567,7 @@
         <v>10.5</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -18726,7 +18593,7 @@
         <v>10.5</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -18752,7 +18619,7 @@
         <v>10.5</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
@@ -18778,7 +18645,7 @@
         <v>10.5</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>62</v>
@@ -18804,7 +18671,7 @@
         <v>10.5</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -18830,7 +18697,7 @@
         <v>10.5</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -18856,7 +18723,7 @@
         <v>10.5</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -18882,7 +18749,7 @@
         <v>10.5</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
         <v>69</v>
@@ -18908,7 +18775,7 @@
         <v>10.5</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>71</v>
@@ -18934,10 +18801,10 @@
         <v>10.6</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
         <v>58</v>
@@ -18960,10 +18827,10 @@
         <v>10.7</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
@@ -19171,47 +19038,21 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000198302128773191</v>
+        <v>0.00421252752092204</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000344552072386849</v>
+        <v>0.0102583928750111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00146132076288643</v>
+        <v>0.0145319999666626</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00210753377630899</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.00421252752092204</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0102583928750111</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.0145319999666626</v>
-      </c>
-      <c r="H61" t="n">
         <v>0.0177282368097067</v>
       </c>
     </row>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-18</t>
+    <t xml:space="preserve">2021-08-23</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
@@ -766,16 +766,16 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0033567874685293</v>
+        <v>0.00335678280448673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00578713470852246</v>
+        <v>0.00578712667273419</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00821784328560746</v>
+        <v>0.00821783187520505</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00685637889230539</v>
+        <v>0.00685636937397486</v>
       </c>
     </row>
     <row r="3">
@@ -792,16 +792,16 @@
         <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0114375434442727</v>
+        <v>0.0114375275618887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0176529713258914</v>
+        <v>0.017652946819801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0177220807731584</v>
+        <v>0.0177220561731584</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0203036844444261</v>
+        <v>0.0203036562357776</v>
       </c>
     </row>
     <row r="4">
@@ -818,16 +818,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00785832003620251</v>
+        <v>0.00785830905625962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0201844307843384</v>
+        <v>0.0201844027730678</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0353841365137824</v>
+        <v>0.0353840874096894</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0794468834806187</v>
+        <v>0.0794467730395254</v>
       </c>
     </row>
     <row r="5">
@@ -844,16 +844,16 @@
         <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0295214821306443</v>
+        <v>0.0295214411226373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0150571716061194</v>
+        <v>0.01505715069541</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0170196449220104</v>
+        <v>0.01701962129103</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0172162264481758</v>
+        <v>0.0172162027428647</v>
       </c>
     </row>
     <row r="6">
@@ -870,16 +870,16 @@
         <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0176042429877344</v>
+        <v>0.0176042184754531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0224775136288202</v>
+        <v>0.0224774824103157</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0214991860492165</v>
+        <v>0.0214991562028299</v>
       </c>
       <c r="H6" t="n">
-        <v>0.022864334675061</v>
+        <v>0.0228643029211611</v>
       </c>
     </row>
     <row r="7">
@@ -896,16 +896,16 @@
         <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00907458329231806</v>
+        <v>0.0090745706839079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0125339971960645</v>
+        <v>0.01253397978728</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0139532035844988</v>
+        <v>0.0139531842085171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0148175989520948</v>
+        <v>0.0148175783888322</v>
       </c>
     </row>
     <row r="8">
@@ -922,16 +922,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0016723144852356</v>
+        <v>0.0016723121631395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00278529971790808</v>
+        <v>0.0027852958519131</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00374297153097448</v>
+        <v>0.0037429663359796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00426775018756896</v>
+        <v>0.00426774426440734</v>
       </c>
     </row>
     <row r="9">
@@ -948,16 +948,16 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>0.201645648457978</v>
+        <v>0.201645367732951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.218733305303056</v>
+        <v>0.218733001644747</v>
       </c>
       <c r="G9" t="n">
-        <v>0.158566506369691</v>
+        <v>0.158566286262094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.196355394241734</v>
+        <v>0.19635512144982</v>
       </c>
     </row>
     <row r="10">
@@ -974,16 +974,16 @@
         <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00274528515890696</v>
+        <v>0.00274528134577947</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00508414446208228</v>
+        <v>0.00508413740436414</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0102148357347007</v>
+        <v>0.0102148215575125</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0191090095713685</v>
+        <v>0.019108982946165</v>
       </c>
     </row>
     <row r="11">
@@ -1000,16 +1000,16 @@
         <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00194856893523339</v>
+        <v>0.00194856623076699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00309404337148489</v>
+        <v>0.00309403906797159</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00744023462709226</v>
+        <v>0.00744022429039319</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0134135920253195</v>
+        <v>0.0134135733916717</v>
       </c>
     </row>
     <row r="12">
@@ -1026,16 +1026,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>0.108709387999145</v>
+        <v>0.108704635007209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.151364648256147</v>
+        <v>0.151359143484456</v>
       </c>
       <c r="G12" t="n">
-        <v>0.248365390091067</v>
+        <v>0.248358311872516</v>
       </c>
       <c r="H12" t="n">
-        <v>0.37106943918894</v>
+        <v>0.371057740783937</v>
       </c>
     </row>
     <row r="13">
@@ -1052,16 +1052,16 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.244767973249948</v>
+        <v>0.244759817724356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.306301621374211</v>
+        <v>0.306295309150958</v>
       </c>
       <c r="G13" t="n">
-        <v>0.290909593947727</v>
+        <v>0.290905315200281</v>
       </c>
       <c r="H13" t="n">
-        <v>0.272289631090345</v>
+        <v>0.272286036824464</v>
       </c>
     </row>
     <row r="14">
@@ -1078,16 +1078,16 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>0.121171477689987</v>
+        <v>0.121163709195429</v>
       </c>
       <c r="F14" t="n">
-        <v>0.301017477347187</v>
+        <v>0.300999568863473</v>
       </c>
       <c r="G14" t="n">
-        <v>0.597505850278326</v>
+        <v>0.597476620715975</v>
       </c>
       <c r="H14" t="n">
-        <v>0.936911788434396</v>
+        <v>0.936847554775983</v>
       </c>
     </row>
     <row r="15">
@@ -1104,16 +1104,16 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.214023451413251</v>
+        <v>0.214010748481407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.137240989232312</v>
+        <v>0.137234847963879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.199915967247156</v>
+        <v>0.199910370950513</v>
       </c>
       <c r="H15" t="n">
-        <v>0.211350631313628</v>
+        <v>0.21134481456862</v>
       </c>
     </row>
     <row r="16">
@@ -1130,16 +1130,16 @@
         <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.819937702106799</v>
+        <v>0.819884696249244</v>
       </c>
       <c r="F16" t="n">
-        <v>0.934846313884383</v>
+        <v>0.934812875556797</v>
       </c>
       <c r="G16" t="n">
-        <v>0.971067368927658</v>
+        <v>0.971048541687543</v>
       </c>
       <c r="H16" t="n">
-        <v>1.01029942588563</v>
+        <v>1.01028311975022</v>
       </c>
     </row>
     <row r="17">
@@ -1156,16 +1156,16 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>0.269593532674074</v>
+        <v>0.269581029393364</v>
       </c>
       <c r="F17" t="n">
-        <v>0.376689754113426</v>
+        <v>0.376674134508098</v>
       </c>
       <c r="G17" t="n">
-        <v>0.509996466032503</v>
+        <v>0.509977842756707</v>
       </c>
       <c r="H17" t="n">
-        <v>0.557326854629488</v>
+        <v>0.557305815590115</v>
       </c>
     </row>
     <row r="18">
@@ -1182,16 +1182,16 @@
         <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>0.152710928893448</v>
+        <v>0.152703671733563</v>
       </c>
       <c r="F18" t="n">
-        <v>0.221311480159438</v>
+        <v>0.221301859196147</v>
       </c>
       <c r="G18" t="n">
-        <v>0.359461840598059</v>
+        <v>0.359448774016001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.421580161050655</v>
+        <v>0.421562449612314</v>
       </c>
     </row>
     <row r="19">
@@ -1208,16 +1208,16 @@
         <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>1.29425667480156</v>
+        <v>1.29421049405305</v>
       </c>
       <c r="F19" t="n">
-        <v>1.60470409438074</v>
+        <v>1.60467719010577</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6335597932533</v>
+        <v>1.6335382622034</v>
       </c>
       <c r="H19" t="n">
-        <v>1.65780781079374</v>
+        <v>1.65778553199016</v>
       </c>
     </row>
     <row r="20">
@@ -1234,16 +1234,16 @@
         <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0929903681102993</v>
+        <v>0.0929857039391732</v>
       </c>
       <c r="F20" t="n">
-        <v>0.176167492510816</v>
+        <v>0.176158950739604</v>
       </c>
       <c r="G20" t="n">
-        <v>0.248085360256001</v>
+        <v>0.248072474098789</v>
       </c>
       <c r="H20" t="n">
-        <v>0.361124474997649</v>
+        <v>0.361105793838757</v>
       </c>
     </row>
     <row r="21">
@@ -1260,16 +1260,16 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0653444073974263</v>
+        <v>0.0653408502552258</v>
       </c>
       <c r="F21" t="n">
-        <v>0.120208492517433</v>
+        <v>0.120202182302849</v>
       </c>
       <c r="G21" t="n">
-        <v>0.228043942765887</v>
+        <v>0.228030121267788</v>
       </c>
       <c r="H21" t="n">
-        <v>0.362573694258293</v>
+        <v>0.36255023211151</v>
       </c>
     </row>
     <row r="22">
@@ -1286,16 +1286,16 @@
         <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00152143601822432</v>
+        <v>0.00152142514920107</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0013248843478</v>
+        <v>0.0013248711913</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00116119577751588</v>
+        <v>0.0011611841939258</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0020976752775254</v>
+        <v>0.00209765392906703</v>
       </c>
     </row>
     <row r="23">
@@ -1312,16 +1312,16 @@
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00305615401058</v>
+        <v>0.00305612310595</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00306625661128</v>
+        <v>0.0030662256073</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0034512444002</v>
+        <v>0.00345120949025</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00453666537940649</v>
+        <v>0.00453661939995475</v>
       </c>
     </row>
     <row r="24">
@@ -1338,16 +1338,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02767750255878</v>
+        <v>0.02767737834555</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0153818667599</v>
+        <v>0.01538172291155</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01977382967342</v>
+        <v>0.01977362959865</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0125813560042805</v>
+        <v>0.012581228088223</v>
       </c>
     </row>
     <row r="25">
@@ -1364,16 +1364,16 @@
         <v>54</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02455678471628</v>
+        <v>0.0245565369881</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00945226019434</v>
+        <v>0.00945216481865</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00737040878588</v>
+        <v>0.00737033407345</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00796442259114318</v>
+        <v>0.00796434263464605</v>
       </c>
     </row>
     <row r="26">
@@ -1390,16 +1390,16 @@
         <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0181039189076</v>
+        <v>0.01810374232805</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01385474085246</v>
+        <v>0.013854600791</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01100569677478</v>
+        <v>0.011005585656</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00756870813078416</v>
+        <v>0.00756863127429158</v>
       </c>
     </row>
     <row r="27">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00433074876472</v>
+        <v>0.00433070259435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00347680796522</v>
+        <v>0.00347677102505</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00545058675462</v>
+        <v>0.00545053158115</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00567208120025576</v>
+        <v>0.00567202380385914</v>
       </c>
     </row>
     <row r="28">
@@ -1442,7 +1442,7 @@
         <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00006036722048</v>
+        <v>0.0000603666096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1468,16 +1468,16 @@
         <v>61</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0428269309908</v>
+        <v>0.042826497608</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04060825461</v>
+        <v>0.04060784368</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0358428844314</v>
+        <v>0.035842520011</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0463072165722709</v>
+        <v>0.0463067371606981</v>
       </c>
     </row>
     <row r="30">
@@ -1494,16 +1494,16 @@
         <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00042582016128</v>
+        <v>0.0004258162035</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00048195322624</v>
+        <v>0.00048194834915</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00091912313736</v>
+        <v>0.0009191138364</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00219828887599215</v>
+        <v>0.00219826667220212</v>
       </c>
     </row>
     <row r="31">
@@ -1520,16 +1520,16 @@
         <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01523313029864</v>
+        <v>0.01523302791265</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00661312442028</v>
+        <v>0.00661305754965</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0099518344105</v>
+        <v>0.0099517337058</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0122681320699267</v>
+        <v>0.0122680068332696</v>
       </c>
     </row>
     <row r="32">
@@ -1546,16 +1546,16 @@
         <v>49</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0007462654764</v>
+        <v>0.000746251335</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0031692829636</v>
+        <v>0.003169225565</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00271719801847983</v>
+        <v>0.0027171484948799</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00269498891235835</v>
+        <v>0.0026949389354154</v>
       </c>
     </row>
     <row r="33">
@@ -1572,16 +1572,16 @@
         <v>51</v>
       </c>
       <c r="E33" t="n">
-        <v>0.015914262676</v>
+        <v>0.0159139745</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0167485381392</v>
+        <v>0.01674823458</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0133768930456</v>
+        <v>0.01337664979</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0114908554490524</v>
+        <v>0.0114906446782893</v>
       </c>
     </row>
     <row r="34">
@@ -1598,16 +1598,16 @@
         <v>53</v>
       </c>
       <c r="E34" t="n">
-        <v>0.013938110170739</v>
+        <v>0.0139378538876962</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0429230762142874</v>
+        <v>0.0429222885857282</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0540816548728032</v>
+        <v>0.05408065569668</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0855462003100018</v>
+        <v>0.0855446174594721</v>
       </c>
     </row>
     <row r="35">
@@ -1624,16 +1624,16 @@
         <v>54</v>
       </c>
       <c r="E35" t="n">
-        <v>0.014903846032</v>
+        <v>0.01490357075</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0037598473532</v>
+        <v>0.003759778105</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0022342759912</v>
+        <v>0.00223423468</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00150737357189656</v>
+        <v>0.00150734596612435</v>
       </c>
     </row>
     <row r="36">
@@ -1650,16 +1650,16 @@
         <v>55</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0234109519359</v>
+        <v>0.0234105160515</v>
       </c>
       <c r="F36" t="n">
-        <v>0.022237617096</v>
+        <v>0.0222372034564</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0247695588623</v>
+        <v>0.0247690995393</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0192429417131271</v>
+        <v>0.0192425858816883</v>
       </c>
     </row>
     <row r="37">
@@ -1676,16 +1676,16 @@
         <v>57</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00853171055090482</v>
+        <v>0.00853155518446508</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00988231868011941</v>
+        <v>0.00988213640241303</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0106997063373907</v>
+        <v>0.0106995095841309</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00819241859855195</v>
+        <v>0.00819226781017019</v>
       </c>
     </row>
     <row r="38">
@@ -1702,16 +1702,16 @@
         <v>61</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0160714494185982</v>
+        <v>0.016071138032838</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0147150646677448</v>
+        <v>0.0147147788610505</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0168473215971282</v>
+        <v>0.0168469967399884</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0292938245529957</v>
+        <v>0.0292932605417609</v>
       </c>
     </row>
     <row r="39">
@@ -1728,16 +1728,16 @@
         <v>63</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00565718983810819</v>
+        <v>0.00565708498596063</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0088003350357179</v>
+        <v>0.00880017167643274</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00860657992540487</v>
+        <v>0.00860641986424271</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0141413735877091</v>
+        <v>0.014141109367765</v>
       </c>
     </row>
     <row r="40">
@@ -1754,16 +1754,16 @@
         <v>65</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00213864637348984</v>
+        <v>0.00213860710070014</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00209504359483682</v>
+        <v>0.00209500490867482</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00375559464395872</v>
+        <v>0.003755525047646</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00627358345641486</v>
+        <v>0.0062734655549844</v>
       </c>
     </row>
     <row r="41">
@@ -1780,16 +1780,16 @@
         <v>49</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00670012519307284</v>
+        <v>0.00670006192471086</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0113176259448228</v>
+        <v>0.0113175202422502</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0184421209063257</v>
+        <v>0.0184419470615936</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0190219322858947</v>
+        <v>0.0190217524007116</v>
       </c>
     </row>
     <row r="42">
@@ -1806,16 +1806,16 @@
         <v>51</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02302591853344</v>
+        <v>0.0230256078076</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02330664860674</v>
+        <v>0.0233063588111</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02283886994004</v>
+        <v>0.0228385949386</v>
       </c>
       <c r="H42" t="n">
-        <v>0.022927801180712</v>
+        <v>0.0229275359595871</v>
       </c>
     </row>
     <row r="43">
@@ -1832,16 +1832,16 @@
         <v>53</v>
       </c>
       <c r="E43" t="n">
-        <v>0.053242671978792</v>
+        <v>0.05324210900266</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0372001404303235</v>
+        <v>0.0371997462557941</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0540483601676086</v>
+        <v>0.0540477900951976</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0707412614793504</v>
+        <v>0.0707405419195837</v>
       </c>
     </row>
     <row r="44">
@@ -1858,16 +1858,16 @@
         <v>54</v>
       </c>
       <c r="E44" t="n">
-        <v>0.14574042273142</v>
+        <v>0.1457395104628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09758072301194</v>
+        <v>0.09758019270945</v>
       </c>
       <c r="G44" t="n">
-        <v>0.10498008226702</v>
+        <v>0.1049795291094</v>
       </c>
       <c r="H44" t="n">
-        <v>0.101283674801774</v>
+        <v>0.101283156805761</v>
       </c>
     </row>
     <row r="45">
@@ -1884,16 +1884,16 @@
         <v>55</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09183329767746</v>
+        <v>0.0918323349446</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08165371944634</v>
+        <v>0.0816528877426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08022084705118</v>
+        <v>0.08022007267155</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0700891895304236</v>
+        <v>0.0700884936969639</v>
       </c>
     </row>
     <row r="46">
@@ -1910,16 +1910,16 @@
         <v>57</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0272267437016089</v>
+        <v>0.0272263603994694</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0403641858952429</v>
+        <v>0.0403637629777618</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0525540021038637</v>
+        <v>0.0525534809260872</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0495119339910462</v>
+        <v>0.0495114541823825</v>
       </c>
     </row>
     <row r="47">
@@ -1936,16 +1936,16 @@
         <v>59</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01323284376484</v>
+        <v>0.0132327098559</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01795728644532</v>
+        <v>0.01795711426</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01714002071306</v>
+        <v>0.0171398542015</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0116557994156121</v>
+        <v>0.0116556957552168</v>
       </c>
     </row>
     <row r="48">
@@ -1962,16 +1962,16 @@
         <v>61</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0937993343045912</v>
+        <v>0.093798683389534</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0928763914782702</v>
+        <v>0.0928757593152101</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0987449215573795</v>
+        <v>0.0987442066008088</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0965926713729524</v>
+        <v>0.0965920482764435</v>
       </c>
     </row>
     <row r="49">
@@ -1988,16 +1988,16 @@
         <v>63</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0103728795236939</v>
+        <v>0.0103727691405274</v>
       </c>
       <c r="F49" t="n">
-        <v>0.021375764666188</v>
+        <v>0.0213755388736841</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0240508840784465</v>
+        <v>0.0240506074575117</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0277672129602136</v>
+        <v>0.027766908544155</v>
       </c>
     </row>
     <row r="50">
@@ -2014,16 +2014,16 @@
         <v>65</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0158856808974668</v>
+        <v>0.015885520436065</v>
       </c>
       <c r="F50" t="n">
-        <v>0.029272684277706</v>
+        <v>0.0292723886401456</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0318545143035392</v>
+        <v>0.0318541931769371</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0445212974166929</v>
+        <v>0.0445208497182048</v>
       </c>
     </row>
     <row r="51">
@@ -2254,21 +2254,45 @@
         <v>103</v>
       </c>
       <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.000198302128773191</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.000344552072386849</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.00146132076288643</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>65</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E61" t="n">
         <v>0.00421252752092204</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F61" t="n">
         <v>0.0102583928750111</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G61" t="n">
         <v>0.0145319999666626</v>
       </c>
-      <c r="H60"/>
+      <c r="H61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,94 +2414,94 @@
         <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4775527835916</v>
+        <v>2.45933548371225</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48025387457524</v>
+        <v>2.46201671373278</v>
       </c>
       <c r="E2" t="n">
-        <v>2.48236693180392</v>
+        <v>2.46411423377595</v>
       </c>
       <c r="F2" t="n">
-        <v>2.47486701679352</v>
+        <v>2.45666946519945</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4957181063493</v>
+        <v>2.47736723792027</v>
       </c>
       <c r="H2" t="n">
-        <v>2.50657835597778</v>
+        <v>2.48814763277207</v>
       </c>
       <c r="I2" t="n">
-        <v>2.51007444912786</v>
+        <v>2.49161801935487</v>
       </c>
       <c r="J2" t="n">
-        <v>2.46606801499502</v>
+        <v>2.44793516194359</v>
       </c>
       <c r="K2" t="n">
-        <v>2.47256656135086</v>
+        <v>2.45438592487034</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4810299994839</v>
+        <v>2.46278713184064</v>
       </c>
       <c r="M2" t="n">
-        <v>2.49449940140608</v>
+        <v>2.4761574940428</v>
       </c>
       <c r="N2" t="n">
-        <v>2.50472057550992</v>
+        <v>2.4863035124547</v>
       </c>
       <c r="O2" t="n">
-        <v>2.53615843516528</v>
+        <v>2.5175102113773</v>
       </c>
       <c r="P2" t="n">
-        <v>2.57384551665952</v>
+        <v>2.5549201819782</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.61397592834352</v>
+        <v>2.5947555171057</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63705166489408</v>
+        <v>2.6176615791228</v>
       </c>
       <c r="S2" t="n">
-        <v>2.67099116252458</v>
+        <v>2.65135152162366</v>
       </c>
       <c r="T2" t="n">
-        <v>2.70823281856288</v>
+        <v>2.6883193419558</v>
       </c>
       <c r="U2" t="n">
-        <v>2.74117977869514</v>
+        <v>2.72102404502826</v>
       </c>
       <c r="V2" t="n">
-        <v>2.75499830932845</v>
+        <v>2.73474096881868</v>
       </c>
       <c r="W2" t="n">
-        <v>2.76636054576512</v>
+        <v>2.7460196593992</v>
       </c>
       <c r="X2" t="n">
-        <v>2.78542199145117</v>
+        <v>2.76494094739638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.81506169218554</v>
+        <v>2.79436270915476</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.8322275306383</v>
+        <v>2.81140232820714</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.85107658803584</v>
+        <v>2.8301127895944</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.8810806684528</v>
+        <v>2.859896251773</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.9149102164568</v>
+        <v>2.8934770531005</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.92559756771856</v>
+        <v>2.9040858208971</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.9480714777192</v>
+        <v>2.9263944815595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.98374266361607</v>
+        <v>2.96180337932477</v>
       </c>
     </row>
     <row r="3">
@@ -2488,94 +2512,94 @@
         <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>0.385763105888407</v>
+        <v>0.383572847364061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.385993312485636</v>
+        <v>0.383795978256541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.384463874849159</v>
+        <v>0.382274552513672</v>
       </c>
       <c r="F3" t="n">
-        <v>0.383608323525614</v>
+        <v>0.381423493556538</v>
       </c>
       <c r="G3" t="n">
-        <v>0.384996666465767</v>
+        <v>0.382807199299097</v>
       </c>
       <c r="H3" t="n">
-        <v>0.383621753711758</v>
+        <v>0.381443346461469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.385219792266631</v>
+        <v>0.383036044598717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.374494136839934</v>
+        <v>0.372349191527853</v>
       </c>
       <c r="K3" t="n">
-        <v>0.377152972770946</v>
+        <v>0.374996729636997</v>
       </c>
       <c r="L3" t="n">
-        <v>0.378367099738909</v>
+        <v>0.376200488838974</v>
       </c>
       <c r="M3" t="n">
-        <v>0.380569695912893</v>
+        <v>0.37839455306519</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378617384351533</v>
+        <v>0.376447648456337</v>
       </c>
       <c r="O3" t="n">
-        <v>0.382800519969122</v>
+        <v>0.380598892652708</v>
       </c>
       <c r="P3" t="n">
-        <v>0.384008850555238</v>
+        <v>0.381796776019359</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.384996639135172</v>
+        <v>0.382775101836781</v>
       </c>
       <c r="R3" t="n">
-        <v>0.388133389969752</v>
+        <v>0.385890181320798</v>
       </c>
       <c r="S3" t="n">
-        <v>0.393336226163743</v>
+        <v>0.391060740945522</v>
       </c>
       <c r="T3" t="n">
-        <v>0.395548967131838</v>
+        <v>0.393256612273342</v>
       </c>
       <c r="U3" t="n">
-        <v>0.400325793583164</v>
+        <v>0.39800806482296</v>
       </c>
       <c r="V3" t="n">
-        <v>0.401638037628158</v>
+        <v>0.399311819799809</v>
       </c>
       <c r="W3" t="n">
-        <v>0.403734832764552</v>
+        <v>0.401395081907014</v>
       </c>
       <c r="X3" t="n">
-        <v>0.402688607101744</v>
+        <v>0.400351822699294</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.406465514741599</v>
+        <v>0.4041042781333</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.40848270125459</v>
+        <v>0.406102345072752</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.412792675326228</v>
+        <v>0.410387622401279</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.416712781492643</v>
+        <v>0.414285147492653</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.421092450617918</v>
+        <v>0.418637236772873</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.421551228854962</v>
+        <v>0.419093494198307</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.42386573460304</v>
+        <v>0.421405487301627</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.428501275427824</v>
+        <v>0.426016532913334</v>
       </c>
     </row>
     <row r="4">
@@ -2586,94 +2610,94 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>1.06316365823286</v>
+        <v>1.05534627839291</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03936587218611</v>
+        <v>1.0317234760671</v>
       </c>
       <c r="E4" t="n">
-        <v>1.02452466090538</v>
+        <v>1.0169913913399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.991609814661811</v>
+        <v>0.984318566024592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.978748062962664</v>
+        <v>0.971551386029115</v>
       </c>
       <c r="H4" t="n">
-        <v>0.979189943696594</v>
+        <v>0.971990017640001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.972906768297688</v>
+        <v>0.965753042060205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.96365529422488</v>
+        <v>0.95656959353205</v>
       </c>
       <c r="K4" t="n">
-        <v>0.939793820231308</v>
+        <v>0.932883571553136</v>
       </c>
       <c r="L4" t="n">
-        <v>0.951170525692427</v>
+        <v>0.944176624768218</v>
       </c>
       <c r="M4" t="n">
-        <v>0.91101745262513</v>
+        <v>0.904318794885239</v>
       </c>
       <c r="N4" t="n">
-        <v>0.89897877122326</v>
+        <v>0.89236863319956</v>
       </c>
       <c r="O4" t="n">
-        <v>0.889792148845755</v>
+        <v>0.883249559516007</v>
       </c>
       <c r="P4" t="n">
-        <v>0.884048416480733</v>
+        <v>0.877548060477198</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.915536116977746</v>
+        <v>0.908804233764674</v>
       </c>
       <c r="R4" t="n">
-        <v>0.943172931515688</v>
+        <v>0.936237836431014</v>
       </c>
       <c r="S4" t="n">
-        <v>0.953412315153752</v>
+        <v>0.946401930483504</v>
       </c>
       <c r="T4" t="n">
-        <v>0.959948220037802</v>
+        <v>0.952889777243406</v>
       </c>
       <c r="U4" t="n">
-        <v>0.991598481734374</v>
+        <v>0.984307316427504</v>
       </c>
       <c r="V4" t="n">
-        <v>0.993583960437797</v>
+        <v>0.986278196022813</v>
       </c>
       <c r="W4" t="n">
-        <v>1.00877353150808</v>
+        <v>1.00135607907052</v>
       </c>
       <c r="X4" t="n">
-        <v>1.0130348055956</v>
+        <v>1.00558602026034</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.01373256559127</v>
+        <v>1.0062786496678</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.02546390717224</v>
+        <v>1.01792373138421</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.01804917812806</v>
+        <v>1.01056352240653</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.01316303534894</v>
+        <v>1.00571330714784</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.01439102616387</v>
+        <v>1.00693226861854</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.0314873460896</v>
+        <v>1.02390288030953</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.03098501851646</v>
+        <v>1.02340424632149</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.02511541138999</v>
+        <v>1.01757779807094</v>
       </c>
     </row>
     <row r="5">
@@ -2880,94 +2904,94 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0419677122028682</v>
+        <v>0.0417228438687474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0413562615591139</v>
+        <v>0.041114960814861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0424637169810701</v>
+        <v>0.0422159545744509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0424244146529045</v>
+        <v>0.0421768815824454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0431713881228852</v>
+        <v>0.0429194967329475</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0425846528906643</v>
+        <v>0.0423361848771269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0442328279508514</v>
+        <v>0.0439747433698536</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0450477879946586</v>
+        <v>0.0447849483740586</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0450175988167556</v>
+        <v>0.044754935372078</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0460068352126016</v>
+        <v>0.0457383998609597</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0461657130286974</v>
+        <v>0.045896350662276</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0475352287802584</v>
+        <v>0.0472578757228503</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0471182407590543</v>
+        <v>0.046843320694486</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0487858022450447</v>
+        <v>0.0485011524965952</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0506182853185153</v>
+        <v>0.0503229436645571</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0517025707151642</v>
+        <v>0.0514009025436985</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0522936350100407</v>
+        <v>0.0519885181384046</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0541865714687441</v>
+        <v>0.0538704099096563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.057778222942628</v>
+        <v>0.0574411052544212</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0572956676632574</v>
+        <v>0.0569613655157462</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0590059997500979</v>
+        <v>0.0586617183431252</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0614344484587321</v>
+        <v>0.0610759978972377</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0616224189299637</v>
+        <v>0.0612628715444118</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0645073061749419</v>
+        <v>0.0641309264034442</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0650245645970259</v>
+        <v>0.0646451667985026</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0650110945693158</v>
+        <v>0.0646317753368652</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.065886230498812</v>
+        <v>0.0655018051173702</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0690338607201707</v>
+        <v>0.0686310699028617</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0682127634806274</v>
+        <v>0.0678147635914429</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0686792273195691</v>
+        <v>0.0682785057617064</v>
       </c>
     </row>
     <row r="8">
@@ -3122,16 +3146,16 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.26709994896256</v>
+        <v>0.2651359787496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3260645047008</v>
+        <v>0.323666971578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4401458375264</v>
+        <v>0.436909471074</v>
       </c>
       <c r="H2" t="n">
-        <v>0.528040025511159</v>
+        <v>0.524157378264754</v>
       </c>
     </row>
     <row r="3">
@@ -3148,16 +3172,16 @@
         <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.121209525904</v>
+        <v>0.12031827939</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1206916178032</v>
+        <v>0.119804179437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1195818323712</v>
+        <v>0.118702554192</v>
       </c>
       <c r="H3" t="n">
-        <v>0.115238351906778</v>
+        <v>0.114391011083935</v>
       </c>
     </row>
     <row r="4">
@@ -3174,16 +3198,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20500448246528</v>
+        <v>0.2034970965648</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2549070936128</v>
+        <v>0.253032776748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2204819566336</v>
+        <v>0.218860765776</v>
       </c>
       <c r="H4" t="n">
-        <v>0.219448692468031</v>
+        <v>0.21783509914106</v>
       </c>
     </row>
     <row r="5">
@@ -3200,16 +3224,16 @@
         <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>0.237525397360016</v>
+        <v>0.23577888708531</v>
       </c>
       <c r="F5" t="n">
-        <v>0.118662401896</v>
+        <v>0.117789884235</v>
       </c>
       <c r="G5" t="n">
-        <v>0.128294981608</v>
+        <v>0.127351636155</v>
       </c>
       <c r="H5" t="n">
-        <v>0.143862759096737</v>
+        <v>0.142804944691614</v>
       </c>
     </row>
     <row r="6">
@@ -3226,16 +3250,16 @@
         <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>0.377384558381024</v>
+        <v>0.37460967192234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.28118131701856</v>
+        <v>0.2791138073346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2510069403936</v>
+        <v>0.249161301126</v>
       </c>
       <c r="H6" t="n">
-        <v>0.259114733463801</v>
+        <v>0.257209478070685</v>
       </c>
     </row>
     <row r="7">
@@ -3252,16 +3276,16 @@
         <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.55741891555936</v>
+        <v>0.5533202470626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.61532218844048</v>
+        <v>0.6107977605843</v>
       </c>
       <c r="G7" t="n">
-        <v>0.73448767700224</v>
+        <v>0.7290870323184</v>
       </c>
       <c r="H7" t="n">
-        <v>0.771717361362417</v>
+        <v>0.766042968999458</v>
       </c>
     </row>
     <row r="8">
@@ -3278,16 +3302,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0320436066256</v>
+        <v>0.031807991871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.036469682888</v>
+        <v>0.036201523455</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0399730137568</v>
+        <v>0.039679094538</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0382620271022501</v>
+        <v>0.0379806886676748</v>
       </c>
     </row>
     <row r="9">
@@ -3304,16 +3328,16 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1798870537592</v>
+        <v>0.1785643548345</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19694843208784</v>
+        <v>0.1955002818519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1965094729744</v>
+        <v>0.195064550379</v>
       </c>
       <c r="H9" t="n">
-        <v>0.212938664970913</v>
+        <v>0.211372939493186</v>
       </c>
     </row>
     <row r="10">
@@ -3330,16 +3354,16 @@
         <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08534826179056</v>
+        <v>0.0847207010421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0875224346768</v>
+        <v>0.086878887363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.10801526167808</v>
+        <v>0.1072210318128</v>
       </c>
       <c r="H10" t="n">
-        <v>0.113299636602424</v>
+        <v>0.112466551039171</v>
       </c>
     </row>
     <row r="11">
@@ -3356,16 +3380,16 @@
         <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>0.414631032784</v>
+        <v>0.41158227519</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4567297282816</v>
+        <v>0.453371421456</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5278635718208</v>
+        <v>0.523982222028</v>
       </c>
       <c r="H11" t="n">
-        <v>0.581820411131557</v>
+        <v>0.577542319873237</v>
       </c>
     </row>
     <row r="12">
@@ -3382,16 +3406,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0119567137225443</v>
+        <v>0.011884334482175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0151577126407492</v>
+        <v>0.0150683360525629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0204183717157135</v>
+        <v>0.0202996602936815</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0257764998715821</v>
+        <v>0.0256273659527303</v>
       </c>
     </row>
     <row r="13">
@@ -3408,16 +3432,16 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0152227787445054</v>
+        <v>0.0151217807236458</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0152404214012438</v>
+        <v>0.0151390599095098</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0146180039418168</v>
+        <v>0.0145208794932668</v>
       </c>
       <c r="H13" t="n">
-        <v>0.014877667218915</v>
+        <v>0.0147776435786033</v>
       </c>
     </row>
     <row r="14">
@@ -3434,16 +3458,16 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0553122744599664</v>
+        <v>0.0550804789605424</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0706087532435279</v>
+        <v>0.0703169764465059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0708842416284272</v>
+        <v>0.0705597118834872</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0666394090966948</v>
+        <v>0.0663423757672086</v>
       </c>
     </row>
     <row r="15">
@@ -3460,16 +3484,16 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0461344818872288</v>
+        <v>0.0459011442148311</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0243766055099333</v>
+        <v>0.0242469653333934</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0251423256611967</v>
+        <v>0.0250102940438506</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0287140711014348</v>
+        <v>0.0285639245786765</v>
       </c>
     </row>
     <row r="16">
@@ -3486,16 +3510,16 @@
         <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.113524010211852</v>
+        <v>0.112860590648568</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0952854907212101</v>
+        <v>0.0947189701597306</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0902969083064951</v>
+        <v>0.0897561359199174</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0938088117963688</v>
+        <v>0.0932452827130801</v>
       </c>
     </row>
     <row r="17">
@@ -3512,16 +3536,16 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0228108757904402</v>
+        <v>0.0226885397220004</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0251602778452306</v>
+        <v>0.0250217375620902</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0308827568704771</v>
+        <v>0.030715371849865</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0334761407730077</v>
+        <v>0.0332968795985068</v>
       </c>
     </row>
     <row r="18">
@@ -3538,16 +3562,16 @@
         <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00158061487644196</v>
+        <v>0.00157028774070576</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00180134844627668</v>
+        <v>0.00178972870135668</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00235854097809048</v>
+        <v>0.0023438465150081</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00250020382236807</v>
+        <v>0.00248474502484053</v>
       </c>
     </row>
     <row r="19">
@@ -3564,16 +3588,16 @@
         <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0611051487804419</v>
+        <v>0.0606868550740897</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0680944852543198</v>
+        <v>0.067629412242262</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0708015745017971</v>
+        <v>0.0703176951279053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0764952967679548</v>
+        <v>0.075970967246721</v>
       </c>
     </row>
     <row r="20">
@@ -3590,16 +3614,16 @@
         <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0207218840393744</v>
+        <v>0.0206413488056169</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238660093407937</v>
+        <v>0.0237661532095302</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0314521314413505</v>
+        <v>0.0313135260840289</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0348705443019439</v>
+        <v>0.0347176275971937</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3640,16 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0373943233756118</v>
+        <v>0.0371374869918858</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0409785915096079</v>
+        <v>0.0406972134482479</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0468799777191875</v>
+        <v>0.0465579606960035</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0513426306775544</v>
+        <v>0.0509897208557733</v>
       </c>
     </row>
     <row r="22">
@@ -3642,16 +3666,16 @@
         <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0251931909907536</v>
+        <v>0.025007946939351</v>
       </c>
       <c r="F22" t="n">
-        <v>0.027710443711696</v>
+        <v>0.02750669044911</v>
       </c>
       <c r="G22" t="n">
-        <v>0.036576314180048</v>
+        <v>0.03630737069343</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0491582922280514</v>
+        <v>0.0487968341969628</v>
       </c>
     </row>
     <row r="23">
@@ -3668,16 +3692,16 @@
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.033310824352</v>
+        <v>0.03306589182</v>
       </c>
       <c r="F23" t="n">
-        <v>0.022745200048</v>
+        <v>0.02257795593</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01956169503168</v>
+        <v>0.0194178590388</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0181003561553855</v>
+        <v>0.0179672653013018</v>
       </c>
     </row>
     <row r="24">
@@ -3694,16 +3718,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>0.470685120021042</v>
+        <v>0.467224200020887</v>
       </c>
       <c r="F24" t="n">
-        <v>0.36603211904</v>
+        <v>0.3633407064</v>
       </c>
       <c r="G24" t="n">
-        <v>0.393893546064</v>
+        <v>0.39099726999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.389613604606698</v>
+        <v>0.386748798690473</v>
       </c>
     </row>
     <row r="25">
@@ -3720,16 +3744,16 @@
         <v>54</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00549047061728</v>
+        <v>0.0054500995098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002906630624</v>
+        <v>0.00288525834</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003059122392</v>
+        <v>0.003036628845</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00348398389583528</v>
+        <v>0.00345836636718943</v>
       </c>
     </row>
     <row r="26">
@@ -3746,16 +3770,16 @@
         <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004105308512</v>
+        <v>0.00407512242</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003156181376</v>
+        <v>0.00313297416</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003960201408</v>
+        <v>0.00393108228</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00370935877372057</v>
+        <v>0.00368208407685497</v>
       </c>
     </row>
     <row r="27">
@@ -3772,16 +3796,16 @@
         <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0251333253984885</v>
+        <v>0.0249485215352643</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0229796108889538</v>
+        <v>0.0228106431618291</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0248721437985424</v>
+        <v>0.024689260388259</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0233358589496618</v>
+        <v>0.0231642717515025</v>
       </c>
     </row>
     <row r="28">
@@ -3798,16 +3822,16 @@
         <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004562668057152</v>
+        <v>0.00452911902732</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003921878512</v>
+        <v>0.00389304117</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0037806577984</v>
+        <v>0.003752858844</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00394715253307182</v>
+        <v>0.00391812935268159</v>
       </c>
     </row>
     <row r="29">
@@ -3824,16 +3848,16 @@
         <v>61</v>
       </c>
       <c r="E29" t="n">
-        <v>0.010676655248</v>
+        <v>0.01059815043</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00905031312</v>
+        <v>0.0089837667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.010822639552</v>
+        <v>0.01074306132</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00930050045124942</v>
+        <v>0.00923211441851964</v>
       </c>
     </row>
     <row r="30">
@@ -3850,16 +3874,16 @@
         <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>0.251131794194544</v>
+        <v>0.24928523688429</v>
       </c>
       <c r="F30" t="n">
-        <v>0.24719386903248</v>
+        <v>0.2453762670543</v>
       </c>
       <c r="G30" t="n">
-        <v>0.302129054355408</v>
+        <v>0.29990751719103</v>
       </c>
       <c r="H30" t="n">
-        <v>0.305507376340222</v>
+        <v>0.303260998573015</v>
       </c>
     </row>
     <row r="31">
@@ -3876,16 +3900,16 @@
         <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2328743008416</v>
+        <v>0.231161989806</v>
       </c>
       <c r="F31" t="n">
-        <v>0.205321206272</v>
+        <v>0.20381149152</v>
       </c>
       <c r="G31" t="n">
-        <v>0.210118156928</v>
+        <v>0.20857317048</v>
       </c>
       <c r="H31" t="n">
-        <v>0.218958927456091</v>
+        <v>0.217348935342443</v>
       </c>
     </row>
     <row r="32">
@@ -4422,16 +4446,16 @@
         <v>49</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00329906020375481</v>
+        <v>0.00327981122868683</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00401909062968333</v>
+        <v>0.00399564050672347</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00540247409333796</v>
+        <v>0.00537095236420516</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00683208934499555</v>
+        <v>0.00679222626388941</v>
       </c>
     </row>
     <row r="53">
@@ -4448,16 +4472,16 @@
         <v>51</v>
       </c>
       <c r="E53" t="n">
-        <v>0.000959733776630859</v>
+        <v>0.000954134031956613</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00123200523815747</v>
+        <v>0.00122481687343785</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00117630033630731</v>
+        <v>0.00116943699299109</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00118891717167865</v>
+        <v>0.00118198021613862</v>
       </c>
     </row>
     <row r="54">
@@ -4474,16 +4498,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000632702077101905</v>
+        <v>0.000629010459864071</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000578823338427347</v>
+        <v>0.000575446087139235</v>
       </c>
       <c r="G54" t="n">
-        <v>0.000681625464914774</v>
+        <v>0.000677648395718542</v>
       </c>
       <c r="H54" t="n">
-        <v>0.000767379969037625</v>
+        <v>0.000762902548009037</v>
       </c>
     </row>
     <row r="55">
@@ -4500,16 +4524,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00212272306355447</v>
+        <v>0.00211033764553333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00126761228814399</v>
+        <v>0.00126021617155359</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00135389804633275</v>
+        <v>0.00134599847710863</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00209409082408843</v>
+        <v>0.00208187246844102</v>
       </c>
     </row>
     <row r="56">
@@ -4526,16 +4550,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00384807130076943</v>
+        <v>0.00382561902221912</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0031197453157279</v>
+        <v>0.003101542585828</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00326479844596966</v>
+        <v>0.00324574937958806</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00371504540221823</v>
+        <v>0.00369336928854713</v>
       </c>
     </row>
     <row r="57">
@@ -4552,16 +4576,16 @@
         <v>57</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00839669980084804</v>
+        <v>0.00834770771588767</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01000613296092</v>
+        <v>0.00994775033085578</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0161758958392204</v>
+        <v>0.0160815145769473</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0191147368873241</v>
+        <v>0.0190032084617694</v>
       </c>
     </row>
     <row r="58">
@@ -4578,16 +4602,16 @@
         <v>59</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000314516225473647</v>
+        <v>0.000312681122329585</v>
       </c>
       <c r="F58" t="n">
-        <v>0.000226062322587564</v>
+        <v>0.000224743320591122</v>
       </c>
       <c r="G58" t="n">
-        <v>0.000283986037487272</v>
+        <v>0.000282329068833226</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000198882142702914</v>
+        <v>0.00019772172828626</v>
       </c>
     </row>
     <row r="59">
@@ -4604,16 +4628,16 @@
         <v>61</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00210146841523983</v>
+        <v>0.00208920701383048</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00151065675348488</v>
+        <v>0.0015018425455163</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00166024218921347</v>
+        <v>0.00165055520343616</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00192661253190852</v>
+        <v>0.0019153713575335</v>
       </c>
     </row>
     <row r="60">
@@ -4630,16 +4654,16 @@
         <v>63</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0117939155942233</v>
+        <v>0.0117251018481967</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0145651428633593</v>
+        <v>0.0144801598565859</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0183700191485936</v>
+        <v>0.0182628358910272</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0208229025147839</v>
+        <v>0.0207014074648447</v>
       </c>
     </row>
     <row r="61">
@@ -4656,16 +4680,16 @@
         <v>65</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00849882174527192</v>
+        <v>0.00844923378024297</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00964044131820569</v>
+        <v>0.00958419238404474</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0106367601487208</v>
+        <v>0.0105746979932699</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0120185705308313</v>
+        <v>0.0119484459642474</v>
       </c>
     </row>
     <row r="62">
@@ -5048,94 +5072,94 @@
         <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9618774324715</v>
+        <v>11.961001787345</v>
       </c>
       <c r="D2" t="n">
-        <v>12.081777689306</v>
+        <v>12.0809010359963</v>
       </c>
       <c r="E2" t="n">
-        <v>12.1382041816437</v>
+        <v>12.1373585382934</v>
       </c>
       <c r="F2" t="n">
-        <v>12.1991367434055</v>
+        <v>12.1983265548298</v>
       </c>
       <c r="G2" t="n">
-        <v>12.3544961017909</v>
+        <v>12.3536895336158</v>
       </c>
       <c r="H2" t="n">
-        <v>12.5742587962454</v>
+        <v>12.5734630660958</v>
       </c>
       <c r="I2" t="n">
-        <v>12.998216707445</v>
+        <v>12.997452419692</v>
       </c>
       <c r="J2" t="n">
-        <v>13.2991050331984</v>
+        <v>13.298326481714</v>
       </c>
       <c r="K2" t="n">
-        <v>13.4263288107147</v>
+        <v>13.425554135829</v>
       </c>
       <c r="L2" t="n">
-        <v>13.4723811163188</v>
+        <v>13.4715941335213</v>
       </c>
       <c r="M2" t="n">
-        <v>14.0285964204928</v>
+        <v>14.027784673507</v>
       </c>
       <c r="N2" t="n">
-        <v>14.2954557251123</v>
+        <v>14.2946358455523</v>
       </c>
       <c r="O2" t="n">
-        <v>14.4007510274124</v>
+        <v>14.3998956898565</v>
       </c>
       <c r="P2" t="n">
-        <v>15.2912286912337</v>
+        <v>15.2903337447777</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7633221745308</v>
+        <v>15.7623798337707</v>
       </c>
       <c r="R2" t="n">
-        <v>16.2739427143189</v>
+        <v>16.272960184656</v>
       </c>
       <c r="S2" t="n">
-        <v>16.8265173224619</v>
+        <v>16.8255226885573</v>
       </c>
       <c r="T2" t="n">
-        <v>17.3840053435911</v>
+        <v>17.3829574937907</v>
       </c>
       <c r="U2" t="n">
-        <v>17.4496889334178</v>
+        <v>17.4486171348258</v>
       </c>
       <c r="V2" t="n">
-        <v>17.234328090468</v>
+        <v>17.2332833190543</v>
       </c>
       <c r="W2" t="n">
-        <v>18.175812342612</v>
+        <v>18.1747124073053</v>
       </c>
       <c r="X2" t="n">
-        <v>18.8829827704957</v>
+        <v>18.8818747476307</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.2958455842125</v>
+        <v>19.2946366451678</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.548068118801</v>
+        <v>19.5468531201743</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5373857128734</v>
+        <v>19.5361599392082</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.3527641860469</v>
+        <v>19.3515297676158</v>
       </c>
       <c r="AC2" t="n">
-        <v>19.3045474411183</v>
+        <v>19.3033077290504</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.565767753085</v>
+        <v>19.5645175755884</v>
       </c>
       <c r="AE2" t="n">
-        <v>19.8900482046232</v>
+        <v>19.8887951845063</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.828535541391</v>
+        <v>19.8272615252611</v>
       </c>
     </row>
     <row r="3">
@@ -5146,94 +5170,94 @@
         <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>7.86464157595957</v>
+        <v>7.8535323725065</v>
       </c>
       <c r="D3" t="n">
-        <v>7.80035188717699</v>
+        <v>7.78904410586726</v>
       </c>
       <c r="E3" t="n">
-        <v>7.72259137523187</v>
+        <v>7.71114827330039</v>
       </c>
       <c r="F3" t="n">
-        <v>7.71706285693276</v>
+        <v>7.70547510036197</v>
       </c>
       <c r="G3" t="n">
-        <v>7.89065639216969</v>
+        <v>7.87891180113005</v>
       </c>
       <c r="H3" t="n">
-        <v>8.24910669893196</v>
+        <v>8.23721468914497</v>
       </c>
       <c r="I3" t="n">
-        <v>8.17459871576217</v>
+        <v>8.16258322320255</v>
       </c>
       <c r="J3" t="n">
-        <v>8.30762590809585</v>
+        <v>8.29546194371589</v>
       </c>
       <c r="K3" t="n">
-        <v>8.29178055036251</v>
+        <v>8.27953658290937</v>
       </c>
       <c r="L3" t="n">
-        <v>8.18663877369834</v>
+        <v>8.1742639503651</v>
       </c>
       <c r="M3" t="n">
-        <v>8.53053441502603</v>
+        <v>8.51793725078959</v>
       </c>
       <c r="N3" t="n">
-        <v>8.53720295708901</v>
+        <v>8.5246193290778</v>
       </c>
       <c r="O3" t="n">
-        <v>8.63970033526745</v>
+        <v>8.62700526102277</v>
       </c>
       <c r="P3" t="n">
-        <v>9.04019304333169</v>
+        <v>9.02728270192143</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.71177325857114</v>
+        <v>9.69864511699465</v>
       </c>
       <c r="R3" t="n">
-        <v>10.3172490504596</v>
+        <v>10.3039587695108</v>
       </c>
       <c r="S3" t="n">
-        <v>10.7896741646984</v>
+        <v>10.7760314772592</v>
       </c>
       <c r="T3" t="n">
-        <v>11.3280978572353</v>
+        <v>11.314234406698</v>
       </c>
       <c r="U3" t="n">
-        <v>11.4394663766138</v>
+        <v>11.4254606439799</v>
       </c>
       <c r="V3" t="n">
-        <v>11.4561337311123</v>
+        <v>11.4420704154702</v>
       </c>
       <c r="W3" t="n">
-        <v>12.2656957464986</v>
+        <v>12.2514915808006</v>
       </c>
       <c r="X3" t="n">
-        <v>12.7331128304922</v>
+        <v>12.7186504279609</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.9695949882826</v>
+        <v>12.9549432896583</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.9069136361341</v>
+        <v>12.8919937114651</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.1213433983336</v>
+        <v>13.1061639097273</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.1111626661339</v>
+        <v>13.0957112726386</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.0361501712732</v>
+        <v>13.0204704910628</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.1664302842397</v>
+        <v>13.1504633807158</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.431647631058</v>
+        <v>13.4154007084007</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.6937239837085</v>
+        <v>13.677397156922</v>
       </c>
     </row>
     <row r="4">
@@ -5244,94 +5268,94 @@
         <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2291027333102</v>
+        <v>10.2006329267325</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1544796761778</v>
+        <v>10.126161484243</v>
       </c>
       <c r="E4" t="n">
-        <v>10.1518942823119</v>
+        <v>10.1236712299763</v>
       </c>
       <c r="F4" t="n">
-        <v>10.1217833186224</v>
+        <v>10.0938621553516</v>
       </c>
       <c r="G4" t="n">
-        <v>10.1269976053947</v>
+        <v>10.0990087014756</v>
       </c>
       <c r="H4" t="n">
-        <v>10.1113086421179</v>
+        <v>10.0832511175918</v>
       </c>
       <c r="I4" t="n">
-        <v>10.0767066332474</v>
+        <v>10.048654644988</v>
       </c>
       <c r="J4" t="n">
-        <v>11.7392949215955</v>
+        <v>11.7116685829186</v>
       </c>
       <c r="K4" t="n">
-        <v>9.7542024835416</v>
+        <v>9.72669269180428</v>
       </c>
       <c r="L4" t="n">
-        <v>9.72857004639054</v>
+        <v>9.70089823157149</v>
       </c>
       <c r="M4" t="n">
-        <v>10.2516575977235</v>
+        <v>10.2241725274062</v>
       </c>
       <c r="N4" t="n">
-        <v>10.0947706732573</v>
+        <v>10.0672963832258</v>
       </c>
       <c r="O4" t="n">
-        <v>10.7468234758357</v>
+        <v>10.719156115337</v>
       </c>
       <c r="P4" t="n">
-        <v>10.9789014653644</v>
+        <v>10.9509790503952</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.9666351836258</v>
+        <v>10.9381660102226</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6760061707208</v>
+        <v>10.6471361130444</v>
       </c>
       <c r="S4" t="n">
-        <v>11.0325183036164</v>
+        <v>11.0032876759554</v>
       </c>
       <c r="T4" t="n">
-        <v>10.42969338114</v>
+        <v>10.4001129453209</v>
       </c>
       <c r="U4" t="n">
-        <v>10.6798126514236</v>
+        <v>10.6497109060014</v>
       </c>
       <c r="V4" t="n">
-        <v>11.6082690601609</v>
+        <v>11.5780454352603</v>
       </c>
       <c r="W4" t="n">
-        <v>11.1365977096492</v>
+        <v>11.1061553385812</v>
       </c>
       <c r="X4" t="n">
-        <v>10.9097488395487</v>
+        <v>10.8791237751947</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.3348706178094</v>
+        <v>11.3039969348613</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5766180789982</v>
+        <v>11.5454959648257</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.0382373209572</v>
+        <v>12.0070034160708</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.2799587753459</v>
+        <v>12.2485176772326</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.8057024521781</v>
+        <v>11.77397089205</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.7265703170272</v>
+        <v>11.6946135789517</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.8660917683737</v>
+        <v>11.8339757528284</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.8434929585527</v>
+        <v>12.81113059687</v>
       </c>
     </row>
     <row r="5">
@@ -5342,94 +5366,94 @@
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>5.02571200948336</v>
+        <v>5.02553661519145</v>
       </c>
       <c r="D5" t="n">
-        <v>5.07341030074288</v>
+        <v>5.07323743285628</v>
       </c>
       <c r="E5" t="n">
-        <v>5.17934951965469</v>
+        <v>5.1791774834092</v>
       </c>
       <c r="F5" t="n">
-        <v>5.21555568736592</v>
+        <v>5.21538747654204</v>
       </c>
       <c r="G5" t="n">
-        <v>5.31626910107431</v>
+        <v>5.31610416472974</v>
       </c>
       <c r="H5" t="n">
-        <v>5.46984856431173</v>
+        <v>5.46968585712614</v>
       </c>
       <c r="I5" t="n">
-        <v>5.65533160971086</v>
+        <v>5.65516794722094</v>
       </c>
       <c r="J5" t="n">
-        <v>5.76336591339922</v>
+        <v>5.76320415174241</v>
       </c>
       <c r="K5" t="n">
-        <v>5.88316459482238</v>
+        <v>5.88300558744231</v>
       </c>
       <c r="L5" t="n">
-        <v>6.05077776029539</v>
+        <v>6.05062132946372</v>
       </c>
       <c r="M5" t="n">
-        <v>6.18524160473014</v>
+        <v>6.18508812690955</v>
       </c>
       <c r="N5" t="n">
-        <v>6.21796331896377</v>
+        <v>6.217812614573</v>
       </c>
       <c r="O5" t="n">
-        <v>6.34868918985002</v>
+        <v>6.34853907174971</v>
       </c>
       <c r="P5" t="n">
-        <v>6.48426235435149</v>
+        <v>6.48411268481276</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.78662888177503</v>
+        <v>6.78647840238668</v>
       </c>
       <c r="R5" t="n">
-        <v>6.93195359370608</v>
+        <v>6.93180432447251</v>
       </c>
       <c r="S5" t="n">
-        <v>7.0819259827735</v>
+        <v>7.08177474097808</v>
       </c>
       <c r="T5" t="n">
-        <v>7.28299458662863</v>
+        <v>7.28284201798168</v>
       </c>
       <c r="U5" t="n">
-        <v>7.29240597925167</v>
+        <v>7.29224712569027</v>
       </c>
       <c r="V5" t="n">
-        <v>7.14589248669897</v>
+        <v>7.14573141406705</v>
       </c>
       <c r="W5" t="n">
-        <v>7.44784931122503</v>
+        <v>7.44768340924146</v>
       </c>
       <c r="X5" t="n">
-        <v>7.55784902109838</v>
+        <v>7.55767604320846</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.62142173829417</v>
+        <v>7.62124334201695</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.80911657866736</v>
+        <v>7.80892944020572</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.95378276254703</v>
+        <v>7.95358799851517</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.17231329170946</v>
+        <v>8.17211000261186</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.32027591740199</v>
+        <v>8.32006675995916</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.51004095487349</v>
+        <v>8.50982499736874</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.60656168678091</v>
+        <v>8.60633842053931</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.7143281462259</v>
+        <v>8.71410004025257</v>
       </c>
     </row>
     <row r="6">
@@ -5440,94 +5464,94 @@
         <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>3.00633424066478</v>
+        <v>3.00366446455348</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02706360987534</v>
+        <v>3.024416561228</v>
       </c>
       <c r="E6" t="n">
-        <v>2.90788602498712</v>
+        <v>2.90532935288846</v>
       </c>
       <c r="F6" t="n">
-        <v>2.97257829993983</v>
+        <v>2.96998840955144</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88030663541548</v>
+        <v>2.87781521231385</v>
       </c>
       <c r="H6" t="n">
-        <v>2.97253975370396</v>
+        <v>2.97000205714502</v>
       </c>
       <c r="I6" t="n">
-        <v>3.02245307960664</v>
+        <v>3.02009915818944</v>
       </c>
       <c r="J6" t="n">
-        <v>3.01510544293153</v>
+        <v>3.01266134643768</v>
       </c>
       <c r="K6" t="n">
-        <v>2.84495308970113</v>
+        <v>2.84264716877403</v>
       </c>
       <c r="L6" t="n">
-        <v>2.91689413030862</v>
+        <v>2.91458888754948</v>
       </c>
       <c r="M6" t="n">
-        <v>2.90967211482471</v>
+        <v>2.9073655218388</v>
       </c>
       <c r="N6" t="n">
-        <v>2.933177451033</v>
+        <v>2.93088146387552</v>
       </c>
       <c r="O6" t="n">
-        <v>2.9272506909308</v>
+        <v>2.92497058989348</v>
       </c>
       <c r="P6" t="n">
-        <v>3.0160099091788</v>
+        <v>3.01369037730608</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.06056188620238</v>
+        <v>3.0582102618245</v>
       </c>
       <c r="R6" t="n">
-        <v>3.06352488190899</v>
+        <v>3.06117850250673</v>
       </c>
       <c r="S6" t="n">
-        <v>3.02773999737309</v>
+        <v>3.02539369789965</v>
       </c>
       <c r="T6" t="n">
-        <v>3.01911330889275</v>
+        <v>3.01679426410512</v>
       </c>
       <c r="U6" t="n">
-        <v>3.08487087653871</v>
+        <v>3.08255575310079</v>
       </c>
       <c r="V6" t="n">
-        <v>3.03566931163579</v>
+        <v>3.03334530497657</v>
       </c>
       <c r="W6" t="n">
-        <v>3.08928263028862</v>
+        <v>3.08693787232519</v>
       </c>
       <c r="X6" t="n">
-        <v>3.04044892494042</v>
+        <v>3.03810947909411</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.99337629513816</v>
+        <v>2.99104457648818</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.09852036506757</v>
+        <v>3.09619137122878</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.04990021672123</v>
+        <v>3.04758099516258</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.06740560655831</v>
+        <v>3.06510841202117</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.09866443901791</v>
+        <v>3.09637834935589</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.15294231532848</v>
+        <v>3.15064637192748</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.24324338481423</v>
+        <v>3.2409327492388</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.29835600872303</v>
+        <v>3.29601293059556</v>
       </c>
     </row>
   </sheetData>
@@ -5584,16 +5608,16 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.777760813567983</v>
+        <v>0.777532520971387</v>
       </c>
       <c r="F2" t="n">
-        <v>1.04282845419604</v>
+        <v>1.04250916136148</v>
       </c>
       <c r="G2" t="n">
-        <v>1.11287080130803</v>
+        <v>1.11242512156076</v>
       </c>
       <c r="H2" t="n">
-        <v>1.16145901635301</v>
+        <v>1.16081979845499</v>
       </c>
     </row>
     <row r="3">
@@ -5610,16 +5634,16 @@
         <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.610459615094619</v>
+        <v>0.610456413710269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.710009455673386</v>
+        <v>0.710004916485915</v>
       </c>
       <c r="G3" t="n">
-        <v>0.829605019420466</v>
+        <v>0.829598683023787</v>
       </c>
       <c r="H3" t="n">
-        <v>0.82101502487424</v>
+        <v>0.82100830103646</v>
       </c>
     </row>
     <row r="4">
@@ -5636,16 +5660,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>1.35502531074906</v>
+        <v>1.35493145103979</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4187062263375</v>
+        <v>2.41862657904724</v>
       </c>
       <c r="G4" t="n">
-        <v>5.22843371080026</v>
+        <v>5.22831100337631</v>
       </c>
       <c r="H4" t="n">
-        <v>6.72020353462918</v>
+        <v>6.72006295293329</v>
       </c>
     </row>
     <row r="5">
@@ -5662,16 +5686,16 @@
         <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>2.21774280280826</v>
+        <v>2.21770369783851</v>
       </c>
       <c r="F5" t="n">
-        <v>1.61095290122939</v>
+        <v>1.610943454126</v>
       </c>
       <c r="G5" t="n">
-        <v>1.75877655223105</v>
+        <v>1.75876219352246</v>
       </c>
       <c r="H5" t="n">
-        <v>1.73294022183908</v>
+        <v>1.73293005106499</v>
       </c>
     </row>
     <row r="6">
@@ -5688,16 +5712,16 @@
         <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>2.52340005619684</v>
+        <v>2.52336615112317</v>
       </c>
       <c r="F6" t="n">
-        <v>2.09092637012519</v>
+        <v>2.09090589697552</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04290906210738</v>
+        <v>2.04287443674063</v>
       </c>
       <c r="H6" t="n">
-        <v>1.59074176117161</v>
+        <v>1.59070083229083</v>
       </c>
     </row>
     <row r="7">
@@ -5714,16 +5738,16 @@
         <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.410277700778834</v>
+        <v>0.410107494925076</v>
       </c>
       <c r="F7" t="n">
-        <v>0.606302038686137</v>
+        <v>0.60615395546268</v>
       </c>
       <c r="G7" t="n">
-        <v>0.762254692678587</v>
+        <v>0.762080238046325</v>
       </c>
       <c r="H7" t="n">
-        <v>0.782185569412708</v>
+        <v>0.782033779868597</v>
       </c>
     </row>
     <row r="8">
@@ -5740,16 +5764,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.597262589747095</v>
+        <v>0.597258553361378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.891325938228432</v>
+        <v>0.891320632449891</v>
       </c>
       <c r="G8" t="n">
-        <v>1.29267568661947</v>
+        <v>1.2926674795944</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72594549901652</v>
+        <v>1.7259336723303</v>
       </c>
     </row>
     <row r="9">
@@ -5766,16 +5790,16 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>2.80648451228957</v>
+        <v>2.8064160762826</v>
       </c>
       <c r="F9" t="n">
-        <v>3.4850178897206</v>
+        <v>3.48499424068518</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2795081389557</v>
+        <v>3.27947425861776</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62858037067455</v>
+        <v>2.62853820310095</v>
       </c>
     </row>
     <row r="10">
@@ -5792,16 +5816,16 @@
         <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>0.275127225480631</v>
+        <v>0.274960070815838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.471920304044312</v>
+        <v>0.47179561459335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.73444701744755</v>
+        <v>0.734290235134299</v>
       </c>
       <c r="H10" t="n">
-        <v>1.10872541777847</v>
+        <v>1.1085908847343</v>
       </c>
     </row>
     <row r="11">
@@ -5818,16 +5842,16 @@
         <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>0.365920452774882</v>
+        <v>0.365853004293259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.671148090063418</v>
+        <v>0.671071470131348</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0985559851316</v>
+        <v>1.09845308177664</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51673956529748</v>
+        <v>1.51664348910228</v>
       </c>
     </row>
     <row r="12">
@@ -5844,16 +5868,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>0.299086852109868</v>
+        <v>0.298192478541322</v>
       </c>
       <c r="F12" t="n">
-        <v>0.348541663028872</v>
+        <v>0.347357150742751</v>
       </c>
       <c r="G12" t="n">
-        <v>0.472506420494139</v>
+        <v>0.470924470104588</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5937686508337</v>
+        <v>0.591726402620529</v>
       </c>
     </row>
     <row r="13">
@@ -5870,16 +5894,16 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.581579876897906</v>
+        <v>0.58123550823623</v>
       </c>
       <c r="F13" t="n">
-        <v>0.548484664096851</v>
+        <v>0.548214911215133</v>
       </c>
       <c r="G13" t="n">
-        <v>0.481989412532091</v>
+        <v>0.481756324753801</v>
       </c>
       <c r="H13" t="n">
-        <v>0.45814156252443</v>
+        <v>0.45794802587883</v>
       </c>
     </row>
     <row r="14">
@@ -5896,16 +5920,16 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>1.52110473786326</v>
+        <v>1.5194678314895</v>
       </c>
       <c r="F14" t="n">
-        <v>2.12504064796157</v>
+        <v>2.12293083376536</v>
       </c>
       <c r="G14" t="n">
-        <v>5.20953093656737</v>
+        <v>5.20673378013356</v>
       </c>
       <c r="H14" t="n">
-        <v>5.70483733040531</v>
+        <v>5.7013488816218</v>
       </c>
     </row>
     <row r="15">
@@ -5922,16 +5946,16 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.767357032455858</v>
+        <v>0.766626443413312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.516498079250936</v>
+        <v>0.515813270470791</v>
       </c>
       <c r="G15" t="n">
-        <v>0.63017950283997</v>
+        <v>0.62928297056196</v>
       </c>
       <c r="H15" t="n">
-        <v>0.811039244180197</v>
+        <v>0.810013835626845</v>
       </c>
     </row>
     <row r="16">
@@ -5948,16 +5972,16 @@
         <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>2.02390099380831</v>
+        <v>2.02169751256465</v>
       </c>
       <c r="F16" t="n">
-        <v>1.71246523268613</v>
+        <v>1.71019554102172</v>
       </c>
       <c r="G16" t="n">
-        <v>1.45269549946201</v>
+        <v>1.45085372227125</v>
       </c>
       <c r="H16" t="n">
-        <v>1.3396045205989</v>
+        <v>1.33799390615199</v>
       </c>
     </row>
     <row r="17">
@@ -5974,16 +5998,16 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>0.519609312188805</v>
+        <v>0.518097053058112</v>
       </c>
       <c r="F17" t="n">
-        <v>0.703700046747479</v>
+        <v>0.701751843415308</v>
       </c>
       <c r="G17" t="n">
-        <v>0.85872248012425</v>
+        <v>0.85647312540418</v>
       </c>
       <c r="H17" t="n">
-        <v>0.897049276166945</v>
+        <v>0.894392279406872</v>
       </c>
     </row>
     <row r="18">
@@ -6000,16 +6024,16 @@
         <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>0.218071971516971</v>
+        <v>0.21775749457662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.308459390481958</v>
+        <v>0.308024245584551</v>
       </c>
       <c r="G18" t="n">
-        <v>0.591234879600464</v>
+        <v>0.590558898861302</v>
       </c>
       <c r="H18" t="n">
-        <v>0.710285565547781</v>
+        <v>0.709450226282082</v>
       </c>
     </row>
     <row r="19">
@@ -6026,16 +6050,16 @@
         <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>1.33691131985825</v>
+        <v>1.33512147848179</v>
       </c>
       <c r="F19" t="n">
-        <v>1.383850696142</v>
+        <v>1.38237694100294</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1478083456023</v>
+        <v>1.14667095913864</v>
       </c>
       <c r="H19" t="n">
-        <v>1.18677224256233</v>
+        <v>1.18564903167289</v>
       </c>
     </row>
     <row r="20">
@@ -6052,16 +6076,16 @@
         <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21023696903425</v>
+        <v>0.209631979191697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.364156050658966</v>
+        <v>0.363309942672825</v>
       </c>
       <c r="G20" t="n">
-        <v>0.523442099090738</v>
+        <v>0.522349628323068</v>
       </c>
       <c r="H20" t="n">
-        <v>0.733769850133941</v>
+        <v>0.732425564206604</v>
       </c>
     </row>
     <row r="21">
@@ -6078,16 +6102,16 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.386782510226094</v>
+        <v>0.385704592953275</v>
       </c>
       <c r="F21" t="n">
-        <v>0.519337943971263</v>
+        <v>0.517962570898214</v>
       </c>
       <c r="G21" t="n">
-        <v>0.897586170185295</v>
+        <v>0.895887701248201</v>
       </c>
       <c r="H21" t="n">
-        <v>1.25845574075493</v>
+        <v>1.25644900345359</v>
       </c>
     </row>
     <row r="22">
@@ -6104,16 +6128,16 @@
         <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>1.48177243418305</v>
+        <v>1.47953159170325</v>
       </c>
       <c r="F22" t="n">
-        <v>1.71642232140194</v>
+        <v>1.71370820830541</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34686104677454</v>
+        <v>2.34320550368436</v>
       </c>
       <c r="H22" t="n">
-        <v>2.63954525084203</v>
+        <v>2.63511214856458</v>
       </c>
     </row>
     <row r="23">
@@ -6130,16 +6154,16 @@
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.26193880469449</v>
+        <v>0.260696027882957</v>
       </c>
       <c r="F23" t="n">
-        <v>0.287242370184858</v>
+        <v>0.286079137844204</v>
       </c>
       <c r="G23" t="n">
-        <v>0.34355597956396</v>
+        <v>0.342428877600014</v>
       </c>
       <c r="H23" t="n">
-        <v>0.317947499324872</v>
+        <v>0.316860107052093</v>
       </c>
     </row>
     <row r="24">
@@ -6156,16 +6180,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>1.26983950246994</v>
+        <v>1.26463570945264</v>
       </c>
       <c r="F24" t="n">
-        <v>1.00778454031766</v>
+        <v>1.00292365676455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.84214290438993</v>
+        <v>0.837296930644194</v>
       </c>
       <c r="H24" t="n">
-        <v>1.05570652880688</v>
+        <v>1.05092661881317</v>
       </c>
     </row>
     <row r="25">
@@ -6182,16 +6206,16 @@
         <v>54</v>
       </c>
       <c r="E25" t="n">
-        <v>0.555709851312515</v>
+        <v>0.55367724683991</v>
       </c>
       <c r="F25" t="n">
-        <v>0.169611149328289</v>
+        <v>0.168580223090159</v>
       </c>
       <c r="G25" t="n">
-        <v>0.237365933312979</v>
+        <v>0.236260163126409</v>
       </c>
       <c r="H25" t="n">
-        <v>0.345219577274832</v>
+        <v>0.343973780462657</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6232,16 @@
         <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>0.578530196203492</v>
+        <v>0.575039251810974</v>
       </c>
       <c r="F26" t="n">
-        <v>0.341255693491213</v>
+        <v>0.338580253299873</v>
       </c>
       <c r="G26" t="n">
-        <v>0.331869221979134</v>
+        <v>0.329434642130575</v>
       </c>
       <c r="H26" t="n">
-        <v>0.356815573751637</v>
+        <v>0.354297838464695</v>
       </c>
     </row>
     <row r="27">
@@ -6234,16 +6258,16 @@
         <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>2.37761186420903</v>
+        <v>2.37315706369564</v>
       </c>
       <c r="F27" t="n">
-        <v>2.86729082559014</v>
+        <v>2.86240050709363</v>
       </c>
       <c r="G27" t="n">
-        <v>3.22677738435019</v>
+        <v>3.22093208997318</v>
       </c>
       <c r="H27" t="n">
-        <v>3.43757438662523</v>
+        <v>3.43143761746405</v>
       </c>
     </row>
     <row r="28">
@@ -6260,16 +6284,16 @@
         <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0730113417629362</v>
+        <v>0.0727300157396239</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0796621154284888</v>
+        <v>0.0793521799065724</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0761669152509431</v>
+        <v>0.0758288456460067</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0744372421363499</v>
+        <v>0.0741102613094402</v>
       </c>
     </row>
     <row r="29">
@@ -6286,16 +6310,16 @@
         <v>61</v>
       </c>
       <c r="E29" t="n">
-        <v>0.488313867500424</v>
+        <v>0.486482108649963</v>
       </c>
       <c r="F29" t="n">
-        <v>0.566517025891402</v>
+        <v>0.564528442015436</v>
       </c>
       <c r="G29" t="n">
-        <v>0.336145302095482</v>
+        <v>0.334127234908413</v>
       </c>
       <c r="H29" t="n">
-        <v>0.461651871644311</v>
+        <v>0.459482189438245</v>
       </c>
     </row>
     <row r="30">
@@ -6312,16 +6336,16 @@
         <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>2.1042917842678</v>
+        <v>2.1016683172293</v>
       </c>
       <c r="F30" t="n">
-        <v>1.9902946071072</v>
+        <v>1.98764861867718</v>
       </c>
       <c r="G30" t="n">
-        <v>2.21325639007167</v>
+        <v>2.20999483442712</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82917556709061</v>
+        <v>2.82582169200546</v>
       </c>
     </row>
     <row r="31">
@@ -6338,16 +6362,16 @@
         <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>1.03808308670654</v>
+        <v>1.03301559372818</v>
       </c>
       <c r="F31" t="n">
-        <v>1.22557694898227</v>
+        <v>1.22037130040915</v>
       </c>
       <c r="G31" t="n">
-        <v>1.18245663186041</v>
+        <v>1.17664621644097</v>
       </c>
       <c r="H31" t="n">
-        <v>1.32541946105596</v>
+        <v>1.31910834329563</v>
       </c>
     </row>
     <row r="32">
@@ -6364,16 +6388,16 @@
         <v>49</v>
       </c>
       <c r="E32" t="n">
-        <v>0.121034002155372</v>
+        <v>0.121029156220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.172963576220892</v>
+        <v>0.17295788715574</v>
       </c>
       <c r="G32" t="n">
-        <v>0.278903748078996</v>
+        <v>0.27889642349812</v>
       </c>
       <c r="H32" t="n">
-        <v>0.401740414557024</v>
+        <v>0.401728455423106</v>
       </c>
     </row>
     <row r="33">
@@ -6390,16 +6414,16 @@
         <v>51</v>
       </c>
       <c r="E33" t="n">
-        <v>0.298201851914241</v>
+        <v>0.298193050699795</v>
       </c>
       <c r="F33" t="n">
-        <v>0.367076036057322</v>
+        <v>0.367069074969159</v>
       </c>
       <c r="G33" t="n">
-        <v>0.348298682106725</v>
+        <v>0.348293825592289</v>
       </c>
       <c r="H33" t="n">
-        <v>0.331548637543941</v>
+        <v>0.331544493098073</v>
       </c>
     </row>
     <row r="34">
@@ -6416,16 +6440,16 @@
         <v>53</v>
       </c>
       <c r="E34" t="n">
-        <v>0.223888082434501</v>
+        <v>0.223879359487595</v>
       </c>
       <c r="F34" t="n">
-        <v>0.416706991536037</v>
+        <v>0.416687729389613</v>
       </c>
       <c r="G34" t="n">
-        <v>0.76079383150594</v>
+        <v>0.760762783516192</v>
       </c>
       <c r="H34" t="n">
-        <v>1.18522748970865</v>
+        <v>1.18516071528279</v>
       </c>
     </row>
     <row r="35">
@@ -6442,16 +6466,16 @@
         <v>54</v>
       </c>
       <c r="E35" t="n">
-        <v>0.428745987023596</v>
+        <v>0.428731807804944</v>
       </c>
       <c r="F35" t="n">
-        <v>0.263090991397911</v>
+        <v>0.263084134292389</v>
       </c>
       <c r="G35" t="n">
-        <v>0.331520379213267</v>
+        <v>0.331514090104393</v>
       </c>
       <c r="H35" t="n">
-        <v>0.339322328726618</v>
+        <v>0.339315862718017</v>
       </c>
     </row>
     <row r="36">
@@ -6468,16 +6492,16 @@
         <v>55</v>
       </c>
       <c r="E36" t="n">
-        <v>0.970890113615493</v>
+        <v>0.970835508048847</v>
       </c>
       <c r="F36" t="n">
-        <v>1.075069904908</v>
+        <v>1.07503504995711</v>
       </c>
       <c r="G36" t="n">
-        <v>1.10856265766513</v>
+        <v>1.10854245575722</v>
       </c>
       <c r="H36" t="n">
-        <v>1.13006459993502</v>
+        <v>1.13004713352432</v>
       </c>
     </row>
     <row r="37">
@@ -6494,16 +6518,16 @@
         <v>57</v>
       </c>
       <c r="E37" t="n">
-        <v>0.318757318983626</v>
+        <v>0.318744218255556</v>
       </c>
       <c r="F37" t="n">
-        <v>0.442947063850073</v>
+        <v>0.442930784700603</v>
       </c>
       <c r="G37" t="n">
-        <v>0.592653964812876</v>
+        <v>0.592634549056592</v>
       </c>
       <c r="H37" t="n">
-        <v>0.635520887371437</v>
+        <v>0.635499139775359</v>
       </c>
     </row>
     <row r="38">
@@ -6520,16 +6544,16 @@
         <v>59</v>
       </c>
       <c r="E38" t="n">
-        <v>0.167676454364004</v>
+        <v>0.167669060362203</v>
       </c>
       <c r="F38" t="n">
-        <v>0.242054066322666</v>
+        <v>0.24204426930806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.380344832842094</v>
+        <v>0.380331594553481</v>
       </c>
       <c r="H38" t="n">
-        <v>0.437503710653836</v>
+        <v>0.437485889631939</v>
       </c>
     </row>
     <row r="39">
@@ -6546,16 +6570,16 @@
         <v>61</v>
       </c>
       <c r="E39" t="n">
-        <v>1.64860003797353</v>
+        <v>1.64855218081638</v>
       </c>
       <c r="F39" t="n">
-        <v>1.97163711043982</v>
+        <v>1.97160857360678</v>
       </c>
       <c r="G39" t="n">
-        <v>1.9435614272089</v>
+        <v>1.94353827181729</v>
       </c>
       <c r="H39" t="n">
-        <v>2.02635691753369</v>
+        <v>2.02633269941888</v>
       </c>
     </row>
     <row r="40">
@@ -6572,16 +6596,16 @@
         <v>63</v>
       </c>
       <c r="E40" t="n">
-        <v>0.112191542792288</v>
+        <v>0.112186655614941</v>
       </c>
       <c r="F40" t="n">
-        <v>0.211909689901045</v>
+        <v>0.211900747043235</v>
       </c>
       <c r="G40" t="n">
-        <v>0.291876783131913</v>
+        <v>0.291863436814456</v>
       </c>
       <c r="H40" t="n">
-        <v>0.424340359992932</v>
+        <v>0.424321061369044</v>
       </c>
     </row>
     <row r="41">
@@ -6598,16 +6622,16 @@
         <v>65</v>
       </c>
       <c r="E41" t="n">
-        <v>0.100550433902256</v>
+        <v>0.100546571935408</v>
       </c>
       <c r="F41" t="n">
-        <v>0.161283388181741</v>
+        <v>0.161276672469291</v>
       </c>
       <c r="G41" t="n">
-        <v>0.281046120750978</v>
+        <v>0.281031797488564</v>
       </c>
       <c r="H41" t="n">
-        <v>0.439050299226647</v>
+        <v>0.439026127609641</v>
       </c>
     </row>
     <row r="42">
@@ -6624,16 +6648,16 @@
         <v>49</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1015217581732</v>
+        <v>0.101143941618002</v>
       </c>
       <c r="F42" t="n">
-        <v>0.125163081455579</v>
+        <v>0.124686202029943</v>
       </c>
       <c r="G42" t="n">
-        <v>0.158488401174592</v>
+        <v>0.157904696103714</v>
       </c>
       <c r="H42" t="n">
-        <v>0.214271631820857</v>
+        <v>0.213568849321324</v>
       </c>
     </row>
     <row r="43">
@@ -6650,16 +6674,16 @@
         <v>51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.13040985986682</v>
+        <v>0.1304012424118</v>
       </c>
       <c r="F43" t="n">
-        <v>0.16634407990168</v>
+        <v>0.16633485622332</v>
       </c>
       <c r="G43" t="n">
-        <v>0.141037118888796</v>
+        <v>0.141027314980956</v>
       </c>
       <c r="H43" t="n">
-        <v>0.127749792857492</v>
+        <v>0.127740052317994</v>
       </c>
     </row>
     <row r="44">
@@ -6676,16 +6700,16 @@
         <v>53</v>
       </c>
       <c r="E44" t="n">
-        <v>0.646289710005901</v>
+        <v>0.644989224048578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.46935470059599</v>
+        <v>0.468511844036188</v>
       </c>
       <c r="G44" t="n">
-        <v>0.579005721238797</v>
+        <v>0.578334108977325</v>
       </c>
       <c r="H44" t="n">
-        <v>0.74101463909647</v>
+        <v>0.740406217174367</v>
       </c>
     </row>
     <row r="45">
@@ -6702,16 +6726,16 @@
         <v>54</v>
       </c>
       <c r="E45" t="n">
-        <v>0.34842421489527</v>
+        <v>0.34830193256067</v>
       </c>
       <c r="F45" t="n">
-        <v>0.240147118725367</v>
+        <v>0.240058977505967</v>
       </c>
       <c r="G45" t="n">
-        <v>0.228751073694831</v>
+        <v>0.228716415858732</v>
       </c>
       <c r="H45" t="n">
-        <v>0.280687759710829</v>
+        <v>0.280645985400983</v>
       </c>
     </row>
     <row r="46">
@@ -6728,16 +6752,16 @@
         <v>55</v>
       </c>
       <c r="E46" t="n">
-        <v>0.825423096457928</v>
+        <v>0.825209350318566</v>
       </c>
       <c r="F46" t="n">
-        <v>0.742704100631883</v>
+        <v>0.742551716607923</v>
       </c>
       <c r="G46" t="n">
-        <v>0.789445697622549</v>
+        <v>0.789243582707619</v>
       </c>
       <c r="H46" t="n">
-        <v>0.662978973922796</v>
+        <v>0.662791268431558</v>
       </c>
     </row>
     <row r="47">
@@ -6754,16 +6778,16 @@
         <v>57</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0913250597829758</v>
+        <v>0.0912413729440091</v>
       </c>
       <c r="F47" t="n">
-        <v>0.107506235606543</v>
+        <v>0.107431161986957</v>
       </c>
       <c r="G47" t="n">
-        <v>0.113605963581429</v>
+        <v>0.113520891286524</v>
       </c>
       <c r="H47" t="n">
-        <v>0.111393439404595</v>
+        <v>0.111308819913505</v>
       </c>
     </row>
     <row r="48">
@@ -6780,16 +6804,16 @@
         <v>59</v>
       </c>
       <c r="E48" t="n">
-        <v>0.057126479214232</v>
+        <v>0.057124658213732</v>
       </c>
       <c r="F48" t="n">
-        <v>0.112540150011779</v>
+        <v>0.112537252114679</v>
       </c>
       <c r="G48" t="n">
-        <v>0.157747374963572</v>
+        <v>0.157742081771792</v>
       </c>
       <c r="H48" t="n">
-        <v>0.163004769539484</v>
+        <v>0.162999767134486</v>
       </c>
     </row>
     <row r="49">
@@ -6806,16 +6830,16 @@
         <v>61</v>
       </c>
       <c r="E49" t="n">
-        <v>0.626586880530415</v>
+        <v>0.626547644504267</v>
       </c>
       <c r="F49" t="n">
-        <v>0.709976595366304</v>
+        <v>0.70990575316126</v>
       </c>
       <c r="G49" t="n">
-        <v>0.648400810271035</v>
+        <v>0.648328507447234</v>
       </c>
       <c r="H49" t="n">
-        <v>0.668984187268382</v>
+        <v>0.66892920987537</v>
       </c>
     </row>
     <row r="50">
@@ -6832,16 +6856,16 @@
         <v>63</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0550463654146059</v>
+        <v>0.0548861567624937</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0832356774073508</v>
+        <v>0.0830555585777402</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0801453323200689</v>
+        <v>0.0799535859726429</v>
       </c>
       <c r="H50" t="n">
-        <v>0.103110476604936</v>
+        <v>0.102922410959061</v>
       </c>
     </row>
     <row r="51">
@@ -6858,16 +6882,16 @@
         <v>65</v>
       </c>
       <c r="E51" t="n">
-        <v>0.124180816323428</v>
+        <v>0.123818941171365</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152700375122232</v>
+        <v>0.152292199594825</v>
       </c>
       <c r="G51" t="n">
-        <v>0.192655136532953</v>
+        <v>0.192166687218656</v>
       </c>
       <c r="H51" t="n">
-        <v>0.225160338497189</v>
+        <v>0.224700350066907</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +6954,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>13.824561414811</v>
+        <v>13.8245079496935</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -6939,7 +6963,7 @@
         <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>1.02065735495169</v>
+        <v>1.02065534920679</v>
       </c>
     </row>
     <row r="3">
@@ -6988,7 +7012,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>6.16233391164276</v>
+        <v>6.16212908984608</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -6997,7 +7021,7 @@
         <v>74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.71703371434775</v>
+        <v>1.71696790047184</v>
       </c>
     </row>
     <row r="5">
@@ -7017,7 +7041,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="n">
-        <v>3.84795480561065</v>
+        <v>3.84785893460706</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -7026,7 +7050,7 @@
         <v>74</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.126760588414121</v>
+        <v>-0.126767989227272</v>
       </c>
     </row>
     <row r="6">
@@ -7046,7 +7070,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>3.19245088898752</v>
+        <v>3.19242464081292</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -7055,7 +7079,7 @@
         <v>74</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58491522037483</v>
+        <v>2.58493069743289</v>
       </c>
     </row>
     <row r="7">
@@ -7075,7 +7099,7 @@
         <v>79</v>
       </c>
       <c r="F7" t="n">
-        <v>2.98374266361607</v>
+        <v>2.96180337932477</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -7104,7 +7128,7 @@
         <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2.78815272987672</v>
+        <v>2.78814103294481</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -7113,7 +7137,7 @@
         <v>74</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62423569640442</v>
+        <v>1.624238957211</v>
       </c>
     </row>
     <row r="9">
@@ -7162,7 +7186,7 @@
         <v>82</v>
       </c>
       <c r="F10" t="n">
-        <v>2.37207072581055</v>
+        <v>2.36981409146647</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -7171,7 +7195,7 @@
         <v>74</v>
       </c>
       <c r="I10" t="n">
-        <v>0.659453788112252</v>
+        <v>0.66021544156547</v>
       </c>
     </row>
     <row r="11">
@@ -7191,7 +7215,7 @@
         <v>83</v>
       </c>
       <c r="F11" t="n">
-        <v>2.34330454623359</v>
+        <v>2.32711153555724</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -7200,7 +7224,7 @@
         <v>74</v>
       </c>
       <c r="I11" t="n">
-        <v>1.57141198038968</v>
+        <v>1.57142174100477</v>
       </c>
     </row>
     <row r="12">
@@ -7278,7 +7302,7 @@
         <v>86</v>
       </c>
       <c r="F14" t="n">
-        <v>1.33624656368712</v>
+        <v>1.33609092188232</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -7287,7 +7311,7 @@
         <v>74</v>
       </c>
       <c r="I14" t="n">
-        <v>0.277244064387316</v>
+        <v>0.277276241444535</v>
       </c>
     </row>
     <row r="15">
@@ -7336,7 +7360,7 @@
         <v>88</v>
       </c>
       <c r="F16" t="n">
-        <v>1.02511541138999</v>
+        <v>1.01757779807094</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -7365,7 +7389,7 @@
         <v>89</v>
       </c>
       <c r="F17" t="n">
-        <v>0.902108443194908</v>
+        <v>0.902021999411506</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -7374,7 +7398,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>0.971061802944773</v>
+        <v>0.970877204156961</v>
       </c>
     </row>
     <row r="18">
@@ -7394,7 +7418,7 @@
         <v>90</v>
       </c>
       <c r="F18" t="n">
-        <v>0.727082638555589</v>
+        <v>0.727069489040417</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -7403,7 +7427,7 @@
         <v>74</v>
       </c>
       <c r="I18" t="n">
-        <v>0.925429550806145</v>
+        <v>0.925428876016299</v>
       </c>
     </row>
     <row r="19">
@@ -7423,7 +7447,7 @@
         <v>91</v>
       </c>
       <c r="F19" t="n">
-        <v>0.636569862420517</v>
+        <v>0.636568973360985</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -7432,7 +7456,7 @@
         <v>74</v>
       </c>
       <c r="I19" t="n">
-        <v>3.64925845700457</v>
+        <v>3.64925835451981</v>
       </c>
     </row>
     <row r="20">
@@ -7452,7 +7476,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="n">
-        <v>0.632266190131663</v>
+        <v>0.632262781401185</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -7461,7 +7485,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0913384985440135</v>
+        <v>0.0913378068720272</v>
       </c>
     </row>
     <row r="21">
@@ -7481,7 +7505,7 @@
         <v>93</v>
       </c>
       <c r="F21" t="n">
-        <v>0.514112774434672</v>
+        <v>0.51410843725901</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -7490,7 +7514,7 @@
         <v>74</v>
       </c>
       <c r="I21" t="n">
-        <v>0.201675531701473</v>
+        <v>0.201677463671901</v>
       </c>
     </row>
     <row r="22">
@@ -7510,7 +7534,7 @@
         <v>94</v>
       </c>
       <c r="F22" t="n">
-        <v>0.428501275427824</v>
+        <v>0.426016532913334</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -7519,7 +7543,7 @@
         <v>74</v>
       </c>
       <c r="I22" t="n">
-        <v>0.663697291398013</v>
+        <v>0.66365886728188</v>
       </c>
     </row>
     <row r="23">
@@ -7539,7 +7563,7 @@
         <v>95</v>
       </c>
       <c r="F23" t="n">
-        <v>0.394650852918673</v>
+        <v>0.3946503047542</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -7548,7 +7572,7 @@
         <v>74</v>
       </c>
       <c r="I23" t="n">
-        <v>3.33480015267715</v>
+        <v>3.33480014309859</v>
       </c>
     </row>
     <row r="24">
@@ -7597,7 +7621,7 @@
         <v>97</v>
       </c>
       <c r="F25" t="n">
-        <v>0.178383560152108</v>
+        <v>0.17838023619567</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7606,7 +7630,7 @@
         <v>74</v>
       </c>
       <c r="I25" t="n">
-        <v>2.96885378994056</v>
+        <v>2.96885290343976</v>
       </c>
     </row>
     <row r="26">
@@ -7626,7 +7650,7 @@
         <v>98</v>
       </c>
       <c r="F26" t="n">
-        <v>0.154454162930868</v>
+        <v>0.153392662453746</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7635,7 +7659,7 @@
         <v>74</v>
       </c>
       <c r="I26" t="n">
-        <v>2.08369368169332</v>
+        <v>2.08483273084101</v>
       </c>
     </row>
     <row r="27">
@@ -7655,7 +7679,7 @@
         <v>99</v>
       </c>
       <c r="F27" t="n">
-        <v>0.101194546101585</v>
+        <v>0.101193509796211</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -7664,7 +7688,7 @@
         <v>74</v>
       </c>
       <c r="I27" t="n">
-        <v>0.712960113248662</v>
+        <v>0.712958920239726</v>
       </c>
     </row>
     <row r="28">
@@ -7684,7 +7708,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0686792273195691</v>
+        <v>0.0682785057617064</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -7693,7 +7717,7 @@
         <v>74</v>
       </c>
       <c r="I28" t="n">
-        <v>1.70105771386215</v>
+        <v>1.7010577275167</v>
       </c>
     </row>
     <row r="29">
@@ -7742,7 +7766,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="n">
-        <v>13.824561414811</v>
+        <v>13.8245079496935</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -7751,7 +7775,7 @@
         <v>102</v>
       </c>
       <c r="I30" t="n">
-        <v>1.20745835832263</v>
+        <v>1.20745143401546</v>
       </c>
     </row>
     <row r="31">
@@ -7800,7 +7824,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="n">
-        <v>6.16233391164276</v>
+        <v>6.16212908984608</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -7809,7 +7833,7 @@
         <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>0.875422338245073</v>
+        <v>0.875362455076564</v>
       </c>
     </row>
     <row r="33">
@@ -7829,7 +7853,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="n">
-        <v>3.84795480561065</v>
+        <v>3.84785893460706</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -7838,7 +7862,7 @@
         <v>102</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0441787440116941</v>
+        <v>-0.0441802389798078</v>
       </c>
     </row>
     <row r="34">
@@ -7858,7 +7882,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="n">
-        <v>3.19245088898752</v>
+        <v>3.19242464081292</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -7867,7 +7891,7 @@
         <v>102</v>
       </c>
       <c r="I34" t="n">
-        <v>0.655145802046758</v>
+        <v>0.655143860684159</v>
       </c>
     </row>
     <row r="35">
@@ -7887,7 +7911,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="n">
-        <v>2.98374266361607</v>
+        <v>2.96180337932477</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -7896,7 +7920,7 @@
         <v>102</v>
       </c>
       <c r="I35" t="n">
-        <v>0.217382117850948</v>
+        <v>0.215783719925573</v>
       </c>
     </row>
     <row r="36">
@@ -7916,7 +7940,7 @@
         <v>80</v>
       </c>
       <c r="F36" t="n">
-        <v>2.78815272987672</v>
+        <v>2.78814103294481</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -7925,7 +7949,7 @@
         <v>102</v>
       </c>
       <c r="I36" t="n">
-        <v>0.376354739845114</v>
+        <v>0.376353857432809</v>
       </c>
     </row>
     <row r="37">
@@ -7974,7 +7998,7 @@
         <v>82</v>
       </c>
       <c r="F38" t="n">
-        <v>2.37207072581055</v>
+        <v>2.36981409146647</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -7983,7 +8007,7 @@
         <v>102</v>
       </c>
       <c r="I38" t="n">
-        <v>0.136252413577064</v>
+        <v>0.136274899869416</v>
       </c>
     </row>
     <row r="39">
@@ -8003,7 +8027,7 @@
         <v>83</v>
       </c>
       <c r="F39" t="n">
-        <v>2.34330454623359</v>
+        <v>2.32711153555724</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -8012,7 +8036,7 @@
         <v>102</v>
       </c>
       <c r="I39" t="n">
-        <v>0.306800266429666</v>
+        <v>0.30468192408431</v>
       </c>
     </row>
     <row r="40">
@@ -8090,7 +8114,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="n">
-        <v>1.33624656368712</v>
+        <v>1.33609092188232</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -8099,7 +8123,7 @@
         <v>102</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0328844449486165</v>
+        <v>0.0328843782439057</v>
       </c>
     </row>
     <row r="43">
@@ -8148,7 +8172,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="n">
-        <v>1.02511541138999</v>
+        <v>1.01757779807094</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -8157,7 +8181,7 @@
         <v>102</v>
       </c>
       <c r="I44" t="n">
-        <v>0.016341879881909</v>
+        <v>0.0162217190004244</v>
       </c>
     </row>
     <row r="45">
@@ -8177,7 +8201,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="n">
-        <v>0.902108443194908</v>
+        <v>0.902021999411506</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -8186,7 +8210,7 @@
         <v>102</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0751447591827004</v>
+        <v>0.0751239527263008</v>
       </c>
     </row>
     <row r="46">
@@ -8206,7 +8230,7 @@
         <v>90</v>
       </c>
       <c r="F46" t="n">
-        <v>0.727082638555589</v>
+        <v>0.727069489040417</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -8215,7 +8239,7 @@
         <v>102</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0578481466466467</v>
+        <v>0.0578470601750268</v>
       </c>
     </row>
     <row r="47">
@@ -8235,7 +8259,7 @@
         <v>91</v>
       </c>
       <c r="F47" t="n">
-        <v>0.636569862420517</v>
+        <v>0.636568973360985</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -8244,7 +8268,7 @@
         <v>102</v>
       </c>
       <c r="I47" t="n">
-        <v>0.175517470421247</v>
+        <v>0.175517221183515</v>
       </c>
     </row>
     <row r="48">
@@ -8264,7 +8288,7 @@
         <v>92</v>
       </c>
       <c r="F48" t="n">
-        <v>0.632266190131663</v>
+        <v>0.632262781401185</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -8273,7 +8297,7 @@
         <v>102</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0051738645897369</v>
+        <v>0.00517379769496706</v>
       </c>
     </row>
     <row r="49">
@@ -8293,7 +8317,7 @@
         <v>93</v>
       </c>
       <c r="F49" t="n">
-        <v>0.514112774434672</v>
+        <v>0.51410843725901</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -8302,7 +8326,7 @@
         <v>102</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00923815134620876</v>
+        <v>0.00923816101982433</v>
       </c>
     </row>
     <row r="50">
@@ -8322,7 +8346,7 @@
         <v>94</v>
       </c>
       <c r="F50" t="n">
-        <v>0.428501275427824</v>
+        <v>0.426016532913334</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -8331,7 +8355,7 @@
         <v>102</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0247664426632724</v>
+        <v>0.0246214510063201</v>
       </c>
     </row>
     <row r="51">
@@ -8351,7 +8375,7 @@
         <v>95</v>
       </c>
       <c r="F51" t="n">
-        <v>0.394650852918673</v>
+        <v>0.3946503047542</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -8360,7 +8384,7 @@
         <v>102</v>
       </c>
       <c r="I51" t="n">
-        <v>0.10089020952794</v>
+        <v>0.100890069147791</v>
       </c>
     </row>
     <row r="52">
@@ -8409,7 +8433,7 @@
         <v>97</v>
       </c>
       <c r="F53" t="n">
-        <v>0.178383560152108</v>
+        <v>0.17838023619567</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -8418,7 +8442,7 @@
         <v>102</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0412947768578421</v>
+        <v>0.041293996758802</v>
       </c>
     </row>
     <row r="54">
@@ -8438,7 +8462,7 @@
         <v>98</v>
       </c>
       <c r="F54" t="n">
-        <v>0.154454162930868</v>
+        <v>0.153392662453746</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -8447,7 +8471,7 @@
         <v>102</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0261643307671005</v>
+        <v>0.0259973078506338</v>
       </c>
     </row>
     <row r="55">
@@ -8467,7 +8491,7 @@
         <v>99</v>
       </c>
       <c r="F55" t="n">
-        <v>0.101194546101585</v>
+        <v>0.101193509796211</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -8476,7 +8500,7 @@
         <v>102</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00626774195590933</v>
+        <v>0.00626766764958547</v>
       </c>
     </row>
     <row r="56">
@@ -8496,7 +8520,7 @@
         <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0686792273195691</v>
+        <v>0.0682785057617064</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -8505,7 +8529,7 @@
         <v>102</v>
       </c>
       <c r="I56" t="n">
-        <v>0.00967322756947123</v>
+        <v>0.00961678741858116</v>
       </c>
     </row>
     <row r="57">
@@ -8657,94 +8681,94 @@
         <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>7.65536272224194</v>
+        <v>7.65534107363202</v>
       </c>
       <c r="D2" t="n">
-        <v>7.80209777571709</v>
+        <v>7.80207487160357</v>
       </c>
       <c r="E2" t="n">
-        <v>7.94374009081247</v>
+        <v>7.94371599829511</v>
       </c>
       <c r="F2" t="n">
-        <v>7.96700589711753</v>
+        <v>7.96698134372686</v>
       </c>
       <c r="G2" t="n">
-        <v>8.04403687160005</v>
+        <v>8.04401146651667</v>
       </c>
       <c r="H2" t="n">
-        <v>8.20416268659492</v>
+        <v>8.20413638053919</v>
       </c>
       <c r="I2" t="n">
-        <v>8.54411315095457</v>
+        <v>8.54408604188197</v>
       </c>
       <c r="J2" t="n">
-        <v>8.75856806283381</v>
+        <v>8.75853875665486</v>
       </c>
       <c r="K2" t="n">
-        <v>8.94016496819085</v>
+        <v>8.94013454763155</v>
       </c>
       <c r="L2" t="n">
-        <v>9.01351849981368</v>
+        <v>9.01348748718646</v>
       </c>
       <c r="M2" t="n">
-        <v>9.42023953212871</v>
+        <v>9.42020784526828</v>
       </c>
       <c r="N2" t="n">
-        <v>9.63420218318552</v>
+        <v>9.63416902582088</v>
       </c>
       <c r="O2" t="n">
-        <v>9.76736994526346</v>
+        <v>9.76733619459289</v>
       </c>
       <c r="P2" t="n">
-        <v>10.3283787200279</v>
+        <v>10.3283438018664</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.7049779470834</v>
+        <v>10.7049411070003</v>
       </c>
       <c r="R2" t="n">
-        <v>11.050846461556</v>
+        <v>11.0508083307811</v>
       </c>
       <c r="S2" t="n">
-        <v>11.4885517037409</v>
+        <v>11.4885123082153</v>
       </c>
       <c r="T2" t="n">
-        <v>11.9920721593472</v>
+        <v>11.9920310258353</v>
       </c>
       <c r="U2" t="n">
-        <v>11.9957791047342</v>
+        <v>11.9957370766044</v>
       </c>
       <c r="V2" t="n">
-        <v>11.8292146951299</v>
+        <v>11.8291724531512</v>
       </c>
       <c r="W2" t="n">
-        <v>12.6171030564884</v>
+        <v>12.6170565156781</v>
       </c>
       <c r="X2" t="n">
-        <v>13.2119466226953</v>
+        <v>13.2118986275651</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.4916926675274</v>
+        <v>13.4916429027253</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.7198093318209</v>
+        <v>13.7197597429424</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.6800370883135</v>
+        <v>13.6799869243933</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5025231807138</v>
+        <v>13.5024722028903</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.505951716244</v>
+        <v>13.5058995524027</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.7025354422201</v>
+        <v>13.7024827465466</v>
       </c>
       <c r="AE2" t="n">
-        <v>13.9820888372978</v>
+        <v>13.9820344786331</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.824561414811</v>
+        <v>13.8245079496935</v>
       </c>
     </row>
     <row r="3">
@@ -8755,94 +8779,94 @@
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0965932661496042</v>
+        <v>0.0959186328307005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0974289447452275</v>
+        <v>0.0967490429456025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0980148700314418</v>
+        <v>0.0973322146363483</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0902412170795164</v>
+        <v>0.0896086423414068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0910893783256574</v>
+        <v>0.0904514506897922</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0907639307262715</v>
+        <v>0.090128091607591</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0908180785952182</v>
+        <v>0.0901832052368363</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0904352284139909</v>
+        <v>0.089803298219633</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0905313676288044</v>
+        <v>0.0898979316873412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0911428594733766</v>
+        <v>0.0904994736350016</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0950654596837274</v>
+        <v>0.0943933466502717</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0957983950892855</v>
+        <v>0.095121518772628</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0998768680530128</v>
+        <v>0.0991724997652174</v>
       </c>
       <c r="P3" t="n">
-        <v>0.104004695316808</v>
+        <v>0.103271916919665</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.109436126584772</v>
+        <v>0.108665412045872</v>
       </c>
       <c r="R3" t="n">
-        <v>0.114502358883516</v>
+        <v>0.113697215224328</v>
       </c>
       <c r="S3" t="n">
-        <v>0.116246772518437</v>
+        <v>0.115429155618556</v>
       </c>
       <c r="T3" t="n">
-        <v>0.123598705288833</v>
+        <v>0.122729829539535</v>
       </c>
       <c r="U3" t="n">
-        <v>0.125468462358028</v>
+        <v>0.124588465154842</v>
       </c>
       <c r="V3" t="n">
-        <v>0.119752145315595</v>
+        <v>0.118914999415617</v>
       </c>
       <c r="W3" t="n">
-        <v>0.128289832163767</v>
+        <v>0.127395354603112</v>
       </c>
       <c r="X3" t="n">
-        <v>0.131235428790101</v>
+        <v>0.130319560321792</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.143188284456937</v>
+        <v>0.142189092969116</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.144498249056468</v>
+        <v>0.143492778618071</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.146276978463098</v>
+        <v>0.145261321624994</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.147737387619554</v>
+        <v>0.146713467793357</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.149218464231986</v>
+        <v>0.148190357723312</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.15182333609456</v>
+        <v>0.15077834660619</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.15164951353267</v>
+        <v>0.150605858403832</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.154454162930868</v>
+        <v>0.153392662453746</v>
       </c>
     </row>
     <row r="4">
@@ -8853,94 +8877,94 @@
         <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>0.529143900039297</v>
+        <v>0.529141489521187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.531947514516927</v>
+        <v>0.531945084982467</v>
       </c>
       <c r="E4" t="n">
-        <v>0.541721848377131</v>
+        <v>0.541719340648467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.53466484323924</v>
+        <v>0.534662318796835</v>
       </c>
       <c r="G4" t="n">
-        <v>0.541355237457287</v>
+        <v>0.54135268205142</v>
       </c>
       <c r="H4" t="n">
-        <v>0.559304553786561</v>
+        <v>0.559301857470975</v>
       </c>
       <c r="I4" t="n">
-        <v>0.561087360826667</v>
+        <v>0.561084680055932</v>
       </c>
       <c r="J4" t="n">
-        <v>0.585033826376936</v>
+        <v>0.585030972003184</v>
       </c>
       <c r="K4" t="n">
-        <v>0.60055365696659</v>
+        <v>0.600550699264345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.589647180504677</v>
+        <v>0.589644257552539</v>
       </c>
       <c r="M4" t="n">
-        <v>0.600536128212476</v>
+        <v>0.60053312644782</v>
       </c>
       <c r="N4" t="n">
-        <v>0.597249632750532</v>
+        <v>0.59724661234827</v>
       </c>
       <c r="O4" t="n">
-        <v>0.596168296723506</v>
+        <v>0.596165281277209</v>
       </c>
       <c r="P4" t="n">
-        <v>0.603645970957958</v>
+        <v>0.603642916737788</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.612247523274603</v>
+        <v>0.612244416295168</v>
       </c>
       <c r="R4" t="n">
-        <v>0.613088620945248</v>
+        <v>0.613085499871687</v>
       </c>
       <c r="S4" t="n">
-        <v>0.629069260678218</v>
+        <v>0.629066046435021</v>
       </c>
       <c r="T4" t="n">
-        <v>0.626833363853417</v>
+        <v>0.626830199141649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.631886830756301</v>
+        <v>0.631883644554816</v>
       </c>
       <c r="V4" t="n">
-        <v>0.60747096716192</v>
+        <v>0.607467847761545</v>
       </c>
       <c r="W4" t="n">
-        <v>0.627092325541926</v>
+        <v>0.627088983706218</v>
       </c>
       <c r="X4" t="n">
-        <v>0.585628536144395</v>
+        <v>0.585625322434689</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.588052721223105</v>
+        <v>0.588049448508158</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.595432662147567</v>
+        <v>0.595429335415518</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.590168372293138</v>
+        <v>0.590165089479537</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.611098494732605</v>
+        <v>0.611095135422958</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.615243758126412</v>
+        <v>0.615240358111288</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.614474103943442</v>
+        <v>0.61447065865917</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.621431567513646</v>
+        <v>0.621428077782365</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.632266190131663</v>
+        <v>0.632262781401185</v>
       </c>
     </row>
     <row r="5">
@@ -9147,94 +9171,94 @@
         <v>86</v>
       </c>
       <c r="C7" t="n">
-        <v>1.00337324734293</v>
+        <v>1.00319629466337</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0247080567199</v>
+        <v>1.02453663885777</v>
       </c>
       <c r="E7" t="n">
-        <v>0.923580904154929</v>
+        <v>0.923444516445757</v>
       </c>
       <c r="F7" t="n">
-        <v>0.971009203201662</v>
+        <v>0.970858667197166</v>
       </c>
       <c r="G7" t="n">
-        <v>0.952086075164293</v>
+        <v>0.951945395114307</v>
       </c>
       <c r="H7" t="n">
-        <v>0.901253597701801</v>
+        <v>0.901122709042228</v>
       </c>
       <c r="I7" t="n">
-        <v>0.859961023653699</v>
+        <v>0.859861399102456</v>
       </c>
       <c r="J7" t="n">
-        <v>0.90771500481992</v>
+        <v>0.907600544082545</v>
       </c>
       <c r="K7" t="n">
-        <v>0.910938580836745</v>
+        <v>0.910830720154094</v>
       </c>
       <c r="L7" t="n">
-        <v>0.905322056748033</v>
+        <v>0.905212395368244</v>
       </c>
       <c r="M7" t="n">
-        <v>0.901543308017998</v>
+        <v>0.901438362690741</v>
       </c>
       <c r="N7" t="n">
-        <v>0.970059841435562</v>
+        <v>0.969953015959126</v>
       </c>
       <c r="O7" t="n">
-        <v>1.0096050072242</v>
+        <v>1.00949080407299</v>
       </c>
       <c r="P7" t="n">
-        <v>1.07699484280664</v>
+        <v>1.07687064712946</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.08628040239737</v>
+        <v>1.08614872323881</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12253389818573</v>
+        <v>1.12239776403055</v>
       </c>
       <c r="S7" t="n">
-        <v>1.15243097071096</v>
+        <v>1.15229656347506</v>
       </c>
       <c r="T7" t="n">
-        <v>1.21564897362181</v>
+        <v>1.21551429779442</v>
       </c>
       <c r="U7" t="n">
-        <v>1.2221647153457</v>
+        <v>1.22201812828823</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25016018964998</v>
+        <v>1.2499979255153</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3033621187385</v>
+        <v>1.30320654363842</v>
       </c>
       <c r="X7" t="n">
-        <v>1.3150359744143</v>
+        <v>1.31489502885743</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.36031466109502</v>
+        <v>1.36015795105524</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.39712632471513</v>
+        <v>1.39696971213744</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.37944314168434</v>
+        <v>1.37928647159102</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.35600184117321</v>
+        <v>1.35584567970148</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.316060299554</v>
+        <v>1.31590425785108</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.31088960946634</v>
+        <v>1.31074056241596</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.31681822886451</v>
+        <v>1.31666671227242</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.33624656368712</v>
+        <v>1.33609092188232</v>
       </c>
     </row>
   </sheetData>
@@ -9291,16 +9315,16 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.216944666531524</v>
+        <v>0.216944076822804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.294501269424973</v>
+        <v>0.294500337278336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.421603423358567</v>
+        <v>0.421601788296041</v>
       </c>
       <c r="H2" t="n">
-        <v>0.504987926634309</v>
+        <v>0.504985576848018</v>
       </c>
     </row>
     <row r="3">
@@ -9317,16 +9341,16 @@
         <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.525576191290156</v>
+        <v>0.525574611276456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.612937010985248</v>
+        <v>0.61293536931864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.721849527124698</v>
+        <v>0.721847000000904</v>
       </c>
       <c r="H3" t="n">
-        <v>0.719949049016528</v>
+        <v>0.719946026676213</v>
       </c>
     </row>
     <row r="4">
@@ -9343,16 +9367,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>0.788412963080142</v>
+        <v>0.78841151349658</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75580224173177</v>
+        <v>1.75579891134516</v>
       </c>
       <c r="G4" t="n">
-        <v>3.98763731047484</v>
+        <v>3.98762921847044</v>
       </c>
       <c r="H4" t="n">
-        <v>5.32644435011458</v>
+        <v>5.32643338929035</v>
       </c>
     </row>
     <row r="5">
@@ -9369,16 +9393,16 @@
         <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>1.50921508317585</v>
+        <v>1.50921078649088</v>
       </c>
       <c r="F5" t="n">
-        <v>1.10216411597427</v>
+        <v>1.10216019030428</v>
       </c>
       <c r="G5" t="n">
-        <v>1.13854905494913</v>
+        <v>1.13854433487176</v>
       </c>
       <c r="H5" t="n">
-        <v>1.08991534790832</v>
+        <v>1.08991068566332</v>
       </c>
     </row>
     <row r="6">
@@ -9395,16 +9419,16 @@
         <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>1.92515151032032</v>
+        <v>1.92514630953134</v>
       </c>
       <c r="F6" t="n">
-        <v>1.62285770273699</v>
+        <v>1.6228512217607</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6206226039103</v>
+        <v>1.62061404880002</v>
       </c>
       <c r="H6" t="n">
-        <v>1.20481121124219</v>
+        <v>1.20480369952006</v>
       </c>
     </row>
     <row r="7">
@@ -9421,16 +9445,16 @@
         <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161060864260237</v>
+        <v>0.161060284164201</v>
       </c>
       <c r="F7" t="n">
-        <v>0.271396340136763</v>
+        <v>0.271395174718622</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37108935848669</v>
+        <v>0.371087308483202</v>
       </c>
       <c r="H7" t="n">
-        <v>0.415067873542081</v>
+        <v>0.415065491925077</v>
       </c>
     </row>
     <row r="8">
@@ -9447,16 +9471,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.183858437454225</v>
+        <v>0.183857100002609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.338363485294758</v>
+        <v>0.338360913221683</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607679545810435</v>
+        <v>0.60767456252389</v>
       </c>
       <c r="H8" t="n">
-        <v>0.781828362374506</v>
+        <v>0.781821208298074</v>
       </c>
     </row>
     <row r="9">
@@ -9473,16 +9497,16 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>2.00795073420727</v>
+        <v>2.00794516838093</v>
       </c>
       <c r="F9" t="n">
-        <v>2.69311088140191</v>
+        <v>2.69310203870554</v>
       </c>
       <c r="G9" t="n">
-        <v>2.47315395129255</v>
+        <v>2.47314495815899</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77282402387965</v>
+        <v>1.77281495595156</v>
       </c>
     </row>
     <row r="10">
@@ -9499,16 +9523,16 @@
         <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>0.100078849575952</v>
+        <v>0.10007840825819</v>
       </c>
       <c r="F10" t="n">
-        <v>0.221908594047585</v>
+        <v>0.22190715845869</v>
       </c>
       <c r="G10" t="n">
-        <v>0.40968430944675</v>
+        <v>0.409681801979634</v>
       </c>
       <c r="H10" t="n">
-        <v>0.703385250640125</v>
+        <v>0.703381956560607</v>
       </c>
     </row>
     <row r="11">
@@ -9525,16 +9549,16 @@
         <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>0.237113422346255</v>
+        <v>0.237112815208031</v>
       </c>
       <c r="F11" t="n">
-        <v>0.507197890394446</v>
+        <v>0.507196530156629</v>
       </c>
       <c r="G11" t="n">
-        <v>0.865233971634399</v>
+        <v>0.865231494093193</v>
       </c>
       <c r="H11" t="n">
-        <v>1.30534801945871</v>
+        <v>1.30534495896025</v>
       </c>
     </row>
     <row r="12">
@@ -9551,16 +9575,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>0.031342624307578</v>
+        <v>0.031115955498378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.043758024942355</v>
+        <v>0.043441303399755</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0610375959728821</v>
+        <v>0.0605961159951323</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0876690524893929</v>
+        <v>0.087034731946435</v>
       </c>
     </row>
     <row r="13">
@@ -9577,16 +9601,16 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00028880591376</v>
+        <v>0.00028761573204</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0002744198811</v>
+        <v>0.00027335988198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004381930297082</v>
+        <v>0.00043644491688564</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000481366571069395</v>
+        <v>0.000479699039736859</v>
       </c>
     </row>
     <row r="14">
@@ -9603,16 +9627,16 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000597876778722489</v>
+        <v>0.000593767772566311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000857308668129303</v>
+        <v>0.000851885428678307</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00172892400023125</v>
+        <v>0.00171994874968481</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00359163165833671</v>
+        <v>0.0035764638952507</v>
       </c>
     </row>
     <row r="15">
@@ -9629,16 +9653,16 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000805206024</v>
+        <v>0.000801071502</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003603163492</v>
+        <v>0.0003583696992</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002294841748</v>
+        <v>0.0002284168392</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000470999027023908</v>
+        <v>0.000468054928401852</v>
       </c>
     </row>
     <row r="16">
@@ -9655,16 +9679,16 @@
         <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0016732678782327</v>
+        <v>0.00166369792302666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00173242792696361</v>
+        <v>0.00172399076042594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00440701722784301</v>
+        <v>0.00438618010496965</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00608356957857579</v>
+        <v>0.00605410353806543</v>
       </c>
     </row>
     <row r="17">
@@ -9681,16 +9705,16 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>0.023826561888653</v>
+        <v>0.0236577591160949</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0206465550250273</v>
+        <v>0.0205007732178649</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0248352526026377</v>
+        <v>0.0246642830629454</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0220663244135506</v>
+        <v>0.0219182644211347</v>
       </c>
     </row>
     <row r="18">
@@ -9707,16 +9731,16 @@
         <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003142519568</v>
+        <v>0.0003119994168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000272521509</v>
+        <v>0.000270574629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003007761267</v>
+        <v>0.0002986462101</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000436407911991699</v>
+        <v>0.000433305007332321</v>
       </c>
     </row>
     <row r="19">
@@ -9733,16 +9757,16 @@
         <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00813384382485751</v>
+        <v>0.00809066488404587</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00192932667695499</v>
+        <v>0.00192116352624009</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00333067993005046</v>
+        <v>0.0033118692947907</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00436120465015065</v>
+        <v>0.00433473509038622</v>
       </c>
     </row>
     <row r="20">
@@ -9759,16 +9783,16 @@
         <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0229038559110367</v>
+        <v>0.0227377830936662</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0169069729225782</v>
+        <v>0.0167845103171271</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0212916882801928</v>
+        <v>0.0211381946866013</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0183755719192141</v>
+        <v>0.0182456622426373</v>
       </c>
     </row>
     <row r="21">
@@ -9785,16 +9809,16 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0067069716659638</v>
+        <v>0.00665831789208263</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00832758578241895</v>
+        <v>0.00826741579000033</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0106902208187215</v>
+        <v>0.010615254742802</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0109180347115618</v>
+        <v>0.0108476423443654</v>
       </c>
     </row>
     <row r="22">
@@ -9811,16 +9835,16 @@
         <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>0.011817385274109</v>
+        <v>0.0118173267786082</v>
       </c>
       <c r="F22" t="n">
-        <v>0.011982851485968</v>
+        <v>0.01198280069668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0127935541756752</v>
+        <v>0.012793493873307</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00955883120521619</v>
+        <v>0.00955878458109704</v>
       </c>
     </row>
     <row r="23">
@@ -9837,16 +9861,16 @@
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0325565460026765</v>
+        <v>0.0325564280939471</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0342145307018001</v>
+        <v>0.0342143991634575</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0300101594418812</v>
+        <v>0.030010034310418</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0180976308047921</v>
+        <v>0.018097560384647</v>
       </c>
     </row>
     <row r="24">
@@ -9863,16 +9887,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0288562549607632</v>
+        <v>0.028856115759862</v>
       </c>
       <c r="F24" t="n">
-        <v>0.048955990214137</v>
+        <v>0.048955770028713</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0920499836753112</v>
+        <v>0.092049469708417</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15692334135325</v>
+        <v>0.156922527152599</v>
       </c>
     </row>
     <row r="25">
@@ -9889,16 +9913,16 @@
         <v>54</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02489874467898</v>
+        <v>0.0248986533124</v>
       </c>
       <c r="F25" t="n">
-        <v>0.023460927245328</v>
+        <v>0.02346082524433</v>
       </c>
       <c r="G25" t="n">
-        <v>0.026763932499748</v>
+        <v>0.02676379966873</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0275547727911073</v>
+        <v>0.0275546395764473</v>
       </c>
     </row>
     <row r="26">
@@ -9915,16 +9939,16 @@
         <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>0.123065143562086</v>
+        <v>0.123064639604795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.124732933470119</v>
+        <v>0.124732372920275</v>
       </c>
       <c r="G26" t="n">
-        <v>0.11935659829212</v>
+        <v>0.119356039786729</v>
       </c>
       <c r="H26" t="n">
-        <v>0.118136275668428</v>
+        <v>0.118135748044479</v>
       </c>
     </row>
     <row r="27">
@@ -9941,16 +9965,16 @@
         <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0489697939681004</v>
+        <v>0.0489695580904215</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0621849760277856</v>
+        <v>0.062184619809321</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0670691417329947</v>
+        <v>0.0670687640448567</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0548010188291002</v>
+        <v>0.0548006827458149</v>
       </c>
     </row>
     <row r="28">
@@ -9967,16 +9991,16 @@
         <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0270999219924013</v>
+        <v>0.0270997855470998</v>
       </c>
       <c r="F28" t="n">
-        <v>0.036345247590189</v>
+        <v>0.0363450418271236</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03954950146568</v>
+        <v>0.03954924717395</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0483000813377766</v>
+        <v>0.0482997825953333</v>
       </c>
     </row>
     <row r="29">
@@ -9993,16 +10017,16 @@
         <v>61</v>
       </c>
       <c r="E29" t="n">
-        <v>0.204474971973529</v>
+        <v>0.204473967754333</v>
       </c>
       <c r="F29" t="n">
-        <v>0.214973281912336</v>
+        <v>0.21497209099126</v>
       </c>
       <c r="G29" t="n">
-        <v>0.195184542297472</v>
+        <v>0.19518340709417</v>
       </c>
       <c r="H29" t="n">
-        <v>0.151864925980004</v>
+        <v>0.151863952840688</v>
       </c>
     </row>
     <row r="30">
@@ -10019,16 +10043,16 @@
         <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0190664893278</v>
+        <v>0.0190663961993</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0233164877640894</v>
+        <v>0.0233163756785704</v>
       </c>
       <c r="G30" t="n">
-        <v>0.016427295961416</v>
+        <v>0.01642720934216</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0186435043457825</v>
+        <v>0.0186433934708533</v>
       </c>
     </row>
     <row r="31">
@@ -10045,16 +10069,16 @@
         <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008338648298852</v>
+        <v>0.00833861838042</v>
       </c>
       <c r="F31" t="n">
-        <v>0.020368901800724</v>
+        <v>0.02036883008809</v>
       </c>
       <c r="G31" t="n">
-        <v>0.027887615999628</v>
+        <v>0.02788751870348</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0283858078162066</v>
+        <v>0.0283857100092259</v>
       </c>
     </row>
     <row r="32">
@@ -10591,16 +10615,16 @@
         <v>49</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0310604555654915</v>
+        <v>0.0310594799823154</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0426366968107164</v>
+        <v>0.0426351084546805</v>
       </c>
       <c r="G52" t="n">
-        <v>0.118428058984755</v>
+        <v>0.118425554580126</v>
       </c>
       <c r="H52" t="n">
-        <v>0.119487817611265</v>
+        <v>0.119485316666618</v>
       </c>
     </row>
     <row r="53">
@@ -10617,16 +10641,16 @@
         <v>51</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0141890599258</v>
+        <v>0.0141887466456</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0200094040963</v>
+        <v>0.0200076981129</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0242373880948</v>
+        <v>0.0242354520662</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0374580206246643</v>
+        <v>0.0374560570786764</v>
       </c>
     </row>
     <row r="54">
@@ -10643,16 +10667,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.235038964330853</v>
+        <v>0.234950802412205</v>
       </c>
       <c r="F54" t="n">
-        <v>0.249585693627956</v>
+        <v>0.249515020149182</v>
       </c>
       <c r="G54" t="n">
-        <v>0.403418471389623</v>
+        <v>0.403313345187515</v>
       </c>
       <c r="H54" t="n">
-        <v>0.361785706931588</v>
+        <v>0.361672068023669</v>
       </c>
     </row>
     <row r="55">
@@ -10669,16 +10693,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>0.248962835115945</v>
+        <v>0.248932252719745</v>
       </c>
       <c r="F55" t="n">
-        <v>0.090011056755053</v>
+        <v>0.090007583972653</v>
       </c>
       <c r="G55" t="n">
-        <v>0.127042627580597</v>
+        <v>0.127034189115997</v>
       </c>
       <c r="H55" t="n">
-        <v>0.116712232184147</v>
+        <v>0.116709800968336</v>
       </c>
     </row>
     <row r="56">
@@ -10695,16 +10719,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>0.139391690876045</v>
+        <v>0.139373060503845</v>
       </c>
       <c r="F56" t="n">
-        <v>0.104851244364444</v>
+        <v>0.104846249907444</v>
       </c>
       <c r="G56" t="n">
-        <v>0.087970050671377</v>
+        <v>0.087965376043177</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0725375069853928</v>
+        <v>0.0725340834911973</v>
       </c>
     </row>
     <row r="57">
@@ -10721,16 +10745,16 @@
         <v>57</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0525146977168709</v>
+        <v>0.0525141106093852</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0769462179381061</v>
+        <v>0.0769454381584168</v>
       </c>
       <c r="G57" t="n">
-        <v>0.10255162200696</v>
+        <v>0.102550564606016</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0920223381739329</v>
+        <v>0.0920213263225265</v>
       </c>
     </row>
     <row r="58">
@@ -10747,16 +10771,16 @@
         <v>59</v>
       </c>
       <c r="E58" t="n">
-        <v>0.023424910476741</v>
+        <v>0.023424600527941</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04767173601632</v>
+        <v>0.04767115495392</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08011835919225</v>
+        <v>0.08011751966205</v>
       </c>
       <c r="H58" t="n">
-        <v>0.120949235458314</v>
+        <v>0.120947964495629</v>
       </c>
     </row>
     <row r="59">
@@ -10773,16 +10797,16 @@
         <v>61</v>
       </c>
       <c r="E59" t="n">
-        <v>0.163073949503926</v>
+        <v>0.163055262483315</v>
       </c>
       <c r="F59" t="n">
-        <v>0.143085926394611</v>
+        <v>0.143080474127352</v>
       </c>
       <c r="G59" t="n">
-        <v>0.199551482574002</v>
+        <v>0.199546541208174</v>
       </c>
       <c r="H59" t="n">
-        <v>0.263609534739434</v>
+        <v>0.263603877792996</v>
       </c>
     </row>
     <row r="60">
@@ -10799,16 +10823,16 @@
         <v>63</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0325493527137134</v>
+        <v>0.0325488053125539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0532307871396359</v>
+        <v>0.0532301079685394</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0616243361084485</v>
+        <v>0.0616236414751607</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0494721356907783</v>
+        <v>0.0494709172776315</v>
       </c>
     </row>
     <row r="61">
@@ -10825,16 +10849,16 @@
         <v>65</v>
       </c>
       <c r="E61" t="n">
-        <v>0.050083831533846</v>
+        <v>0.0500656738827611</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0560591730864559</v>
+        <v>0.0560441550972542</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0753246018237919</v>
+        <v>0.0752992393821007</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0762513826163622</v>
+        <v>0.0762288570938</v>
       </c>
     </row>
   </sheetData>
@@ -10957,94 +10981,94 @@
         <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>1.55064755650364</v>
+        <v>1.55063095474604</v>
       </c>
       <c r="D2" t="n">
-        <v>1.48827593452741</v>
+        <v>1.48826058717001</v>
       </c>
       <c r="E2" t="n">
-        <v>1.41343026038896</v>
+        <v>1.41341529739676</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37644705207384</v>
+        <v>1.37643168021284</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38920131327221</v>
+        <v>1.38918562105121</v>
       </c>
       <c r="H2" t="n">
-        <v>1.55616549600087</v>
+        <v>1.55614991369827</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45128481513805</v>
+        <v>1.45127005853785</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51695930668174</v>
+        <v>1.51694456696114</v>
       </c>
       <c r="K2" t="n">
-        <v>1.48487582550981</v>
+        <v>1.48486156667921</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44068012234306</v>
+        <v>1.44066561815086</v>
       </c>
       <c r="M2" t="n">
-        <v>1.57845504031256</v>
+        <v>1.57843971200456</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5074522643496</v>
+        <v>1.5074379732706</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53004651192895</v>
+        <v>1.53003182962815</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64195823610743</v>
+        <v>1.64194121711843</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79453111190833</v>
+        <v>1.79451150408033</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86770254904087</v>
+        <v>1.86768180015987</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99376735286895</v>
+        <v>1.99374619545855</v>
       </c>
       <c r="T2" t="n">
-        <v>2.19731702457172</v>
+        <v>2.19729476471372</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24471405878274</v>
+        <v>2.24469052118234</v>
       </c>
       <c r="V2" t="n">
-        <v>2.27745248371675</v>
+        <v>2.27743157683995</v>
       </c>
       <c r="W2" t="n">
-        <v>2.53730508694076</v>
+        <v>2.53728078012876</v>
       </c>
       <c r="X2" t="n">
-        <v>2.73978473105865</v>
+        <v>2.73975888379045</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.84763805950799</v>
+        <v>2.84761057435279</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.91890366791034</v>
+        <v>2.91887744307914</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.0529859822407</v>
+        <v>3.0529588690227</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.04509198858133</v>
+        <v>3.04506565720613</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.98741321373459</v>
+        <v>2.98738801480379</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.06373806013065</v>
+        <v>3.06371270668245</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.13267589957722</v>
+        <v>3.13264992575051</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.19245088898752</v>
+        <v>3.19242464081292</v>
       </c>
     </row>
     <row r="3">
@@ -11055,94 +11079,94 @@
         <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6587708486366</v>
+        <v>1.6587650952988</v>
       </c>
       <c r="D3" t="n">
-        <v>1.64586453676652</v>
+        <v>1.64585849041772</v>
       </c>
       <c r="E3" t="n">
-        <v>1.62148956048331</v>
+        <v>1.62148396389771</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6181936694106</v>
+        <v>1.618187898982</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67648263011028</v>
+        <v>1.67647647240188</v>
       </c>
       <c r="H3" t="n">
-        <v>1.78835713446037</v>
+        <v>1.78834982687917</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8027481241133</v>
+        <v>1.8027409752791</v>
       </c>
       <c r="J3" t="n">
-        <v>1.78011302585416</v>
+        <v>1.78010629016036</v>
       </c>
       <c r="K3" t="n">
-        <v>1.75978929049226</v>
+        <v>1.75978246453166</v>
       </c>
       <c r="L3" t="n">
-        <v>1.71824668289244</v>
+        <v>1.71823995572044</v>
       </c>
       <c r="M3" t="n">
-        <v>1.85049965778404</v>
+        <v>1.85049290806204</v>
       </c>
       <c r="N3" t="n">
-        <v>1.82606732086313</v>
+        <v>1.82606056295293</v>
       </c>
       <c r="O3" t="n">
-        <v>1.78194813726285</v>
+        <v>1.78194161142405</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84345122389193</v>
+        <v>1.84344439142873</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99631375865174</v>
+        <v>1.99630545495154</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1014022823374</v>
+        <v>2.1013932917342</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18535382441445</v>
+        <v>2.18534450605125</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28628519070761</v>
+        <v>2.28627507668761</v>
       </c>
       <c r="U3" t="n">
-        <v>2.23938542104479</v>
+        <v>2.23937532294459</v>
       </c>
       <c r="V3" t="n">
-        <v>2.20506304695109</v>
+        <v>2.20505319719169</v>
       </c>
       <c r="W3" t="n">
-        <v>2.4117979900316</v>
+        <v>2.411787175512</v>
       </c>
       <c r="X3" t="n">
-        <v>2.52568001512678</v>
+        <v>2.52566856016398</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.56156674156149</v>
+        <v>2.56155582179389</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.56181657374645</v>
+        <v>2.56180568780985</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.59012357527706</v>
+        <v>2.59011279392126</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.64794153584436</v>
+        <v>2.64792966595436</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.70374833232089</v>
+        <v>2.70373615719209</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.70356000912152</v>
+        <v>2.70354876717772</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.75150535743687</v>
+        <v>2.75149385945162</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.78815272987672</v>
+        <v>2.78814103294481</v>
       </c>
     </row>
     <row r="4">
@@ -11251,94 +11275,94 @@
         <v>83</v>
       </c>
       <c r="C5" t="n">
-        <v>1.57781890949816</v>
+        <v>1.56678987077497</v>
       </c>
       <c r="D5" t="n">
-        <v>1.60686041901243</v>
+        <v>1.59563121225659</v>
       </c>
       <c r="E5" t="n">
-        <v>1.62855753248648</v>
+        <v>1.61719297611786</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65025274590609</v>
+        <v>1.63874281661656</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67490070413257</v>
+        <v>1.66323576170493</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69672796255978</v>
+        <v>1.68491903827</v>
       </c>
       <c r="I5" t="n">
-        <v>1.71745668537772</v>
+        <v>1.7055229262513</v>
       </c>
       <c r="J5" t="n">
-        <v>1.74018972328639</v>
+        <v>1.72810812748339</v>
       </c>
       <c r="K5" t="n">
-        <v>1.75245042433911</v>
+        <v>1.74028991995583</v>
       </c>
       <c r="L5" t="n">
-        <v>1.77177002329592</v>
+        <v>1.75948183270882</v>
       </c>
       <c r="M5" t="n">
-        <v>1.80427313073144</v>
+        <v>1.791763662054</v>
       </c>
       <c r="N5" t="n">
-        <v>1.80415650856813</v>
+        <v>1.79165876861088</v>
       </c>
       <c r="O5" t="n">
-        <v>1.81972341067966</v>
+        <v>1.80711502170696</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85141686500215</v>
+        <v>1.83859913407092</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88019365159072</v>
+        <v>1.86716872919701</v>
       </c>
       <c r="R5" t="n">
-        <v>1.90195073088177</v>
+        <v>1.88877248627598</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95179148718659</v>
+        <v>1.93826624611669</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98437050337869</v>
+        <v>1.97062871345889</v>
       </c>
       <c r="U5" t="n">
-        <v>2.00619300833797</v>
+        <v>1.99231119117909</v>
       </c>
       <c r="V5" t="n">
-        <v>2.01575589407387</v>
+        <v>2.00181313601432</v>
       </c>
       <c r="W5" t="n">
-        <v>2.03650427980392</v>
+        <v>2.02242961147293</v>
       </c>
       <c r="X5" t="n">
-        <v>2.07369279881998</v>
+        <v>2.05936351660548</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.10118736709024</v>
+        <v>2.086669552163</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.14234113493767</v>
+        <v>2.12755488172367</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.17746992593873</v>
+        <v>2.16242403003657</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.21714336171923</v>
+        <v>2.20182645135601</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.25070912025735</v>
+        <v>2.23516036799406</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.29187686284476</v>
+        <v>2.27603978445466</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.33096916874261</v>
+        <v>2.3148537994169</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.34330454623359</v>
+        <v>2.32711153555724</v>
       </c>
     </row>
     <row r="6">
@@ -11349,94 +11373,94 @@
         <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>2.56273167275117</v>
+        <v>2.5626738631167</v>
       </c>
       <c r="D6" t="n">
-        <v>2.53872152608064</v>
+        <v>2.53866434523294</v>
       </c>
       <c r="E6" t="n">
-        <v>2.50554457509313</v>
+        <v>2.50548658910805</v>
       </c>
       <c r="F6" t="n">
-        <v>2.49067733870223</v>
+        <v>2.49062065371058</v>
       </c>
       <c r="G6" t="n">
-        <v>2.50581844555463</v>
+        <v>2.50576064687203</v>
       </c>
       <c r="H6" t="n">
-        <v>2.53697528301095</v>
+        <v>2.53691508739753</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5232556590131</v>
+        <v>2.5231958310143</v>
       </c>
       <c r="J6" t="n">
-        <v>2.58947113427356</v>
+        <v>2.58941024111101</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62895910422133</v>
+        <v>2.62889672594267</v>
       </c>
       <c r="L6" t="n">
-        <v>2.55757303486692</v>
+        <v>2.55750763348498</v>
       </c>
       <c r="M6" t="n">
-        <v>2.56621274239798</v>
+        <v>2.56614712486898</v>
       </c>
       <c r="N6" t="n">
-        <v>2.63914559230815</v>
+        <v>2.63908075324339</v>
       </c>
       <c r="O6" t="n">
-        <v>2.70040503819599</v>
+        <v>2.70033956106361</v>
       </c>
       <c r="P6" t="n">
-        <v>2.81436744503018</v>
+        <v>2.81429868600335</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.09022529812036</v>
+        <v>3.09014999046578</v>
       </c>
       <c r="R6" t="n">
-        <v>3.4222360470996</v>
+        <v>3.42215375024078</v>
       </c>
       <c r="S6" t="n">
-        <v>3.53303225092845</v>
+        <v>3.53294528033268</v>
       </c>
       <c r="T6" t="n">
-        <v>3.61528817067726</v>
+        <v>3.61519888393782</v>
       </c>
       <c r="U6" t="n">
-        <v>3.70858171774832</v>
+        <v>3.70849143797383</v>
       </c>
       <c r="V6" t="n">
-        <v>3.66425801097064</v>
+        <v>3.66416821002422</v>
       </c>
       <c r="W6" t="n">
-        <v>3.89213354962234</v>
+        <v>3.89203917358687</v>
       </c>
       <c r="X6" t="n">
-        <v>3.91637026548684</v>
+        <v>3.916274447401</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.92458561002285</v>
+        <v>3.92449013124857</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.91739422353964</v>
+        <v>3.91729766285244</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.89396929587711</v>
+        <v>3.8938735977468</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.82602140698896</v>
+        <v>3.82592512512212</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.69075115396038</v>
+        <v>3.69065760007283</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.67354683214273</v>
+        <v>3.67345360240098</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.76844419330127</v>
+        <v>3.76835011178168</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.84795480561065</v>
+        <v>3.84785893460706</v>
       </c>
     </row>
     <row r="7">
@@ -11589,16 +11613,16 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.057251099521908</v>
+        <v>0.057250483467708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03830771769576</v>
+        <v>0.03830740099916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04364064621488</v>
+        <v>0.04364031367088</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0403948098696936</v>
+        <v>0.0403945217963633</v>
       </c>
     </row>
     <row r="3">
@@ -11615,16 +11639,16 @@
         <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19249579754468</v>
+        <v>0.19249494913368</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1704935648826</v>
+        <v>0.1704929568626</v>
       </c>
       <c r="G3" t="n">
-        <v>0.17710390750854</v>
+        <v>0.17710320539274</v>
       </c>
       <c r="H3" t="n">
-        <v>0.155083628593797</v>
+        <v>0.155082947557598</v>
       </c>
     </row>
     <row r="4">
@@ -11641,16 +11665,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21310224403978</v>
+        <v>0.21310005183178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4339314059591</v>
+        <v>0.4339278267595</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4128426138524</v>
+        <v>1.4128313181254</v>
       </c>
       <c r="H4" t="n">
-        <v>1.89424045173645</v>
+        <v>1.89422887375707</v>
       </c>
     </row>
     <row r="5">
@@ -11667,16 +11691,16 @@
         <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>0.227941245063342</v>
+        <v>0.227940438424542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.169882835446949</v>
+        <v>0.169882355609549</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18281065281849</v>
+        <v>0.18281008872769</v>
       </c>
       <c r="H5" t="n">
-        <v>0.266389884442811</v>
+        <v>0.266387811151706</v>
       </c>
     </row>
     <row r="6">
@@ -11693,16 +11717,16 @@
         <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52551653882558</v>
+        <v>0.52551423020658</v>
       </c>
       <c r="F6" t="n">
-        <v>0.379521867749168</v>
+        <v>0.379520359254368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.28693874908268</v>
+        <v>0.28693744184748</v>
       </c>
       <c r="H6" t="n">
-        <v>0.221333378920599</v>
+        <v>0.221332277307004</v>
       </c>
     </row>
     <row r="7">
@@ -11719,16 +11743,16 @@
         <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.076980378208248</v>
+        <v>0.076971748324248</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08981664296602</v>
+        <v>0.08980923937402</v>
       </c>
       <c r="G7" t="n">
-        <v>0.10416844491792</v>
+        <v>0.10416118441692</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0910521819246015</v>
+        <v>0.0910465552553567</v>
       </c>
     </row>
     <row r="8">
@@ -11745,16 +11769,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00624914695628</v>
+        <v>0.00624914515148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0064699218463</v>
+        <v>0.0064699167551</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0101869308011</v>
+        <v>0.0101869238793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.026971950050305</v>
+        <v>0.0269719287610874</v>
       </c>
     </row>
     <row r="9">
@@ -11771,16 +11795,16 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1810757427141</v>
+        <v>0.1810751190635</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2000513895697</v>
+        <v>0.2000505543219</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1218609000777</v>
+        <v>0.1218603335017</v>
       </c>
       <c r="H9" t="n">
-        <v>0.106651998877868</v>
+        <v>0.106651581924323</v>
       </c>
     </row>
     <row r="10">
@@ -11797,16 +11821,16 @@
         <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00724777776344</v>
+        <v>0.00724774630124</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008053412680788</v>
+        <v>0.008053358925588</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01199698473068</v>
+        <v>0.01199687397288</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0320141970316826</v>
+        <v>0.0320137288719486</v>
       </c>
     </row>
     <row r="11">
@@ -11823,16 +11847,16 @@
         <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06278758586628</v>
+        <v>0.06278704284128</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08192628151618</v>
+        <v>0.08192574314278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.185755256936368</v>
+        <v>0.185753096593768</v>
       </c>
       <c r="H11" t="n">
-        <v>0.358318407539706</v>
+        <v>0.35831441443046</v>
       </c>
     </row>
     <row r="12">
@@ -11849,16 +11873,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0195200233058393</v>
+        <v>0.0195200043124393</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0291009711888238</v>
+        <v>0.0291009013538238</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0344667270025829</v>
+        <v>0.0344667130825829</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0435866509881685</v>
+        <v>0.04358663298213</v>
       </c>
     </row>
     <row r="13">
@@ -11875,16 +11899,16 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.146150427590496</v>
+        <v>0.146149845907696</v>
       </c>
       <c r="F13" t="n">
-        <v>0.134684551499336</v>
+        <v>0.134683872094736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.11910514606964</v>
+        <v>0.11910449176784</v>
       </c>
       <c r="H13" t="n">
-        <v>0.106978333865068</v>
+        <v>0.106977739370153</v>
       </c>
     </row>
     <row r="14">
@@ -11901,16 +11925,16 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>0.284369400827866</v>
+        <v>0.284367308294466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.455156502503233</v>
+        <v>0.455153754244633</v>
       </c>
       <c r="G14" t="n">
-        <v>0.998251985239275</v>
+        <v>0.998244435920275</v>
       </c>
       <c r="H14" t="n">
-        <v>1.21826994794673</v>
+        <v>1.21826138898024</v>
       </c>
     </row>
     <row r="15">
@@ -11927,16 +11951,16 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.182760639824915</v>
+        <v>0.182760452329915</v>
       </c>
       <c r="F15" t="n">
-        <v>0.127209896062542</v>
+        <v>0.127209773661342</v>
       </c>
       <c r="G15" t="n">
-        <v>0.139724328034239</v>
+        <v>0.139724213599039</v>
       </c>
       <c r="H15" t="n">
-        <v>0.180472124249733</v>
+        <v>0.180471905429005</v>
       </c>
     </row>
     <row r="16">
@@ -11953,16 +11977,16 @@
         <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.494256004189668</v>
+        <v>0.494254796598468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.381183010537076</v>
+        <v>0.381182342217276</v>
       </c>
       <c r="G16" t="n">
-        <v>0.335063432139532</v>
+        <v>0.335062732769532</v>
       </c>
       <c r="H16" t="n">
-        <v>0.331615747241433</v>
+        <v>0.331614968647265</v>
       </c>
     </row>
     <row r="17">
@@ -11979,16 +12003,16 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0786785785967585</v>
+        <v>0.0786782856609585</v>
       </c>
       <c r="F17" t="n">
-        <v>0.14060894088482</v>
+        <v>0.14060864814202</v>
       </c>
       <c r="G17" t="n">
-        <v>0.174653629912286</v>
+        <v>0.174653337929286</v>
       </c>
       <c r="H17" t="n">
-        <v>0.180130021950335</v>
+        <v>0.180129805461104</v>
       </c>
     </row>
     <row r="18">
@@ -12005,16 +12029,16 @@
         <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>0.028075682487551</v>
+        <v>0.028075666953351</v>
       </c>
       <c r="F18" t="n">
-        <v>0.056344099546861</v>
+        <v>0.056344047342461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.134025905684571</v>
+        <v>0.134025781040371</v>
       </c>
       <c r="H18" t="n">
-        <v>0.173161288049548</v>
+        <v>0.173161144037769</v>
       </c>
     </row>
     <row r="19">
@@ -12031,16 +12055,16 @@
         <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>0.363205283682282</v>
+        <v>0.363204182595482</v>
       </c>
       <c r="F19" t="n">
-        <v>0.407889694013235</v>
+        <v>0.407887943739236</v>
       </c>
       <c r="G19" t="n">
-        <v>0.321769269096588</v>
+        <v>0.321768282617388</v>
       </c>
       <c r="H19" t="n">
-        <v>0.351395281623472</v>
+        <v>0.351394512973546</v>
       </c>
     </row>
     <row r="20">
@@ -12057,16 +12081,16 @@
         <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0209535654364896</v>
+        <v>0.0209535260090896</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0476453241050754</v>
+        <v>0.0476452706494754</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0685017640554104</v>
+        <v>0.0685016617958104</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0923728485596607</v>
+        <v>0.0923727098847063</v>
       </c>
     </row>
     <row r="21">
@@ -12083,16 +12107,16 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0408012426947294</v>
+        <v>0.0408010266369294</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0706766674430382</v>
+        <v>0.0706763546170382</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0862358027974771</v>
+        <v>0.0862355249898771</v>
       </c>
       <c r="H21" t="n">
-        <v>0.110170485402573</v>
+        <v>0.110170225178898</v>
       </c>
     </row>
     <row r="22">
@@ -12369,16 +12393,16 @@
         <v>49</v>
       </c>
       <c r="E32" t="n">
-        <v>0.127292925334589</v>
+        <v>0.126402162335809</v>
       </c>
       <c r="F32" t="n">
-        <v>0.168540823419297</v>
+        <v>0.167360414704591</v>
       </c>
       <c r="G32" t="n">
-        <v>0.225367112256067</v>
+        <v>0.22379172883058</v>
       </c>
       <c r="H32" t="n">
-        <v>0.291550012442885</v>
+        <v>0.289514244670207</v>
       </c>
     </row>
     <row r="33">
@@ -12395,16 +12419,16 @@
         <v>51</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0526502217632689</v>
+        <v>0.0523098648217637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.044758345301968</v>
+        <v>0.04449268240097</v>
       </c>
       <c r="G33" t="n">
-        <v>0.038895423161497</v>
+        <v>0.038666494875207</v>
       </c>
       <c r="H33" t="n">
-        <v>0.033175727298603</v>
+        <v>0.0329865134668794</v>
       </c>
     </row>
     <row r="34">
@@ -12421,16 +12445,16 @@
         <v>53</v>
       </c>
       <c r="E34" t="n">
-        <v>0.235262861068276</v>
+        <v>0.233642789129286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.306801434951913</v>
+        <v>0.304709549976647</v>
       </c>
       <c r="G34" t="n">
-        <v>0.400731246025076</v>
+        <v>0.397982859945832</v>
       </c>
       <c r="H34" t="n">
-        <v>0.500455683325137</v>
+        <v>0.497010259452225</v>
       </c>
     </row>
     <row r="35">
@@ -12447,16 +12471,16 @@
         <v>54</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102552592117645</v>
+        <v>0.101825394585739</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0963050163916746</v>
+        <v>0.095621561693059</v>
       </c>
       <c r="G35" t="n">
-        <v>0.125850996331028</v>
+        <v>0.124956319319158</v>
       </c>
       <c r="H35" t="n">
-        <v>0.143423815560958</v>
+        <v>0.142402207231555</v>
       </c>
     </row>
     <row r="36">
@@ -12473,16 +12497,16 @@
         <v>55</v>
       </c>
       <c r="E36" t="n">
-        <v>0.316148841354475</v>
+        <v>0.31395721132256</v>
       </c>
       <c r="F36" t="n">
-        <v>0.329766200289573</v>
+        <v>0.327506797095625</v>
       </c>
       <c r="G36" t="n">
-        <v>0.274717553191023</v>
+        <v>0.272885697007414</v>
       </c>
       <c r="H36" t="n">
-        <v>0.243567911670878</v>
+        <v>0.241967981899961</v>
       </c>
     </row>
     <row r="37">
@@ -12499,16 +12523,16 @@
         <v>57</v>
       </c>
       <c r="E37" t="n">
-        <v>0.208892015436677</v>
+        <v>0.20739649022045</v>
       </c>
       <c r="F37" t="n">
-        <v>0.269940984511224</v>
+        <v>0.268009363575792</v>
       </c>
       <c r="G37" t="n">
-        <v>0.312181066891628</v>
+        <v>0.309951233433201</v>
       </c>
       <c r="H37" t="n">
-        <v>0.369273990322499</v>
+        <v>0.366636075218017</v>
       </c>
     </row>
     <row r="38">
@@ -12525,16 +12549,16 @@
         <v>59</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0443653893850952</v>
+        <v>0.0440516172640638</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0612767171825092</v>
+        <v>0.0608425351491817</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0946228121975018</v>
+        <v>0.0939485068127396</v>
       </c>
       <c r="H38" t="n">
-        <v>0.116780051869666</v>
+        <v>0.115946691211601</v>
       </c>
     </row>
     <row r="39">
@@ -12551,16 +12575,16 @@
         <v>61</v>
       </c>
       <c r="E39" t="n">
-        <v>0.248922360521498</v>
+        <v>0.247142147308762</v>
       </c>
       <c r="F39" t="n">
-        <v>0.208503664980188</v>
+        <v>0.207045723450144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.164465175541686</v>
+        <v>0.163341090535941</v>
       </c>
       <c r="H39" t="n">
-        <v>0.164680248953637</v>
+        <v>0.163569868344386</v>
       </c>
     </row>
     <row r="40">
@@ -12577,16 +12601,16 @@
         <v>63</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0857756770326679</v>
+        <v>0.0851751404794757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11961157476824</v>
+        <v>0.118771788699916</v>
       </c>
       <c r="G40" t="n">
-        <v>0.154542402946928</v>
+        <v>0.153457890882742</v>
       </c>
       <c r="H40" t="n">
-        <v>0.190097311906786</v>
+        <v>0.188765369752961</v>
       </c>
     </row>
     <row r="41">
@@ -12603,16 +12627,16 @@
         <v>65</v>
       </c>
       <c r="E41" t="n">
-        <v>0.155956025483967</v>
+        <v>0.154887053307057</v>
       </c>
       <c r="F41" t="n">
-        <v>0.198768368934853</v>
+        <v>0.197403245308077</v>
       </c>
       <c r="G41" t="n">
-        <v>0.245130491261487</v>
+        <v>0.243447789830114</v>
       </c>
       <c r="H41" t="n">
-        <v>0.29029979288254</v>
+        <v>0.288312324309446</v>
       </c>
     </row>
     <row r="42">
@@ -12629,16 +12653,16 @@
         <v>49</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0728475833775311</v>
+        <v>0.0728446078553655</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0773612107249907</v>
+        <v>0.0773574936851761</v>
       </c>
       <c r="G42" t="n">
-        <v>0.11324003102061</v>
+        <v>0.113233810520546</v>
       </c>
       <c r="H42" t="n">
-        <v>0.131841988532953</v>
+        <v>0.131835814171829</v>
       </c>
     </row>
     <row r="43">
@@ -12655,16 +12679,16 @@
         <v>51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.146992869999461</v>
+        <v>0.146990288373091</v>
       </c>
       <c r="F43" t="n">
-        <v>0.158449252412947</v>
+        <v>0.158446449856827</v>
       </c>
       <c r="G43" t="n">
-        <v>0.118616635792414</v>
+        <v>0.118613832718014</v>
       </c>
       <c r="H43" t="n">
-        <v>0.132363838766963</v>
+        <v>0.1323607914842</v>
       </c>
     </row>
     <row r="44">
@@ -12681,16 +12705,16 @@
         <v>53</v>
       </c>
       <c r="E44" t="n">
-        <v>0.655321251927334</v>
+        <v>0.655308702233968</v>
       </c>
       <c r="F44" t="n">
-        <v>0.627213764547324</v>
+        <v>0.62720216278458</v>
       </c>
       <c r="G44" t="n">
-        <v>1.58215702545062</v>
+        <v>1.58212710014206</v>
       </c>
       <c r="H44" t="n">
-        <v>1.267524178397</v>
+        <v>1.26750129043227</v>
       </c>
     </row>
     <row r="45">
@@ -12707,16 +12731,16 @@
         <v>54</v>
       </c>
       <c r="E45" t="n">
-        <v>0.207257560449955</v>
+        <v>0.207255163073115</v>
       </c>
       <c r="F45" t="n">
-        <v>0.103329188349771</v>
+        <v>0.103328436506841</v>
       </c>
       <c r="G45" t="n">
-        <v>0.148115621656213</v>
+        <v>0.148114444916073</v>
       </c>
       <c r="H45" t="n">
-        <v>0.184581409926695</v>
+        <v>0.18457990181458</v>
       </c>
     </row>
     <row r="46">
@@ -12733,16 +12757,16 @@
         <v>55</v>
       </c>
       <c r="E46" t="n">
-        <v>0.564805738238589</v>
+        <v>0.564797403237039</v>
       </c>
       <c r="F46" t="n">
-        <v>0.504979860310317</v>
+        <v>0.504971748654447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.441446987948773</v>
+        <v>0.441439073546823</v>
       </c>
       <c r="H46" t="n">
-        <v>0.418655936765987</v>
+        <v>0.418647132297756</v>
       </c>
     </row>
     <row r="47">
@@ -12759,16 +12783,16 @@
         <v>57</v>
       </c>
       <c r="E47" t="n">
-        <v>0.118637345947122</v>
+        <v>0.118629534852456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153379084385414</v>
+        <v>0.153370198323476</v>
       </c>
       <c r="G47" t="n">
-        <v>0.204578606402416</v>
+        <v>0.204566637624773</v>
       </c>
       <c r="H47" t="n">
-        <v>0.190373716969509</v>
+        <v>0.190360478472394</v>
       </c>
     </row>
     <row r="48">
@@ -12785,16 +12809,16 @@
         <v>59</v>
       </c>
       <c r="E48" t="n">
-        <v>0.113148376688045</v>
+        <v>0.113147689207725</v>
       </c>
       <c r="F48" t="n">
-        <v>0.154364566906288</v>
+        <v>0.154363661337808</v>
       </c>
       <c r="G48" t="n">
-        <v>0.280635014917291</v>
+        <v>0.280633471128891</v>
       </c>
       <c r="H48" t="n">
-        <v>0.317166767578262</v>
+        <v>0.317164954271624</v>
       </c>
     </row>
     <row r="49">
@@ -12811,16 +12835,16 @@
         <v>61</v>
       </c>
       <c r="E49" t="n">
-        <v>0.510664432940366</v>
+        <v>0.510656529514041</v>
       </c>
       <c r="F49" t="n">
-        <v>0.525840247578873</v>
+        <v>0.525827019491664</v>
       </c>
       <c r="G49" t="n">
-        <v>0.502531810886323</v>
+        <v>0.502520062483614</v>
       </c>
       <c r="H49" t="n">
-        <v>0.515759203107356</v>
+        <v>0.51574755843064</v>
       </c>
     </row>
     <row r="50">
@@ -12837,16 +12861,16 @@
         <v>63</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0698048830016529</v>
+        <v>0.0698005006018913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.138978521104862</v>
+        <v>0.138972306397845</v>
       </c>
       <c r="G50" t="n">
-        <v>0.217334383357719</v>
+        <v>0.217326637671636</v>
       </c>
       <c r="H50" t="n">
-        <v>0.314398208635812</v>
+        <v>0.314386471696988</v>
       </c>
     </row>
     <row r="51">
@@ -12863,16 +12887,16 @@
         <v>65</v>
       </c>
       <c r="E51" t="n">
-        <v>0.103251630181118</v>
+        <v>0.103243444168009</v>
       </c>
       <c r="F51" t="n">
-        <v>0.122317046077191</v>
+        <v>0.122307647830319</v>
       </c>
       <c r="G51" t="n">
-        <v>0.283477432189963</v>
+        <v>0.283464102834443</v>
       </c>
       <c r="H51" t="n">
-        <v>0.375289556930111</v>
+        <v>0.375274541534783</v>
       </c>
     </row>
     <row r="52">
@@ -13075,21 +13099,45 @@
         <v>103</v>
       </c>
       <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0469851911638804</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0967783877931061</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.168190969859239</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>65</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E61" t="n">
         <v>0.115878527237639</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F61" t="n">
         <v>0.213012451934531</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G61" t="n">
         <v>0.375378062514763</v>
       </c>
-      <c r="H60"/>
+      <c r="H61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13211,94 +13259,94 @@
         <v>95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.286864776397056</v>
+        <v>0.28686437717727</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276922056047688</v>
+        <v>0.276921670746873</v>
       </c>
       <c r="E2" t="n">
-        <v>0.272275870038689</v>
+        <v>0.272275491341616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.271853313219218</v>
+        <v>0.271852935271667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.280969212719245</v>
+        <v>0.28096882237801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.283847119528937</v>
+        <v>0.283846725308924</v>
       </c>
       <c r="I2" t="n">
-        <v>0.297944855648778</v>
+        <v>0.297944441952328</v>
       </c>
       <c r="J2" t="n">
-        <v>0.302368995392446</v>
+        <v>0.302368575559315</v>
       </c>
       <c r="K2" t="n">
-        <v>0.303584326250902</v>
+        <v>0.303583904744364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.310814695327591</v>
+        <v>0.310814263787338</v>
       </c>
       <c r="M2" t="n">
-        <v>0.323390012104288</v>
+        <v>0.323389563127604</v>
       </c>
       <c r="N2" t="n">
-        <v>0.314094804389022</v>
+        <v>0.314094368320749</v>
       </c>
       <c r="O2" t="n">
-        <v>0.299945993020515</v>
+        <v>0.299945576599724</v>
       </c>
       <c r="P2" t="n">
-        <v>0.298031547022451</v>
+        <v>0.298031133282869</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.311830769452191</v>
+        <v>0.311830336551577</v>
       </c>
       <c r="R2" t="n">
-        <v>0.312681338149276</v>
+        <v>0.312680904077886</v>
       </c>
       <c r="S2" t="n">
-        <v>0.305984516872286</v>
+        <v>0.305984092104389</v>
       </c>
       <c r="T2" t="n">
-        <v>0.313258832142217</v>
+        <v>0.31325839728678</v>
       </c>
       <c r="U2" t="n">
-        <v>0.298116881945726</v>
+        <v>0.29811646808782</v>
       </c>
       <c r="V2" t="n">
-        <v>0.279624413287175</v>
+        <v>0.279624025127572</v>
       </c>
       <c r="W2" t="n">
-        <v>0.293760643390733</v>
+        <v>0.293760235606409</v>
       </c>
       <c r="X2" t="n">
-        <v>0.297657775206544</v>
+        <v>0.297657362014505</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.303750841300553</v>
+        <v>0.303750419669837</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.314853077458909</v>
+        <v>0.314852640429033</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.325549542720572</v>
+        <v>0.325549090852115</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.344023329350113</v>
+        <v>0.344022851849454</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.362069184008925</v>
+        <v>0.362068681458915</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.386612299035186</v>
+        <v>0.386611762421745</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.391347618223072</v>
+        <v>0.39134707503676</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.394650852918673</v>
+        <v>0.3946503047542</v>
       </c>
     </row>
     <row r="3">
@@ -13309,94 +13357,94 @@
         <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>3.38350590433594</v>
+        <v>3.38334535603202</v>
       </c>
       <c r="D3" t="n">
-        <v>3.43778931297482</v>
+        <v>3.43763154451158</v>
       </c>
       <c r="E3" t="n">
-        <v>3.51667561007147</v>
+        <v>3.51651918788208</v>
       </c>
       <c r="F3" t="n">
-        <v>3.58090334566996</v>
+        <v>3.58075031792608</v>
       </c>
       <c r="G3" t="n">
-        <v>3.67062576493728</v>
+        <v>3.67047600527251</v>
       </c>
       <c r="H3" t="n">
-        <v>3.77600174668246</v>
+        <v>3.77585468460153</v>
       </c>
       <c r="I3" t="n">
-        <v>3.91991190730784</v>
+        <v>3.91976449737071</v>
       </c>
       <c r="J3" t="n">
-        <v>3.99900139888764</v>
+        <v>3.99885603052563</v>
       </c>
       <c r="K3" t="n">
-        <v>4.09330285189943</v>
+        <v>4.09316031142785</v>
       </c>
       <c r="L3" t="n">
-        <v>4.19504971131034</v>
+        <v>4.19491049625689</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3298523637761</v>
+        <v>4.32971606187203</v>
       </c>
       <c r="N3" t="n">
-        <v>4.40057724276308</v>
+        <v>4.40044328054273</v>
       </c>
       <c r="O3" t="n">
-        <v>4.51075111742341</v>
+        <v>4.51061799895907</v>
       </c>
       <c r="P3" t="n">
-        <v>4.61758813690925</v>
+        <v>4.61745594199687</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.78884045372716</v>
+        <v>4.78870878178151</v>
       </c>
       <c r="R3" t="n">
-        <v>4.85963730978975</v>
+        <v>4.85950749719872</v>
       </c>
       <c r="S3" t="n">
-        <v>4.94950412648995</v>
+        <v>4.94937325252116</v>
       </c>
       <c r="T3" t="n">
-        <v>5.08952814798472</v>
+        <v>5.08939663501678</v>
       </c>
       <c r="U3" t="n">
-        <v>5.12568319801314</v>
+        <v>5.12554506951787</v>
       </c>
       <c r="V3" t="n">
-        <v>5.0951861893667</v>
+        <v>5.09504500870915</v>
       </c>
       <c r="W3" t="n">
-        <v>5.28691157339768</v>
+        <v>5.28676663476951</v>
       </c>
       <c r="X3" t="n">
-        <v>5.34863729391699</v>
+        <v>5.34848571160272</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.45721375912697</v>
+        <v>5.45705595284175</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.61598737602517</v>
+        <v>5.61582092764605</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.7045473978212</v>
+        <v>5.70437388165385</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.8615923584724</v>
+        <v>5.86141067469269</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.96540788698909</v>
+        <v>5.96522055614781</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.06149171497965</v>
+        <v>6.06129829329298</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.10675690871501</v>
+        <v>6.1065564506208</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.16233391164276</v>
+        <v>6.16212908984608</v>
       </c>
     </row>
     <row r="4">
@@ -13407,94 +13455,94 @@
         <v>99</v>
       </c>
       <c r="C4" t="n">
-        <v>0.137792793647384</v>
+        <v>0.137791616844951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.127788475902288</v>
+        <v>0.127787375862593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.122421444060876</v>
+        <v>0.122420369878483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.111653345494087</v>
+        <v>0.111652345038375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0981889182577522</v>
+        <v>0.0981880155988987</v>
       </c>
       <c r="H4" t="n">
-        <v>0.095592944562181</v>
+        <v>0.0955920497328038</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0940406922758591</v>
+        <v>0.0940398009904391</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0869480654819712</v>
+        <v>0.0869472259945012</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0805097589101568</v>
+        <v>0.0805089727651668</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07894396938032</v>
+        <v>0.07894319097825</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09426014898752</v>
+        <v>0.09425920592365</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09067635868408</v>
+        <v>0.090675444048</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09285888946156</v>
+        <v>0.0928579513269</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09593286559158</v>
+        <v>0.0959318947265</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.10373011428206</v>
+        <v>0.10372906720275</v>
       </c>
       <c r="R4" t="n">
-        <v>0.11050366716382</v>
+        <v>0.11050255051855</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1157425094638</v>
+        <v>0.1157413386752</v>
       </c>
       <c r="T4" t="n">
-        <v>0.11528660147034</v>
+        <v>0.11528543572655</v>
       </c>
       <c r="U4" t="n">
-        <v>0.10564622641958</v>
+        <v>0.10564515829</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09155569889888</v>
+        <v>0.0915547729787</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0949268041456759</v>
+        <v>0.0949258421466258</v>
       </c>
       <c r="X4" t="n">
-        <v>0.105688575973143</v>
+        <v>0.105687498548525</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.100386668474254</v>
+        <v>0.100385647237781</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.100665297095397</v>
+        <v>0.100664272616029</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0996344215592835</v>
+        <v>0.0996334085810932</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.100307471151726</v>
+        <v>0.100306448818726</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0984686419678236</v>
+        <v>0.0984676385873111</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0992711977764965</v>
+        <v>0.0992701818628753</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.100684869843924</v>
+        <v>0.10068383971776</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.101194546101585</v>
+        <v>0.101193509796211</v>
       </c>
     </row>
     <row r="5">
@@ -13505,94 +13553,94 @@
         <v>97</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10131243247214</v>
+        <v>0.10131055182816</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0965986845056886</v>
+        <v>0.0965968908419382</v>
       </c>
       <c r="E5" t="n">
-        <v>0.101356170288732</v>
+        <v>0.10135428950521</v>
       </c>
       <c r="F5" t="n">
-        <v>0.102396916418265</v>
+        <v>0.102395015439937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0955640364076868</v>
+        <v>0.0955622661685166</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0999278060153584</v>
+        <v>0.0999259530467853</v>
       </c>
       <c r="I5" t="n">
-        <v>0.125215570610426</v>
+        <v>0.125213256696757</v>
       </c>
       <c r="J5" t="n">
-        <v>0.11362583426246</v>
+        <v>0.113623734456204</v>
       </c>
       <c r="K5" t="n">
-        <v>0.107923871234276</v>
+        <v>0.107921874622867</v>
       </c>
       <c r="L5" t="n">
-        <v>0.121316225615416</v>
+        <v>0.121313982764271</v>
       </c>
       <c r="M5" t="n">
-        <v>0.124331123744706</v>
+        <v>0.124328822140699</v>
       </c>
       <c r="N5" t="n">
-        <v>0.12473919550492</v>
+        <v>0.124736889752198</v>
       </c>
       <c r="O5" t="n">
-        <v>0.123399643265509</v>
+        <v>0.123397358791431</v>
       </c>
       <c r="P5" t="n">
-        <v>0.133343069707812</v>
+        <v>0.133340601920994</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.132199938271294</v>
+        <v>0.132197496066244</v>
       </c>
       <c r="R5" t="n">
-        <v>0.134716441173226</v>
+        <v>0.134713949852817</v>
       </c>
       <c r="S5" t="n">
-        <v>0.143749704701646</v>
+        <v>0.143747049851383</v>
       </c>
       <c r="T5" t="n">
-        <v>0.146635636739908</v>
+        <v>0.146632929249913</v>
       </c>
       <c r="U5" t="n">
-        <v>0.132055099343322</v>
+        <v>0.132052653261621</v>
       </c>
       <c r="V5" t="n">
-        <v>0.136793573860265</v>
+        <v>0.136791037464141</v>
       </c>
       <c r="W5" t="n">
-        <v>0.137088783294266</v>
+        <v>0.137086239436868</v>
       </c>
       <c r="X5" t="n">
-        <v>0.151422749822206</v>
+        <v>0.15141992991224</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.159137662020459</v>
+        <v>0.159134701366037</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.164320002559007</v>
+        <v>0.164316945575968</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.166338161834793</v>
+        <v>0.166335069179293</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.157514800634306</v>
+        <v>0.157511866328927</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.160456750697549</v>
+        <v>0.160453760760593</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.171958300207221</v>
+        <v>0.171955101138382</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.174807138545476</v>
+        <v>0.174803885901165</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.178383560152108</v>
+        <v>0.17838023619567</v>
       </c>
     </row>
     <row r="6">
@@ -13603,94 +13651,94 @@
         <v>93</v>
       </c>
       <c r="C6" t="n">
-        <v>0.481059918306386</v>
+        <v>0.481055667363867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.491458150287012</v>
+        <v>0.491453721456637</v>
       </c>
       <c r="E6" t="n">
-        <v>0.486829468612516</v>
+        <v>0.486825111427232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.476633678699371</v>
+        <v>0.476629472052416</v>
       </c>
       <c r="G6" t="n">
-        <v>0.471515222301371</v>
+        <v>0.471511059882026</v>
       </c>
       <c r="H6" t="n">
-        <v>0.490458489022685</v>
+        <v>0.490454195067072</v>
       </c>
       <c r="I6" t="n">
-        <v>0.472251936510717</v>
+        <v>0.472247713797083</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48927638408194</v>
+        <v>0.489271973987466</v>
       </c>
       <c r="K6" t="n">
-        <v>0.501251024629287</v>
+        <v>0.501246647782866</v>
       </c>
       <c r="L6" t="n">
-        <v>0.509935392282628</v>
+        <v>0.509930964467453</v>
       </c>
       <c r="M6" t="n">
-        <v>0.452905170202893</v>
+        <v>0.452901269827996</v>
       </c>
       <c r="N6" t="n">
-        <v>0.459372971299832</v>
+        <v>0.459369012487886</v>
       </c>
       <c r="O6" t="n">
-        <v>0.455058728778871</v>
+        <v>0.455054845102504</v>
       </c>
       <c r="P6" t="n">
-        <v>0.463822593146319</v>
+        <v>0.463818630759489</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.495820567325559</v>
+        <v>0.49581627433166</v>
       </c>
       <c r="R6" t="n">
-        <v>0.513891802807407</v>
+        <v>0.513887379978516</v>
       </c>
       <c r="S6" t="n">
-        <v>0.513418103946441</v>
+        <v>0.51341367457876</v>
       </c>
       <c r="T6" t="n">
-        <v>0.516104981455465</v>
+        <v>0.516100591488075</v>
       </c>
       <c r="U6" t="n">
-        <v>0.518838371038562</v>
+        <v>0.518833977610907</v>
       </c>
       <c r="V6" t="n">
-        <v>0.483879895439443</v>
+        <v>0.48387567085851</v>
       </c>
       <c r="W6" t="n">
-        <v>0.504874623088463</v>
+        <v>0.504870276239186</v>
       </c>
       <c r="X6" t="n">
-        <v>0.506423532071853</v>
+        <v>0.506419181593427</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.496167215646808</v>
+        <v>0.49616291230754</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.502368305342003</v>
+        <v>0.502363993495814</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.508941536431125</v>
+        <v>0.508937143965251</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.507890641427519</v>
+        <v>0.507886268964739</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.490562986897351</v>
+        <v>0.49055881999467</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.497441568557161</v>
+        <v>0.497437333005962</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.508472114173545</v>
+        <v>0.508467834231397</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.514112774434672</v>
+        <v>0.51410843725901</v>
       </c>
     </row>
     <row r="7">
@@ -13701,94 +13749,94 @@
         <v>91</v>
       </c>
       <c r="C7" t="n">
-        <v>0.260335734144428</v>
+        <v>0.260335372841111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.253104257924036</v>
+        <v>0.253103906660922</v>
       </c>
       <c r="E7" t="n">
-        <v>0.261170220522636</v>
+        <v>0.261169858065028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.266375625063774</v>
+        <v>0.266375255383816</v>
       </c>
       <c r="G7" t="n">
-        <v>0.28075414008023</v>
+        <v>0.280753750442423</v>
       </c>
       <c r="H7" t="n">
-        <v>0.291959526729333</v>
+        <v>0.291959121537474</v>
       </c>
       <c r="I7" t="n">
-        <v>0.303724470717016</v>
+        <v>0.303724049204368</v>
       </c>
       <c r="J7" t="n">
-        <v>0.319309292420101</v>
+        <v>0.319308849274831</v>
       </c>
       <c r="K7" t="n">
-        <v>0.33017686480104</v>
+        <v>0.330176406571163</v>
       </c>
       <c r="L7" t="n">
-        <v>0.344325820117376</v>
+        <v>0.344325342248518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.357290917670164</v>
+        <v>0.35729042181004</v>
       </c>
       <c r="N7" t="n">
-        <v>0.350127642107313</v>
+        <v>0.350127156192007</v>
       </c>
       <c r="O7" t="n">
-        <v>0.370323370979332</v>
+        <v>0.370322857034144</v>
       </c>
       <c r="P7" t="n">
-        <v>0.368656768135752</v>
+        <v>0.368656256523067</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.397845120541187</v>
+        <v>0.397844568422487</v>
       </c>
       <c r="R7" t="n">
-        <v>0.423550431514235</v>
+        <v>0.423549843727336</v>
       </c>
       <c r="S7" t="n">
-        <v>0.439040397773969</v>
+        <v>0.439039788491568</v>
       </c>
       <c r="T7" t="n">
-        <v>0.451192466238459</v>
+        <v>0.451191840097958</v>
       </c>
       <c r="U7" t="n">
-        <v>0.458627905085488</v>
+        <v>0.458627268624486</v>
       </c>
       <c r="V7" t="n">
-        <v>0.436813979824015</v>
+        <v>0.436813373635717</v>
       </c>
       <c r="W7" t="n">
-        <v>0.461052391999271</v>
+        <v>0.46105175217747</v>
       </c>
       <c r="X7" t="n">
-        <v>0.478163423905223</v>
+        <v>0.478162760336622</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.48193644027769</v>
+        <v>0.481935771473793</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.490144661058524</v>
+        <v>0.490143980859324</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.506521988219491</v>
+        <v>0.506521285292392</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.534527986215299</v>
+        <v>0.534527244415702</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.558118783802543</v>
+        <v>0.558118006004144</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.589437377337615</v>
+        <v>0.589436554103716</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.614168239553499</v>
+        <v>0.614167381780989</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.636569862420517</v>
+        <v>0.636568973360985</v>
       </c>
     </row>
     <row r="8">
@@ -13799,94 +13847,94 @@
         <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>0.374840450180028</v>
+        <v>0.374833673104063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.389749363101345</v>
+        <v>0.389742322775732</v>
       </c>
       <c r="E8" t="n">
-        <v>0.418620736059767</v>
+        <v>0.418613175309551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.405739462801249</v>
+        <v>0.405732135429757</v>
       </c>
       <c r="G8" t="n">
-        <v>0.418651806370745</v>
+        <v>0.418644244987361</v>
       </c>
       <c r="H8" t="n">
-        <v>0.432060931770772</v>
+        <v>0.432053127831546</v>
       </c>
       <c r="I8" t="n">
-        <v>0.442242176640226</v>
+        <v>0.442234187209253</v>
       </c>
       <c r="J8" t="n">
-        <v>0.452835942872666</v>
+        <v>0.452827761944463</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466415897097291</v>
+        <v>0.466407469528034</v>
       </c>
       <c r="L8" t="n">
-        <v>0.490391946261713</v>
+        <v>0.490383088961001</v>
       </c>
       <c r="M8" t="n">
-        <v>0.50321186824447</v>
+        <v>0.503202782207529</v>
       </c>
       <c r="N8" t="n">
-        <v>0.478375104215523</v>
+        <v>0.478366463229438</v>
       </c>
       <c r="O8" t="n">
-        <v>0.496351446920823</v>
+        <v>0.496342483935932</v>
       </c>
       <c r="P8" t="n">
-        <v>0.506887373838324</v>
+        <v>0.506878225602969</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.556361918175578</v>
+        <v>0.556351878030444</v>
       </c>
       <c r="R8" t="n">
-        <v>0.576972603108368</v>
+        <v>0.576962199118688</v>
       </c>
       <c r="S8" t="n">
-        <v>0.614486623525406</v>
+        <v>0.614475544755625</v>
       </c>
       <c r="T8" t="n">
-        <v>0.650987920597522</v>
+        <v>0.650976189115619</v>
       </c>
       <c r="U8" t="n">
-        <v>0.65343829740586</v>
+        <v>0.653426530297565</v>
       </c>
       <c r="V8" t="n">
-        <v>0.622038736022497</v>
+        <v>0.622027525293261</v>
       </c>
       <c r="W8" t="n">
-        <v>0.669234491908942</v>
+        <v>0.66922242886539</v>
       </c>
       <c r="X8" t="n">
-        <v>0.669855670202421</v>
+        <v>0.669843599200422</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.622829151447434</v>
+        <v>0.622817937120217</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.620777859128351</v>
+        <v>0.620766679583497</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.64224971396057</v>
+        <v>0.64223811899118</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.666456704458091</v>
+        <v>0.66644464754163</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.685191683038718</v>
+        <v>0.685179297005708</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.703828496980162</v>
+        <v>0.703815771543088</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.710324797726382</v>
+        <v>0.710311953250444</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.727082638555589</v>
+        <v>0.727069489040417</v>
       </c>
     </row>
     <row r="9">

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -15,14 +15,16 @@
     <sheet name="Industry regions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Transport trend" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Transport regions" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="AFOLU trend" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="AFOLU regions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Buildings trend" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Buildings regions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="AFOLU trend" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="AFOLU regions" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -33,7 +35,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-25</t>
+    <t xml:space="preserve">2021-09-13</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
@@ -283,6 +285,45 @@
   </si>
   <si>
     <t xml:space="preserve">Intl. Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential (direct CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (direct CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All buildings (non-CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential (indirect CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (indirect CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-CO2 (all buildings)</t>
   </si>
   <si>
     <t xml:space="preserve">Enteric Fermentation (CH4)</t>
@@ -788,689 +829,493 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>7.1</v>
+      <c r="A2" t="s">
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
-        <v>2.45933548371225</v>
+        <v>0.782237072260382</v>
       </c>
       <c r="D2" t="n">
-        <v>2.46201671373278</v>
+        <v>0.791288297103925</v>
       </c>
       <c r="E2" t="n">
-        <v>2.46411423377595</v>
+        <v>0.717847259886038</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45666946519945</v>
+        <v>0.716743247054865</v>
       </c>
       <c r="G2" t="n">
-        <v>2.47736723792027</v>
+        <v>0.715681571742592</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48814763277207</v>
+        <v>0.735063463237398</v>
       </c>
       <c r="I2" t="n">
-        <v>2.49161801935487</v>
+        <v>0.785941597987959</v>
       </c>
       <c r="J2" t="n">
-        <v>2.44793516194359</v>
+        <v>0.760259484824698</v>
       </c>
       <c r="K2" t="n">
-        <v>2.45438592487034</v>
+        <v>0.727245010804661</v>
       </c>
       <c r="L2" t="n">
-        <v>2.46278713184064</v>
+        <v>0.757924518337373</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4761574940428</v>
+        <v>0.713990436666469</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4863035124547</v>
+        <v>0.72519979058931</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5175102113773</v>
+        <v>0.733464669029646</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5549201819782</v>
+        <v>0.768251138378626</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5947555171057</v>
+        <v>0.789134364869796</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6176615791228</v>
+        <v>0.794265904040363</v>
       </c>
       <c r="S2" t="n">
-        <v>2.65135152162366</v>
+        <v>0.781794225036289</v>
       </c>
       <c r="T2" t="n">
-        <v>2.6883193419558</v>
+        <v>0.795548812403642</v>
       </c>
       <c r="U2" t="n">
-        <v>2.72102404502826</v>
+        <v>0.828886131796061</v>
       </c>
       <c r="V2" t="n">
-        <v>2.73474096881868</v>
+        <v>0.811056914058445</v>
       </c>
       <c r="W2" t="n">
-        <v>2.7460196593992</v>
+        <v>0.826898046685206</v>
       </c>
       <c r="X2" t="n">
-        <v>2.76494094739638</v>
+        <v>0.821676964808909</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.79436270915476</v>
+        <v>0.812083321728632</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.81140232820714</v>
+        <v>0.853123018326185</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.8301127895944</v>
+        <v>0.832386322815831</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.859896251773</v>
+        <v>0.846407807367462</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.8934770531005</v>
+        <v>0.853747357739472</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.9040858208971</v>
+        <v>0.854703764302396</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.9263944815595</v>
+        <v>0.88398186197604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.96180337932477</v>
+        <v>0.902021999411506</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7.2</v>
+      <c r="A3" t="s">
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383572847364061</v>
+        <v>2.2214177847958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.383795978256541</v>
+        <v>2.23311092948979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.382274552513672</v>
+        <v>2.18722496654821</v>
       </c>
       <c r="F3" t="n">
-        <v>0.381423493556538</v>
+        <v>2.25224263015324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.382807199299097</v>
+        <v>2.15937867851455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.381443346461469</v>
+        <v>2.2217483095595</v>
       </c>
       <c r="I3" t="n">
-        <v>0.383036044598717</v>
+        <v>2.21723629954086</v>
       </c>
       <c r="J3" t="n">
-        <v>0.372349191527853</v>
+        <v>2.23291671698003</v>
       </c>
       <c r="K3" t="n">
-        <v>0.374996729636997</v>
+        <v>2.09445459736264</v>
       </c>
       <c r="L3" t="n">
-        <v>0.376200488838974</v>
+        <v>2.13469137212694</v>
       </c>
       <c r="M3" t="n">
-        <v>0.37839455306519</v>
+        <v>2.17041712371828</v>
       </c>
       <c r="N3" t="n">
-        <v>0.376447648456337</v>
+        <v>2.18277850025533</v>
       </c>
       <c r="O3" t="n">
-        <v>0.380598892652708</v>
+        <v>2.16884633998896</v>
       </c>
       <c r="P3" t="n">
-        <v>0.381796776019359</v>
+        <v>2.22283910041798</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.382775101836781</v>
+        <v>2.24707327534424</v>
       </c>
       <c r="R3" t="n">
-        <v>0.385890181320798</v>
+        <v>2.24593387471139</v>
       </c>
       <c r="S3" t="n">
-        <v>0.391060740945522</v>
+        <v>2.22168007438514</v>
       </c>
       <c r="T3" t="n">
-        <v>0.393256612273342</v>
+        <v>2.1987187791273</v>
       </c>
       <c r="U3" t="n">
-        <v>0.39800806482296</v>
+        <v>2.23023588782883</v>
       </c>
       <c r="V3" t="n">
-        <v>0.399311819799809</v>
+        <v>2.19738935809693</v>
       </c>
       <c r="W3" t="n">
-        <v>0.401395081907014</v>
+        <v>2.23353919159706</v>
       </c>
       <c r="X3" t="n">
-        <v>0.400351822699294</v>
+        <v>2.18867314947878</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4041042781333</v>
+        <v>2.15069214820696</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.406102345072752</v>
+        <v>2.21385650534764</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.410387622401279</v>
+        <v>2.18474516126724</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.414285147492653</v>
+        <v>2.18752686556134</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.418637236772873</v>
+        <v>2.21324692550689</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.419093494198307</v>
+        <v>2.26828463679267</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.421405487301627</v>
+        <v>2.33194276933718</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.426016532913334</v>
+        <v>2.36981409146647</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7.3</v>
+      <c r="A4" t="s">
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05534627839291</v>
+        <v>0.0000096074973</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0317234760671</v>
+        <v>0.00001733463429</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0169913913399</v>
+        <v>0.000257126454216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.984318566024592</v>
+        <v>0.00100253234333924</v>
       </c>
       <c r="G4" t="n">
-        <v>0.971551386029115</v>
+        <v>0.002754962056712</v>
       </c>
       <c r="H4" t="n">
-        <v>0.971990017640001</v>
+        <v>0.0131902843481268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.965753042060205</v>
+        <v>0.0169212606606136</v>
       </c>
       <c r="J4" t="n">
-        <v>0.95656959353205</v>
+        <v>0.0194851446329564</v>
       </c>
       <c r="K4" t="n">
-        <v>0.932883571553136</v>
+        <v>0.0209475606067223</v>
       </c>
       <c r="L4" t="n">
-        <v>0.944176624768218</v>
+        <v>0.0219729970851676</v>
       </c>
       <c r="M4" t="n">
-        <v>0.904318794885239</v>
+        <v>0.0229579614540507</v>
       </c>
       <c r="N4" t="n">
-        <v>0.89236863319956</v>
+        <v>0.0229031730308853</v>
       </c>
       <c r="O4" t="n">
-        <v>0.883249559516007</v>
+        <v>0.0226595808748759</v>
       </c>
       <c r="P4" t="n">
-        <v>0.877548060477198</v>
+        <v>0.0226001385094726</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.908804233764674</v>
+        <v>0.0220026216104646</v>
       </c>
       <c r="R4" t="n">
-        <v>0.936237836431014</v>
+        <v>0.020978723754971</v>
       </c>
       <c r="S4" t="n">
-        <v>0.946401930483504</v>
+        <v>0.0219193984782238</v>
       </c>
       <c r="T4" t="n">
-        <v>0.952889777243406</v>
+        <v>0.0225266725741825</v>
       </c>
       <c r="U4" t="n">
-        <v>0.984307316427504</v>
+        <v>0.023433733475893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.986278196022813</v>
+        <v>0.0248990328211924</v>
       </c>
       <c r="W4" t="n">
-        <v>1.00135607907052</v>
+        <v>0.026500634042933</v>
       </c>
       <c r="X4" t="n">
-        <v>1.00558602026034</v>
+        <v>0.027759364806421</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.0062786496678</v>
+        <v>0.0282691065525918</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.01792373138421</v>
+        <v>0.0292118475549576</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.01056352240653</v>
+        <v>0.0304495110795046</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.00571330714784</v>
+        <v>0.0311737390923678</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.00693226861854</v>
+        <v>0.029384066109529</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.02390288030953</v>
+        <v>0.0276579708324134</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.02340424632149</v>
+        <v>0.0250081179255853</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.01757779807094</v>
+        <v>0.0241768397175773</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7.4</v>
+      <c r="A5" t="s">
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22387794466674</v>
+        <v>1.33552857214105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21862511868288</v>
+        <v>1.37238002662277</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21869077349301</v>
+        <v>1.42128111007372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22768894380687</v>
+        <v>1.41133696799567</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2275694438745</v>
+        <v>1.4637608199865</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2325122696169</v>
+        <v>1.50439346719327</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2436810485109</v>
+        <v>1.61139998148989</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2451393931077</v>
+        <v>1.71005471241262</v>
       </c>
       <c r="K5" t="n">
-        <v>0.25246362121071</v>
+        <v>1.787239581708</v>
       </c>
       <c r="L5" t="n">
-        <v>0.255654358596</v>
+        <v>1.82394269276242</v>
       </c>
       <c r="M5" t="n">
-        <v>0.24796696854384</v>
+        <v>1.89577844920498</v>
       </c>
       <c r="N5" t="n">
-        <v>0.25128023645361</v>
+        <v>1.96835168158698</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2490003589164</v>
+        <v>1.98157791036679</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2588086651059</v>
+        <v>2.06701653203789</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2637648212745</v>
+        <v>2.14857484030859</v>
       </c>
       <c r="R5" t="n">
-        <v>0.261774636123</v>
+        <v>2.26358385214573</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2706979556736</v>
+        <v>2.31148537614831</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2833067614923</v>
+        <v>2.42099524086986</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745988270662</v>
+        <v>2.47385727420246</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2885626689309</v>
+        <v>2.42452618907847</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3019052139831</v>
+        <v>2.51311496912207</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3130500940476</v>
+        <v>2.53658094518465</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3140219220684</v>
+        <v>2.59176077044486</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.321182098419</v>
+        <v>2.62379308287586</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3242053603152</v>
+        <v>2.60357587550001</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3220732672248</v>
+        <v>2.61602262191674</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3358001889606</v>
+        <v>2.61096764719657</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3373580553252</v>
+        <v>2.60595292124352</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.333238861956</v>
+        <v>2.60588300465813</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.342983277350877</v>
+        <v>2.55319452622767</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>7.5</v>
+      <c r="A6" t="s">
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
-        <v>1.05759672099974</v>
+        <v>2.03976254649409</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05182669506748</v>
+        <v>2.08590741714726</v>
       </c>
       <c r="E6" t="n">
-        <v>1.05462055431666</v>
+        <v>2.15151761769233</v>
       </c>
       <c r="F6" t="n">
-        <v>1.05119770389105</v>
+        <v>2.27811572761288</v>
       </c>
       <c r="G6" t="n">
-        <v>1.06957913748096</v>
+        <v>2.29610399181622</v>
       </c>
       <c r="H6" t="n">
-        <v>1.07494830418154</v>
+        <v>2.34327507309277</v>
       </c>
       <c r="I6" t="n">
-        <v>1.09077145914147</v>
+        <v>2.46410931859771</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09148234620398</v>
+        <v>2.53152039247594</v>
       </c>
       <c r="K6" t="n">
-        <v>1.10023964086236</v>
+        <v>2.62424114439801</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1076592179547</v>
+        <v>2.6351906952226</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11973438088416</v>
+        <v>2.71867394064863</v>
       </c>
       <c r="N6" t="n">
-        <v>1.12772079667203</v>
+        <v>2.80671678562294</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14152970347074</v>
+        <v>2.88427006191944</v>
       </c>
       <c r="P6" t="n">
-        <v>1.16423510294197</v>
+        <v>3.03407454651315</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.19089214965904</v>
+        <v>3.10226378991758</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19983625356709</v>
+        <v>3.16001516735052</v>
       </c>
       <c r="S6" t="n">
-        <v>1.21046073796533</v>
+        <v>3.22227350988157</v>
       </c>
       <c r="T6" t="n">
-        <v>1.22230642789707</v>
+        <v>3.33107849080745</v>
       </c>
       <c r="U6" t="n">
-        <v>1.23917325230343</v>
+        <v>3.35903153743747</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24603384276971</v>
+        <v>3.37406557941839</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25950072252362</v>
+        <v>3.53750987451516</v>
       </c>
       <c r="X6" t="n">
-        <v>1.27203812248322</v>
+        <v>3.60893319007889</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.27907606531659</v>
+        <v>3.68619225231231</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.30468678587779</v>
+        <v>3.77072156188172</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.32399033560017</v>
+        <v>3.75331821804164</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.33347055265741</v>
+        <v>3.77966862185851</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.35484919774142</v>
+        <v>3.80572631788251</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.36755075369472</v>
+        <v>3.8361543123428</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.37145481339971</v>
+        <v>3.93675111717429</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38943225584839</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0417228438687474</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.041114960814861</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0422159545744509</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0421768815824454</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0429194967329475</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0423361848771269</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0439747433698536</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0447849483740586</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.044754935372078</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0457383998609597</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.045896350662276</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0472578757228503</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.046843320694486</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0485011524965952</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0503229436645571</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0514009025436985</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0519885181384046</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0538704099096563</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0574411052544212</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0569613655157462</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0586617183431252</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.0610759978972377</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.0612628715444118</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.0641309264034442</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.0646451667985026</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.0646317753368652</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.0655018051173702</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.0686310699028617</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.0678147635914429</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.0682785057617064</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.979180807728</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.93705854162133</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.94476376996267</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.95038710129067</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.92721480013867</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.89187336204267</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.829820287952</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.55340794822933</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.56696826829867</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.508682009712</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.05170398532267</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.88591768026667</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5.50042406870933</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5.665169111376</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5.54685124291733</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5.194334723936</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.48132627112533</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4.80616361454933</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4.97515829509867</v>
-      </c>
-      <c r="V8" t="n">
-        <v>5.86615657340267</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.33731686335467</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5.06208077041067</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5.444890438976</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>5.62006774946133</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>6.04309861895467</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>6.2484473756</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5.69877314173867</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.573991504624</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>5.69026309869867</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6.6050388476</v>
+        <v>3.89033861626895</v>
       </c>
     </row>
   </sheetData>
@@ -1514,11 +1359,1993 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00717448439438151</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00795425047144376</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0117625478145997</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0203601791380599</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0660410689393</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.082913595683</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0668002728021</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0596915452242871</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0759297036844</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0934017348282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1441304431683</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.186691075755208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.12400701329801</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02809819501803</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05406953069447</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0532778613503191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.21166324322855</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.169205957322505</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.20709737917595</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.192873434105382</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0128504290669</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.016002509731</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0188043165829292</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0192555223139106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0104346994514</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0182452548438</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0273805196485</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0283513803947743</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.25246576301314</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.26989040560789</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.257424119881157</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.281228725046447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0050838076711</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.013608014661</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0165578580651</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0241430309338817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0165868595132</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0146705184996</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0228710588521</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0361492451492367</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0939694572236208</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.116731951558499</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.146142148289114</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.193208670183264</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0643601734725</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0800322251777</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0732847909436</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0672835870968726</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.569059520364178</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.375110109207988</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.434203665809025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.553715141419159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.22428740384146</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.211863388427417</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.173997061423552</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.225797083988495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.613544015013916</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.566946176528285</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.57306911892167</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.461994667205459</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0783909438771091</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0914286522559573</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0947165747035948</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0920532975995943</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.046689958762332</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.094291997270879</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.130361562123292</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.134648386739712</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.374081881491127</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.426943398279592</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.375072913109109</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.373782772291065</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0498023490913937</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0694475439167402</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0633957279075429</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.078779380025179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.107232081658165</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.137621681095225</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.169295628366556</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.188551104917671</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00338903536262018</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.000942251235256</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00076491999683399</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0000075154212</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00009739406052</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00064982374071</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0015710400621686</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0000020920761</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00639958275713254</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.009077084609999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.00792316712071736</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.013071949273778</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.015831474456968</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0139177125378574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0237871992341186</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0337108309366679</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.074564827203941</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0849768127529948</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0972934936311822</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.165312289539716</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.221351665315118</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.219996099750201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0546313398291355</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.166720036934629</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.355637540219692</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.582100755445438</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.18537517033809</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0956156948684523</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.160244447648057</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.166276092887987</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.272824100686088</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.352088938345596</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.433886671097859</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.308153397972236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0237809119055852</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0466754691186954</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.065619137390984</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0762046469399846</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0392234598739972</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0755992822477034</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.140260602331707</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.188328670615411</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.613753734179456</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.852955902072383</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.856509785501233</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.618798105139089</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0256716225473477</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0569016367592032</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.11294024147237</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.165072559561679</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.015684274862225</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0365793906080139</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0873898542091819</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.126070926083253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0592561486666638</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.089102900529898</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.119291529791057</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.161760937046576</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.129897783627961</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.158437851609889</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.20314309143464</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.176544352095003</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0850496030040264</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.29896448350641</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.731313828805348</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.2592742304695</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.303127882444229</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.375787467881588</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.306065721553889</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.286611076372164</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.560061141143064</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.509943642597959</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.49969803916729</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.331076723297067</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0460026462925081</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0718877932912505</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.106821543737207</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.115042902438672</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0828869335106333</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.155839116501749</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.283301652163481</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.312422019026784</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.676043216355398</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.874966989866626</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.940591419514317</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.658330880891479</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0244527986619492</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0619449335840228</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.117823680681354</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.217552287519145</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0450021854739792</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.130547653663943</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.226895909943916</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.366544118756054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="n">
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.45933548371225</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.46201671373278</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.46411423377595</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.45666946519945</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.47736723792027</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.48814763277207</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.49161801935487</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.44793516194359</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.45438592487034</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.46278713184064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.4761574940428</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.4863035124547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.5175102113773</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5549201819782</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5947555171057</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.6176615791228</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.65135152162366</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.6883193419558</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.72102404502826</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.73474096881868</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.7460196593992</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.76494094739638</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.79436270915476</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.81140232820714</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.8301127895944</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2.859896251773</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.8934770531005</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.9040858208971</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.9263944815595</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.96180337932477</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.383572847364061</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.383795978256541</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.382274552513672</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.381423493556538</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.382807199299097</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.381443346461469</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.383036044598717</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.372349191527853</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.374996729636997</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.376200488838974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.37839455306519</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.376447648456337</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.380598892652708</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.381796776019359</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.382775101836781</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.385890181320798</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.391060740945522</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.393256612273342</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.39800806482296</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.399311819799809</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.401395081907014</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.400351822699294</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.4041042781333</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.406102345072752</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.410387622401279</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.414285147492653</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.418637236772873</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.419093494198307</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.421405487301627</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.426016532913334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.05534627839291</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0317234760671</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0169913913399</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.984318566024592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.971551386029115</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.971990017640001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.965753042060205</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.95656959353205</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.932883571553136</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.944176624768218</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.904318794885239</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.89236863319956</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.883249559516007</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.877548060477198</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.908804233764674</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.936237836431014</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.946401930483504</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.952889777243406</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.984307316427504</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.986278196022813</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.00135607907052</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.00558602026034</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.0062786496678</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.01792373138421</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.01056352240653</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.00571330714784</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.00693226861854</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.02390288030953</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.02340424632149</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.01757779807094</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.22387794466674</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21862511868288</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.21869077349301</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.22768894380687</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2275694438745</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2325122696169</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2436810485109</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2451393931077</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.25246362121071</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.255654358596</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.24796696854384</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.25128023645361</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.2490003589164</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2588086651059</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2637648212745</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.261774636123</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2706979556736</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2833067614923</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2745988270662</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2885626689309</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3019052139831</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3130500940476</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3140219220684</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.321182098419</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.3242053603152</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.3220732672248</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.3358001889606</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3373580553252</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.333238861956</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.342983277350877</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.05759672099974</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.05182669506748</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.05462055431666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.05119770389105</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.06957913748096</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.07494830418154</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.09077145914147</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.09148234620398</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.10023964086236</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.1076592179547</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11973438088416</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.12772079667203</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14152970347074</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.16423510294197</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.19089214965904</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.19983625356709</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.21046073796533</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.22230642789707</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.23917325230343</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.24603384276971</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.25950072252362</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.27203812248322</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.27907606531659</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.30468678587779</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.32399033560017</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.33347055265741</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.35484919774142</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.36755075369472</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.37145481339971</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.38943225584839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0417228438687474</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.041114960814861</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0422159545744509</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0421768815824454</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0429194967329475</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0423361848771269</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0439747433698536</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0447849483740586</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.044754935372078</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0457383998609597</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.045896350662276</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0472578757228503</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.046843320694486</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0485011524965952</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0503229436645571</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0514009025436985</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0519885181384046</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0538704099096563</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0574411052544212</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0569613655157462</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0586617183431252</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0610759978972377</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0612628715444118</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0641309264034442</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0646451667985026</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0646317753368652</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0655018051173702</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0686310699028617</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0678147635914429</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0682785057617064</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.979180807728</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.93705854162133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.94476376996267</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.95038710129067</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.92721480013867</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.89187336204267</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.829820287952</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.55340794822933</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.56696826829867</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.508682009712</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.05170398532267</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.88591768026667</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.50042406870933</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.665169111376</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.54685124291733</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.194334723936</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.48132627112533</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4.80616361454933</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.97515829509867</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.86615657340267</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.33731686335467</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.06208077041067</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.444890438976</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5.62006774946133</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.04309861895467</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.2484473756</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.69877314173867</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.573991504624</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.69026309869867</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.6050388476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -1544,7 +3371,7 @@
         <v>7.1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1570,7 +3397,7 @@
         <v>7.1</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -1596,7 +3423,7 @@
         <v>7.1</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -1622,7 +3449,7 @@
         <v>7.1</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -1648,7 +3475,7 @@
         <v>7.1</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -1674,7 +3501,7 @@
         <v>7.1</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -1700,7 +3527,7 @@
         <v>7.1</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -1726,7 +3553,7 @@
         <v>7.1</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -1752,7 +3579,7 @@
         <v>7.1</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -1778,7 +3605,7 @@
         <v>7.2</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -1804,7 +3631,7 @@
         <v>7.2</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -1830,7 +3657,7 @@
         <v>7.2</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -1856,7 +3683,7 @@
         <v>7.2</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1882,7 +3709,7 @@
         <v>7.2</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -1908,7 +3735,7 @@
         <v>7.2</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1934,7 +3761,7 @@
         <v>7.2</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -1960,7 +3787,7 @@
         <v>7.2</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -1986,7 +3813,7 @@
         <v>7.2</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -2012,7 +3839,7 @@
         <v>7.2</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
@@ -2038,7 +3865,7 @@
         <v>7.3</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -2064,7 +3891,7 @@
         <v>7.3</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -2090,7 +3917,7 @@
         <v>7.3</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
@@ -2116,7 +3943,7 @@
         <v>7.3</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -2142,7 +3969,7 @@
         <v>7.3</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -2168,7 +3995,7 @@
         <v>7.3</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
@@ -2194,7 +4021,7 @@
         <v>7.3</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -2220,7 +4047,7 @@
         <v>7.3</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -2246,7 +4073,7 @@
         <v>7.3</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -2272,7 +4099,7 @@
         <v>7.3</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -2298,7 +4125,7 @@
         <v>7.4</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -2324,7 +4151,7 @@
         <v>7.4</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -2350,7 +4177,7 @@
         <v>7.4</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -2376,7 +4203,7 @@
         <v>7.4</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
@@ -2402,7 +4229,7 @@
         <v>7.4</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
@@ -2428,7 +4255,7 @@
         <v>7.4</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -2454,7 +4281,7 @@
         <v>7.4</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
         <v>58</v>
@@ -2480,7 +4307,7 @@
         <v>7.4</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
@@ -2506,7 +4333,7 @@
         <v>7.4</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -2532,7 +4359,7 @@
         <v>7.4</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
@@ -2558,7 +4385,7 @@
         <v>7.5</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2584,7 +4411,7 @@
         <v>7.5</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2610,7 +4437,7 @@
         <v>7.5</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
@@ -2636,7 +4463,7 @@
         <v>7.5</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
@@ -2662,7 +4489,7 @@
         <v>7.5</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
@@ -2688,7 +4515,7 @@
         <v>7.5</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
@@ -2714,7 +4541,7 @@
         <v>7.5</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
@@ -2740,7 +4567,7 @@
         <v>7.5</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -2766,7 +4593,7 @@
         <v>7.5</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
@@ -2792,7 +4619,7 @@
         <v>7.5</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -2818,7 +4645,7 @@
         <v>7.6</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
@@ -2844,7 +4671,7 @@
         <v>7.6</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -2870,7 +4697,7 @@
         <v>7.6</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
@@ -2896,7 +4723,7 @@
         <v>7.6</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
@@ -2922,7 +4749,7 @@
         <v>7.6</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
         <v>55</v>
@@ -2948,7 +4775,7 @@
         <v>7.6</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
         <v>56</v>
@@ -2974,7 +4801,7 @@
         <v>7.6</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -3000,7 +4827,7 @@
         <v>7.6</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
@@ -3026,7 +4853,7 @@
         <v>7.6</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -3052,7 +4879,7 @@
         <v>7.6</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -3078,7 +4905,7 @@
         <v>7.7</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -3104,7 +4931,7 @@
         <v>7.7</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -3130,7 +4957,7 @@
         <v>7.7</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
         <v>52</v>
@@ -3156,7 +4983,7 @@
         <v>7.7</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
         <v>54</v>
@@ -3182,7 +5009,7 @@
         <v>7.7</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
@@ -3208,7 +5035,7 @@
         <v>7.7</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>56</v>
@@ -3234,7 +5061,7 @@
         <v>7.7</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
         <v>58</v>
@@ -3260,7 +5087,7 @@
         <v>7.7</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
         <v>60</v>
@@ -3286,7 +5113,7 @@
         <v>7.7</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
@@ -3312,7 +5139,7 @@
         <v>7.7</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
         <v>64</v>
@@ -8185,93 +10012,95 @@
         <v>77</v>
       </c>
       <c r="C7" t="n">
-        <v>3.41669001758699</v>
+        <v>3.41792219246121</v>
       </c>
       <c r="D7" t="n">
-        <v>3.45676897420825</v>
+        <v>3.45757607616662</v>
       </c>
       <c r="E7" t="n">
-        <v>3.46376191806886</v>
+        <v>3.46404686352742</v>
       </c>
       <c r="F7" t="n">
-        <v>3.40929715799476</v>
+        <v>3.40989462421133</v>
       </c>
       <c r="G7" t="n">
-        <v>3.38776190194227</v>
+        <v>3.38842794888812</v>
       </c>
       <c r="H7" t="n">
-        <v>3.44423011306117</v>
+        <v>3.44465325656433</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5490040177329</v>
+        <v>3.54997776316347</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5905025425201</v>
+        <v>3.59071346653267</v>
       </c>
       <c r="K7" t="n">
-        <v>3.59401337352277</v>
+        <v>3.59483638138928</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6271261409945</v>
+        <v>3.62816531258544</v>
       </c>
       <c r="M7" t="n">
-        <v>3.86967360557024</v>
+        <v>3.87142624509067</v>
       </c>
       <c r="N7" t="n">
-        <v>3.89894702026822</v>
+        <v>3.90060125396769</v>
       </c>
       <c r="O7" t="n">
-        <v>3.89589033212267</v>
+        <v>3.89776293605283</v>
       </c>
       <c r="P7" t="n">
-        <v>4.17355271320558</v>
+        <v>4.17667050926456</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.3721297116664</v>
+        <v>4.37480669892437</v>
       </c>
       <c r="R7" t="n">
-        <v>4.53543598229857</v>
+        <v>4.53606719676809</v>
       </c>
       <c r="S7" t="n">
-        <v>4.83379328059141</v>
+        <v>4.83288368326754</v>
       </c>
       <c r="T7" t="n">
-        <v>5.09825586069203</v>
+        <v>5.09771016011113</v>
       </c>
       <c r="U7" t="n">
-        <v>5.01657268109001</v>
+        <v>5.01702444555554</v>
       </c>
       <c r="V7" t="n">
-        <v>4.86900736200993</v>
+        <v>4.87148649049973</v>
       </c>
       <c r="W7" t="n">
-        <v>5.34541635611833</v>
+        <v>5.34738545899502</v>
       </c>
       <c r="X7" t="n">
-        <v>5.75037923859227</v>
+        <v>5.75055089176297</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.8726591582406</v>
+        <v>5.87309593487977</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.96795026533967</v>
+        <v>5.96925689083642</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.93366173954319</v>
+        <v>6.00250317716586</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.76586778311346</v>
+        <v>5.77902641896457</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.7444144806862</v>
+        <v>5.76293808129366</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.81830584576587</v>
+        <v>5.88611232154201</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.97618454989376</v>
-      </c>
-      <c r="AF7"/>
+        <v>5.99250445331019</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5.91220343950393</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9627,15 +11456,17 @@
         <v>49</v>
       </c>
       <c r="E52" t="n">
-        <v>0.113938363137148</v>
+        <v>0.113958891830143</v>
       </c>
       <c r="F52" t="n">
-        <v>0.136411174643877</v>
+        <v>0.135976301511597</v>
       </c>
       <c r="G52" t="n">
-        <v>0.193317234213058</v>
-      </c>
-      <c r="H52"/>
+        <v>0.192771240768272</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.197285290570162</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -9651,15 +11482,17 @@
         <v>51</v>
       </c>
       <c r="E53" t="n">
-        <v>0.272132279652648</v>
+        <v>0.271043503576372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.259862586302268</v>
+        <v>0.259386917983712</v>
       </c>
       <c r="G53" t="n">
-        <v>0.261751567228312</v>
-      </c>
-      <c r="H53"/>
+        <v>0.261568708988904</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.238039986328131</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -9675,15 +11508,17 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.514027416988254</v>
+        <v>0.514358541160338</v>
       </c>
       <c r="F54" t="n">
-        <v>1.02414491923078</v>
+        <v>1.02360539215416</v>
       </c>
       <c r="G54" t="n">
-        <v>2.49578295954892</v>
-      </c>
-      <c r="H54"/>
+        <v>2.50008537916415</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.2063601988074</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -9699,15 +11534,17 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>0.682768661911839</v>
+        <v>0.684601916089539</v>
       </c>
       <c r="F55" t="n">
-        <v>0.405615331250279</v>
+        <v>0.406787753581197</v>
       </c>
       <c r="G55" t="n">
-        <v>0.394081554083868</v>
-      </c>
-      <c r="H55"/>
+        <v>0.395469498246991</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.347239741606149</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -9723,15 +11560,17 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>0.903744247494496</v>
+        <v>0.903681814089596</v>
       </c>
       <c r="F56" t="n">
-        <v>0.647603384392035</v>
+        <v>0.647461398947509</v>
       </c>
       <c r="G56" t="n">
-        <v>0.592983851729057</v>
-      </c>
-      <c r="H56"/>
+        <v>0.591203083672208</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.435849101101599</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -9747,15 +11586,17 @@
         <v>57</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0805973584994654</v>
+        <v>0.0807928046106435</v>
       </c>
       <c r="F57" t="n">
-        <v>0.136475302124244</v>
+        <v>0.136935108765845</v>
       </c>
       <c r="G57" t="n">
-        <v>0.179373135660304</v>
-      </c>
-      <c r="H57"/>
+        <v>0.180995142777548</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.174769645383652</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -9771,15 +11612,17 @@
         <v>59</v>
       </c>
       <c r="E58" t="n">
-        <v>0.038945367261123</v>
+        <v>0.0389489383551948</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0760341498861561</v>
+        <v>0.0776824234748245</v>
       </c>
       <c r="G58" t="n">
-        <v>0.131295641535181</v>
-      </c>
-      <c r="H58"/>
+        <v>0.128429837587348</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.147940268791558</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9795,15 +11638,17 @@
         <v>61</v>
       </c>
       <c r="E59" t="n">
-        <v>0.64504502769182</v>
+        <v>0.645086600550955</v>
       </c>
       <c r="F59" t="n">
-        <v>0.873715878175355</v>
+        <v>0.873624693777478</v>
       </c>
       <c r="G59" t="n">
-        <v>0.553906466109349</v>
-      </c>
-      <c r="H59"/>
+        <v>0.554238523420532</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.354218526374449</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9819,15 +11664,17 @@
         <v>63</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0469851911638804</v>
+        <v>0.0470993661974234</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0967783877931061</v>
+        <v>0.0965519906916637</v>
       </c>
       <c r="G60" t="n">
-        <v>0.168190969859239</v>
-      </c>
-      <c r="H60"/>
+        <v>0.167840766503536</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.303732036928939</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9843,15 +11690,17 @@
         <v>65</v>
       </c>
       <c r="E61" t="n">
-        <v>0.115878527237639</v>
+        <v>0.115887175986309</v>
       </c>
       <c r="F61" t="n">
-        <v>0.213012451934531</v>
+        <v>0.213721843959272</v>
       </c>
       <c r="G61" t="n">
-        <v>0.375378062514763</v>
-      </c>
-      <c r="H61"/>
+        <v>0.375741949213345</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.508529709310321</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10659,93 +12508,95 @@
         <v>77</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0886062798009365</v>
+        <v>0.0886853449007034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0896939018311919</v>
+        <v>0.0897903217915766</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0882710614465292</v>
+        <v>0.0883725992530632</v>
       </c>
       <c r="F9" t="n">
-        <v>0.099056765295856</v>
+        <v>0.0991488651839166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105745091564769</v>
+        <v>0.105858329202258</v>
       </c>
       <c r="H9" t="n">
-        <v>0.103903760608469</v>
+        <v>0.10403451252605</v>
       </c>
       <c r="I9" t="n">
-        <v>0.114535127578119</v>
+        <v>0.114687751656906</v>
       </c>
       <c r="J9" t="n">
-        <v>0.109656158646305</v>
+        <v>0.109743060391944</v>
       </c>
       <c r="K9" t="n">
-        <v>0.106776794320295</v>
+        <v>0.106845995656227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.108316463937004</v>
+        <v>0.108417029048586</v>
       </c>
       <c r="M9" t="n">
-        <v>0.115417906662685</v>
+        <v>0.11548557243016</v>
       </c>
       <c r="N9" t="n">
-        <v>0.11685519397752</v>
+        <v>0.116930219439312</v>
       </c>
       <c r="O9" t="n">
-        <v>0.124837043894704</v>
+        <v>0.124902769106974</v>
       </c>
       <c r="P9" t="n">
-        <v>0.137939814513159</v>
+        <v>0.1379554419719</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.14366383564934</v>
+        <v>0.143642395181647</v>
       </c>
       <c r="R9" t="n">
-        <v>0.144281721275816</v>
+        <v>0.144294496063851</v>
       </c>
       <c r="S9" t="n">
-        <v>0.151522518107678</v>
+        <v>0.151517498423984</v>
       </c>
       <c r="T9" t="n">
-        <v>0.156451637452382</v>
+        <v>0.156472827256572</v>
       </c>
       <c r="U9" t="n">
-        <v>0.156144555678002</v>
+        <v>0.1561546758553</v>
       </c>
       <c r="V9" t="n">
-        <v>0.156053215250889</v>
+        <v>0.156358345629016</v>
       </c>
       <c r="W9" t="n">
-        <v>0.167440588769771</v>
+        <v>0.167792136604479</v>
       </c>
       <c r="X9" t="n">
-        <v>0.182564717559806</v>
+        <v>0.182935144971207</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.187146647384374</v>
+        <v>0.187689989328915</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.19146530653241</v>
+        <v>0.192161923210904</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.186793074005122</v>
+        <v>0.186326717280975</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.189073333882637</v>
+        <v>0.189976872010531</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.191050180667319</v>
+        <v>0.192803908949096</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.204410618699142</v>
+        <v>0.204829114754359</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.211853742330227</v>
-      </c>
-      <c r="AF9"/>
+        <v>0.216505168803967</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.223253515355727</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12127,15 +13978,17 @@
         <v>49</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004439663802929</v>
+        <v>0.00443995682455102</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00414237279804412</v>
+        <v>0.00414300643617234</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00422263233572844</v>
-      </c>
-      <c r="H53"/>
+        <v>0.00428454963748211</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.00476824503116521</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12151,15 +14004,17 @@
         <v>51</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0104781216717666</v>
+        <v>0.0104398452536671</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0101327373134555</v>
+        <v>0.0101256453186241</v>
       </c>
       <c r="G54" t="n">
-        <v>0.010953198472917</v>
-      </c>
-      <c r="H54"/>
+        <v>0.0109547612847389</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0119805986179793</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12175,15 +14030,17 @@
         <v>53</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00825134417291999</v>
+        <v>0.00825290785686212</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0205273642725314</v>
+        <v>0.0205088233619523</v>
       </c>
       <c r="G55" t="n">
-        <v>0.061218468213415</v>
-      </c>
-      <c r="H55"/>
+        <v>0.0615472768395807</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.118879856828135</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12199,15 +14056,17 @@
         <v>54</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0238333000049506</v>
+        <v>0.0238358736896113</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0321929971362796</v>
+        <v>0.0321886723766916</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0403131298347068</v>
-      </c>
-      <c r="H56"/>
+        <v>0.0403245543171784</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.03874069539363</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12223,15 +14082,17 @@
         <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0295880488592229</v>
+        <v>0.0295966539067285</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0314821531542541</v>
+        <v>0.0314799575487435</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0267432423941939</v>
-      </c>
-      <c r="H57"/>
+        <v>0.0266977312009837</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0197109255286363</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12247,15 +14108,17 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00114377669840296</v>
+        <v>0.00114372086360974</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00155882543438251</v>
+        <v>0.00155899971545634</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00197235816552877</v>
-      </c>
-      <c r="H58"/>
+        <v>0.00196429669577553</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.00219924382053142</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -12271,15 +14134,17 @@
         <v>61</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00361917150669259</v>
+        <v>0.00361941037511874</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00430656110341844</v>
+        <v>0.00430611659222553</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00470020157706697</v>
-      </c>
-      <c r="H59"/>
+        <v>0.00470301074814935</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.00680287365524965</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -12295,15 +14160,17 @@
         <v>63</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000198302128773191</v>
+        <v>0.000297381190656857</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000344552072386849</v>
+        <v>0.000405542183586099</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00146132076288643</v>
-      </c>
-      <c r="H60"/>
+        <v>0.00145360514101307</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.00212950126643388</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -12319,15 +14186,17 @@
         <v>65</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00421252752092204</v>
+        <v>0.00421280555135448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0102583928750111</v>
+        <v>0.0102873906861264</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0145319999666626</v>
-      </c>
-      <c r="H61"/>
+        <v>0.014546708378107</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0170438322866763</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -7571,94 +7571,94 @@
         <v>68</v>
       </c>
       <c r="C4" t="n">
-        <v>0.992480540305326</v>
+        <v>0.910445857038311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.947993354663131</v>
+        <v>0.866222402241833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.912077868505773</v>
+        <v>0.83107656055801</v>
       </c>
       <c r="F4" t="n">
-        <v>0.871295200331357</v>
+        <v>0.790139473808134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.847836395471499</v>
+        <v>0.765832292250271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.873736938763881</v>
+        <v>0.792121403807506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.856679292975006</v>
+        <v>0.775367906542099</v>
       </c>
       <c r="J4" t="n">
-        <v>0.858520982412532</v>
+        <v>0.777617083141319</v>
       </c>
       <c r="K4" t="n">
-        <v>0.831326911049132</v>
+        <v>0.749991651391344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.829376172110714</v>
+        <v>0.746351170283957</v>
       </c>
       <c r="M4" t="n">
-        <v>0.847857352428721</v>
+        <v>0.760816191810768</v>
       </c>
       <c r="N4" t="n">
-        <v>0.854263625967789</v>
+        <v>0.766530738791838</v>
       </c>
       <c r="O4" t="n">
-        <v>0.859615865932882</v>
+        <v>0.768485790088075</v>
       </c>
       <c r="P4" t="n">
-        <v>0.941183285055023</v>
+        <v>0.846568916925939</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02616628169499</v>
+        <v>0.926623475343795</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1178876843208</v>
+        <v>1.01443223904136</v>
       </c>
       <c r="S4" t="n">
-        <v>1.17591588578012</v>
+        <v>1.07099417327693</v>
       </c>
       <c r="T4" t="n">
-        <v>1.21677848391156</v>
+        <v>1.10563076883242</v>
       </c>
       <c r="U4" t="n">
-        <v>1.22193234188487</v>
+        <v>1.11012492014128</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21615538687521</v>
+        <v>1.11066820853199</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26226197515101</v>
+        <v>1.1501921545193</v>
       </c>
       <c r="X4" t="n">
-        <v>1.37226545641135</v>
+        <v>1.25752239391046</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.41650110137182</v>
+        <v>1.29104552169605</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.39082280677106</v>
+        <v>1.26516670837769</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.41487697244333</v>
+        <v>1.28842050831847</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.38216029708964</v>
+        <v>1.2549114221123</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.32906166159289</v>
+        <v>1.20220389615888</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.38029681419526</v>
+        <v>1.25157759651726</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.36541584199428</v>
+        <v>1.23708579878687</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.40907144641008</v>
+        <v>1.27885470039701</v>
       </c>
     </row>
     <row r="5">
@@ -7767,94 +7767,94 @@
         <v>70</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06120835229185</v>
+        <v>1.14324303555886</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0826736525104</v>
+        <v>1.1644446049317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.982255047374995</v>
+        <v>1.06325635532276</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0189080213092</v>
+        <v>1.10006374783242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.996671023383386</v>
+        <v>1.07867512660461</v>
       </c>
       <c r="H6" t="n">
-        <v>0.943443157349814</v>
+        <v>1.02505869230619</v>
       </c>
       <c r="I6" t="n">
-        <v>0.902030490324802</v>
+        <v>0.983341876757709</v>
       </c>
       <c r="J6" t="n">
-        <v>0.948778653547157</v>
+        <v>1.02968255281837</v>
       </c>
       <c r="K6" t="n">
-        <v>0.947788804808143</v>
+        <v>1.02912406446593</v>
       </c>
       <c r="L6" t="n">
-        <v>0.945613091837916</v>
+        <v>1.02863809366467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.942031573651345</v>
+        <v>1.0290727342693</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01167878550161</v>
+        <v>1.09941167267756</v>
       </c>
       <c r="O6" t="n">
-        <v>1.10161753787971</v>
+        <v>1.19274761372452</v>
       </c>
       <c r="P6" t="n">
-        <v>1.17321366921616</v>
+        <v>1.26782803734525</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1893595389593</v>
+        <v>1.28890234531049</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21558638525065</v>
+        <v>1.31904183053008</v>
       </c>
       <c r="S6" t="n">
-        <v>1.2310455076955</v>
+        <v>1.3359672201987</v>
       </c>
       <c r="T6" t="n">
-        <v>1.3040538268144</v>
+        <v>1.41520154189355</v>
       </c>
       <c r="U6" t="n">
-        <v>1.31624670019439</v>
+        <v>1.42805412193798</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34455694136105</v>
+        <v>1.45004411970427</v>
       </c>
       <c r="W6" t="n">
-        <v>1.39360390971536</v>
+        <v>1.50567373034707</v>
       </c>
       <c r="X6" t="n">
-        <v>1.40924690991148</v>
+        <v>1.52398997241236</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.45723459765316</v>
+        <v>1.58269017732894</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.49907808941036</v>
+        <v>1.62473418780372</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.48711974403407</v>
+        <v>1.61357620815893</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.46916323969092</v>
+        <v>1.59641211466826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.43636565274687</v>
+        <v>1.56322341818088</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.43720958045717</v>
+        <v>1.56592879813517</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.45352021833249</v>
+        <v>1.58185026153989</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.48203434437023</v>
+        <v>1.6122510903833</v>
       </c>
     </row>
   </sheetData>
@@ -8431,16 +8431,16 @@
         <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>0.112966454724588</v>
+        <v>0.08269318434021</v>
       </c>
       <c r="F22" t="n">
-        <v>0.124095575246851</v>
+        <v>0.081442800091096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.114670169653931</v>
+        <v>0.055559086666728</v>
       </c>
       <c r="H22" t="n">
-        <v>0.144304492833265</v>
+        <v>0.0591117979111864</v>
       </c>
     </row>
     <row r="23">
@@ -8457,16 +8457,16 @@
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0254699478498032</v>
+        <v>0.0254018160165032</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0277990793796426</v>
+        <v>0.0277515119280426</v>
       </c>
       <c r="G23" t="n">
-        <v>0.040494099259493</v>
+        <v>0.040467621796793</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0274199420371744</v>
+        <v>0.0273966729684244</v>
       </c>
     </row>
     <row r="24">
@@ -8483,16 +8483,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>0.266956509228454</v>
+        <v>0.2666567401912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.312970351438221</v>
+        <v>0.312541894758</v>
       </c>
       <c r="G24" t="n">
-        <v>0.658647093394969</v>
+        <v>0.658156165852</v>
       </c>
       <c r="H24" t="n">
-        <v>0.756123480032819</v>
+        <v>0.755616607124933</v>
       </c>
     </row>
     <row r="25">
@@ -8512,13 +8512,13 @@
         <v>0.141747170314948</v>
       </c>
       <c r="F25" t="n">
-        <v>0.070680783708186</v>
+        <v>0.070675523218986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.090204762938604</v>
+        <v>0.090194326806804</v>
       </c>
       <c r="H25" t="n">
-        <v>0.120502896454397</v>
+        <v>0.120193700122839</v>
       </c>
     </row>
     <row r="26">
@@ -8535,16 +8535,16 @@
         <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>0.213056782832892</v>
+        <v>0.212877658468992</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08939864290643</v>
+        <v>0.08920032503183</v>
       </c>
       <c r="G26" t="n">
-        <v>0.063780022664096</v>
+        <v>0.063278299987196</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0382761599411525</v>
+        <v>0.0372125399992822</v>
       </c>
     </row>
     <row r="27">
@@ -8561,16 +8561,16 @@
         <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0277072860564358</v>
+        <v>0.00617440266454</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0282738970786462</v>
+        <v>0.009777456613046</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0306979116357972</v>
+        <v>0.00986311036822</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0266647359485436</v>
+        <v>0.00961755158837266</v>
       </c>
     </row>
     <row r="28">
@@ -8587,16 +8587,16 @@
         <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0006656437088</v>
+        <v>0.000378183428</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000758556455</v>
+        <v>0.000515470946</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0007463806402</v>
+        <v>0.000492943846</v>
       </c>
       <c r="H28" t="n">
-        <v>0.000841607084888277</v>
+        <v>0.000464905817252032</v>
       </c>
     </row>
     <row r="29">
@@ -8613,16 +8613,16 @@
         <v>61</v>
       </c>
       <c r="E29" t="n">
-        <v>0.143846536318385</v>
+        <v>0.143827956008</v>
       </c>
       <c r="F29" t="n">
-        <v>0.11053539645744</v>
+        <v>0.110508866184</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08733845002224</v>
+        <v>0.087297988866</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0541264330257755</v>
+        <v>0.0541153915269845</v>
       </c>
     </row>
     <row r="30">
@@ -8639,16 +8639,16 @@
         <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0275053105749239</v>
+        <v>0.00478789484537782</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0383688195390478</v>
+        <v>0.0216303989048128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.106146583680362</v>
+        <v>0.085327807863139</v>
       </c>
       <c r="H30" t="n">
-        <v>0.192826944231984</v>
+        <v>0.175823223860608</v>
       </c>
     </row>
     <row r="31">
@@ -8665,16 +8665,16 @@
         <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>0.032558898696096</v>
+        <v>0.02590085076054</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0449762502192563</v>
+        <v>0.0367719441349544</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0695365012613133</v>
+        <v>0.05955480246642</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0479847548200816</v>
+        <v>0.0393023094771264</v>
       </c>
     </row>
     <row r="32">
@@ -8951,16 +8951,16 @@
         <v>49</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0346443769023154</v>
+        <v>0.0649176472866934</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0461189241906805</v>
+        <v>0.0887716993464355</v>
       </c>
       <c r="G42" t="n">
-        <v>0.124261296230054</v>
+        <v>0.183372379217257</v>
       </c>
       <c r="H42" t="n">
-        <v>0.128224971809381</v>
+        <v>0.21341766673146</v>
       </c>
     </row>
     <row r="43">
@@ -8977,16 +8977,16 @@
         <v>51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0155676931152</v>
+        <v>0.0156358249485</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0208741330809</v>
+        <v>0.0209217005325</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0249395274554</v>
+        <v>0.0249660049181</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0359413641576725</v>
+        <v>0.0359646332264225</v>
       </c>
     </row>
     <row r="44">
@@ -9003,16 +9003,16 @@
         <v>53</v>
       </c>
       <c r="E44" t="n">
-        <v>0.235827304756813</v>
+        <v>0.236127073794066</v>
       </c>
       <c r="F44" t="n">
-        <v>0.256922132200839</v>
+        <v>0.25735058888106</v>
       </c>
       <c r="G44" t="n">
-        <v>0.45664948351633</v>
+        <v>0.457140411059299</v>
       </c>
       <c r="H44" t="n">
-        <v>0.459402261798847</v>
+        <v>0.459909134706734</v>
       </c>
     </row>
     <row r="45">
@@ -9032,13 +9032,13 @@
         <v>0.249425705587345</v>
       </c>
       <c r="F45" t="n">
-        <v>0.090274145162653</v>
+        <v>0.090279405651853</v>
       </c>
       <c r="G45" t="n">
-        <v>0.127296023294797</v>
+        <v>0.127306459426597</v>
       </c>
       <c r="H45" t="n">
-        <v>0.11891789066183</v>
+        <v>0.119227086993387</v>
       </c>
     </row>
     <row r="46">
@@ -9055,16 +9055,16 @@
         <v>55</v>
       </c>
       <c r="E46" t="n">
-        <v>0.142213448003611</v>
+        <v>0.142392572367511</v>
       </c>
       <c r="F46" t="n">
-        <v>0.107579923720944</v>
+        <v>0.107778241595544</v>
       </c>
       <c r="G46" t="n">
-        <v>0.090611312124397</v>
+        <v>0.091113034801297</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0750408087076214</v>
+        <v>0.0761044286494917</v>
       </c>
     </row>
     <row r="47">
@@ -9081,16 +9081,16 @@
         <v>57</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0548453424497454</v>
+        <v>0.0763782258416412</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0788878141252135</v>
+        <v>0.0973842545908138</v>
       </c>
       <c r="G47" t="n">
-        <v>0.105727160220868</v>
+        <v>0.126561961488446</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09416615669154</v>
+        <v>0.111213341051711</v>
       </c>
     </row>
     <row r="48">
@@ -9107,16 +9107,16 @@
         <v>59</v>
       </c>
       <c r="E48" t="n">
-        <v>0.029093183663941</v>
+        <v>0.029380643944741</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05191082407392</v>
+        <v>0.05215390958292</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08767070603565</v>
+        <v>0.08792414282985</v>
       </c>
       <c r="H48" t="n">
-        <v>0.133622410575463</v>
+        <v>0.133999111843099</v>
       </c>
     </row>
     <row r="49">
@@ -9133,16 +9133,16 @@
         <v>61</v>
       </c>
       <c r="E49" t="n">
-        <v>0.193734925841839</v>
+        <v>0.193753506152224</v>
       </c>
       <c r="F49" t="n">
-        <v>0.156992116302219</v>
+        <v>0.157018646575659</v>
       </c>
       <c r="G49" t="n">
-        <v>0.205966059951091</v>
+        <v>0.206006521107331</v>
       </c>
       <c r="H49" t="n">
-        <v>0.269006739031722</v>
+        <v>0.269017780530513</v>
       </c>
     </row>
     <row r="50">
@@ -9159,16 +9159,16 @@
         <v>63</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0356071922276009</v>
+        <v>0.058324607957147</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0550158502009235</v>
+        <v>0.0717542708351585</v>
       </c>
       <c r="G50" t="n">
-        <v>0.064946116559347</v>
+        <v>0.0857648923765699</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0555568520307628</v>
+        <v>0.0725605724021392</v>
       </c>
     </row>
     <row r="51">
@@ -9185,16 +9185,16 @@
         <v>65</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0571656801597373</v>
+        <v>0.0638237280952933</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0600003388046526</v>
+        <v>0.0682046448889545</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0824411040155257</v>
+        <v>0.092422802810419</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0861942362341462</v>
+        <v>0.0948766815771014</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-24</t>
+    <t xml:space="preserve">2021-09-25</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Total trend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Total regions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Energy systems trend" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Energy systems regions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Industry trend" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Industry regions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Transport trend" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Transport regions" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Buildings trend" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Buildings regions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="AFOLU trend" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="AFOLU regions" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Total panel a" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Total panel b" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Energy systems panel a" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Energy systems panel b" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Industry panel a" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Industry panel b" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Transport panel a" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Transport panel b" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Buildings panel a" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Buildings panel b" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="AFOLU panel a" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="AFOLU panel b" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-25</t>
+    <t xml:space="preserve">2021-09-27</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">tCO2eq</t>
+    <t xml:space="preserve">GtCO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">Biomass burning (CO2, CH4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Land-use (CO2)</t>
+    <t xml:space="preserve">LULUCF (CO2)</t>
   </si>
 </sst>
 </file>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-28</t>
+    <t xml:space="preserve">2021-10-04</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">Managed soils and pasture (CO2, N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass burning (CO2, CH4)</t>
+    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
   </si>
   <si>
     <t xml:space="preserve">LULUCF (CO2)</t>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-04</t>
+    <t xml:space="preserve">2021-10-12</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
@@ -3312,94 +3312,94 @@
         <v>103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22387794466674</v>
+        <v>0.30638606854674</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21862511868288</v>
+        <v>0.30283195940088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21869077349301</v>
+        <v>0.30455784842301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22768894380687</v>
+        <v>0.30348332883687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2275694438745</v>
+        <v>0.3082887041325</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2325122696169</v>
+        <v>0.3330466855989</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2436810485109</v>
+        <v>0.3506330229129</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2451393931077</v>
+        <v>0.3423706832637</v>
       </c>
       <c r="K5" t="n">
-        <v>0.25246362121071</v>
+        <v>0.34928288611671</v>
       </c>
       <c r="L5" t="n">
-        <v>0.255654358596</v>
+        <v>0.358012107726</v>
       </c>
       <c r="M5" t="n">
-        <v>0.24796696854384</v>
+        <v>0.34543395543384</v>
       </c>
       <c r="N5" t="n">
-        <v>0.25128023645361</v>
+        <v>0.34863582296361</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2490003589164</v>
+        <v>0.3605639738064</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2588086651059</v>
+        <v>0.3663912984459</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2637648212745</v>
+        <v>0.3794382382245</v>
       </c>
       <c r="R5" t="n">
-        <v>0.261774636123</v>
+        <v>0.379736253624</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2706979556736</v>
+        <v>0.4005311616306</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2833067614923</v>
+        <v>0.4080500566233</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745988270662</v>
+        <v>0.3919993894362</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2885626689309</v>
+        <v>0.4198586462889</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3019052139831</v>
+        <v>0.4207477921101</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3130500940476</v>
+        <v>0.4439236228518</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3140219220684</v>
+        <v>0.4475693288976</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.321182098419</v>
+        <v>0.4570178713464</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3242053603152</v>
+        <v>0.4435977888342</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3220732672248</v>
+        <v>0.4477936967868</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3358001889606</v>
+        <v>0.4495787401014</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3373580553252</v>
+        <v>0.4428080918352</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.333238861956</v>
+        <v>0.4332624526776</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.342983277350877</v>
+        <v>0.443006868072477</v>
       </c>
     </row>
     <row r="6">
@@ -3410,94 +3410,94 @@
         <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>1.08080102056874</v>
+        <v>1.10645253736874</v>
       </c>
       <c r="D6" t="n">
-        <v>1.07532265934948</v>
+        <v>1.10139831713948</v>
       </c>
       <c r="E6" t="n">
-        <v>1.07952878820166</v>
+        <v>1.10635029564166</v>
       </c>
       <c r="F6" t="n">
-        <v>1.07545695563005</v>
+        <v>1.09894591931005</v>
       </c>
       <c r="G6" t="n">
-        <v>1.09486226159896</v>
+        <v>1.11976771580896</v>
       </c>
       <c r="H6" t="n">
-        <v>1.10324397402454</v>
+        <v>1.13469014241454</v>
       </c>
       <c r="I6" t="n">
-        <v>1.12116650379547</v>
+        <v>1.15467273837547</v>
       </c>
       <c r="J6" t="n">
-        <v>1.12225389457698</v>
+        <v>1.15306136581698</v>
       </c>
       <c r="K6" t="n">
-        <v>1.13273029335676</v>
+        <v>1.16362300065676</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1418991764217</v>
+        <v>1.1748601644817</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15337447374116</v>
+        <v>1.18464553720116</v>
       </c>
       <c r="N6" t="n">
-        <v>1.16204580506463</v>
+        <v>1.19353346945463</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17789570602134</v>
+        <v>1.21397172782134</v>
       </c>
       <c r="P6" t="n">
-        <v>1.20118469056397</v>
+        <v>1.23602400052397</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.22975614992004</v>
+        <v>1.26740421219004</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23464323209569</v>
+        <v>1.26910873134569</v>
       </c>
       <c r="S6" t="n">
-        <v>1.24728192918433</v>
+        <v>1.28521996932433</v>
       </c>
       <c r="T6" t="n">
-        <v>1.25942459379707</v>
+        <v>1.29549697923707</v>
       </c>
       <c r="U6" t="n">
-        <v>1.27640694714743</v>
+        <v>1.31041312662743</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28539528196051</v>
+        <v>1.32340031903051</v>
       </c>
       <c r="W6" t="n">
-        <v>1.29883429958262</v>
+        <v>1.33279776548262</v>
       </c>
       <c r="X6" t="n">
-        <v>1.31414138672622</v>
+        <v>1.35182045633622</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.32174520853949</v>
+        <v>1.36005030536949</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.34919279186799</v>
+        <v>1.38807320616799</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.3668231630047</v>
+        <v>1.4003305059647</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.37761700786491</v>
+        <v>1.41339551426491</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.39866250188532</v>
+        <v>1.42949737686532</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.41070755682062</v>
+        <v>1.43907724726062</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.41255811088361</v>
+        <v>1.43853452498361</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42975708637025</v>
+        <v>1.45580903462043</v>
       </c>
     </row>
     <row r="7">
@@ -4582,16 +4582,16 @@
         <v>53</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0063731087784</v>
+        <v>0.0888812326584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003674317374</v>
+        <v>0.101141304264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0026944983156</v>
+        <v>0.1215370764426</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0027043661736</v>
+        <v>0.1027279568952</v>
       </c>
     </row>
     <row r="35">
@@ -4842,16 +4842,16 @@
         <v>53</v>
       </c>
       <c r="E44" t="n">
-        <v>0.124395194174815</v>
+        <v>0.150046710974815</v>
       </c>
       <c r="F44" t="n">
-        <v>0.150585714355569</v>
+        <v>0.181856777815569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.146106651639388</v>
+        <v>0.180070117539388</v>
       </c>
       <c r="H44" t="n">
-        <v>0.145046011071488</v>
+        <v>0.171097959321671</v>
       </c>
     </row>
     <row r="45">
@@ -5616,16 +5616,16 @@
         <v>53</v>
       </c>
       <c r="E74" t="n">
-        <v>1.27265647045264</v>
+        <v>1.38081611113264</v>
       </c>
       <c r="F74" t="n">
-        <v>1.01412640066455</v>
+        <v>1.14286445101455</v>
       </c>
       <c r="G74" t="n">
-        <v>0.846858484400194</v>
+        <v>0.999664528427194</v>
       </c>
       <c r="H74" t="n">
-        <v>1.05583955221317</v>
+        <v>1.18191509118495</v>
       </c>
     </row>
     <row r="75">
@@ -6112,94 +6112,94 @@
         <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2238372263015</v>
+        <v>10.3319968669815</v>
       </c>
       <c r="D4" t="n">
-        <v>10.149657448525</v>
+        <v>10.259939947033</v>
       </c>
       <c r="E4" t="n">
-        <v>10.1485794638613</v>
+        <v>10.2612680462313</v>
       </c>
       <c r="F4" t="n">
-        <v>10.1181214070906</v>
+        <v>10.2174047558006</v>
       </c>
       <c r="G4" t="n">
-        <v>10.1242918255936</v>
+        <v>10.2299165400616</v>
       </c>
       <c r="H4" t="n">
-        <v>10.1115467874348</v>
+        <v>10.2435273718068</v>
       </c>
       <c r="I4" t="n">
-        <v>10.079049689642</v>
+        <v>10.219507898624</v>
       </c>
       <c r="J4" t="n">
-        <v>11.7424401312916</v>
+        <v>11.8704788926876</v>
       </c>
       <c r="K4" t="n">
-        <v>9.75918334429868</v>
+        <v>9.88689531650468</v>
       </c>
       <c r="L4" t="n">
-        <v>9.73513819003849</v>
+        <v>9.8704569272285</v>
       </c>
       <c r="M4" t="n">
-        <v>10.2578126202632</v>
+        <v>10.3865506706132</v>
       </c>
       <c r="N4" t="n">
-        <v>10.1016213916184</v>
+        <v>10.2304646425184</v>
       </c>
       <c r="O4" t="n">
-        <v>10.7555221178876</v>
+        <v>10.9031617545776</v>
       </c>
       <c r="P4" t="n">
-        <v>10.9879286380172</v>
+        <v>11.1303505813172</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.9770300104836</v>
+        <v>11.1303514897036</v>
       </c>
       <c r="R4" t="n">
-        <v>10.681943091573</v>
+        <v>10.834370208324</v>
       </c>
       <c r="S4" t="n">
-        <v>11.0401088671744</v>
+        <v>11.2078801132714</v>
       </c>
       <c r="T4" t="n">
-        <v>10.4372311112209</v>
+        <v>10.5980467917919</v>
       </c>
       <c r="U4" t="n">
-        <v>10.6869446008454</v>
+        <v>10.8383513426954</v>
       </c>
       <c r="V4" t="n">
-        <v>11.6174068744511</v>
+        <v>11.7867078888791</v>
       </c>
       <c r="W4" t="n">
-        <v>11.1454889156402</v>
+        <v>11.2982949596672</v>
       </c>
       <c r="X4" t="n">
-        <v>10.9212270394377</v>
+        <v>11.0897796378519</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.3466660780842</v>
+        <v>11.5185185817434</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5900019708159</v>
+        <v>11.7647181580433</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.0498362434753</v>
+        <v>12.2027360149543</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.2926641324401</v>
+        <v>12.4541630684021</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.8177841961939</v>
+        <v>11.9623976223147</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.7377703820776</v>
+        <v>11.8715901090276</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.8750790503123</v>
+        <v>12.0010790551339</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
     </row>
     <row r="5">
@@ -7024,16 +7024,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>1.27265647045264</v>
+        <v>1.38081611113264</v>
       </c>
       <c r="F24" t="n">
-        <v>1.01412640066455</v>
+        <v>1.14286445101455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.846858484400194</v>
+        <v>0.999664528427194</v>
       </c>
       <c r="H24" t="n">
-        <v>1.05583955221317</v>
+        <v>1.18191509118496</v>
       </c>
     </row>
     <row r="25">

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-12</t>
+    <t xml:space="preserve">2021-10-29</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>

--- a/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors.xlsx
@@ -5813,18 +5813,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI6" sqref="AI6"/>
+      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.33811702522910347</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>0.2388230920528078</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>0.21962081132537709</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0.14753737330608074</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6431,16 +6431,8 @@
         <f>AF6/$AF$7</f>
         <v>5.5901698086631015E-2</v>
       </c>
-      <c r="AH6">
-        <f>SUM(AF5:AF6,AF3)</f>
-        <v>26.133547575607381</v>
-      </c>
-      <c r="AI6">
-        <f>AH6/AF7</f>
-        <v>0.44226216344551955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AF7">
         <f>SUM(AF2:AF6)</f>
         <v>59.090624827612373</v>
